--- a/outputs/cb_senior_monthly.xlsx
+++ b/outputs/cb_senior_monthly.xlsx
@@ -530,10 +530,10 @@
         <v>4792.609403979561</v>
       </c>
       <c r="D2" t="n">
-        <v>3658.016134357856</v>
+        <v>3722.784466225693</v>
       </c>
       <c r="E2" t="n">
-        <v>5539.003414158128</v>
+        <v>5509.388573853434</v>
       </c>
       <c r="F2" t="n">
         <v>4792.609403979561</v>
@@ -583,10 +583,10 @@
         <v>4972.937422864596</v>
       </c>
       <c r="D3" t="n">
-        <v>3080.321863776259</v>
+        <v>3078.610889378423</v>
       </c>
       <c r="E3" t="n">
-        <v>4815.714647923814</v>
+        <v>4860.798210560581</v>
       </c>
       <c r="F3" t="n">
         <v>4972.937422864596</v>
@@ -636,10 +636,10 @@
         <v>5141.631376015112</v>
       </c>
       <c r="D4" t="n">
-        <v>4508.543074783775</v>
+        <v>4473.937389061508</v>
       </c>
       <c r="E4" t="n">
-        <v>6255.477596124759</v>
+        <v>6268.553558098631</v>
       </c>
       <c r="F4" t="n">
         <v>5141.631376015112</v>
@@ -689,10 +689,10 @@
         <v>5321.959394842444</v>
       </c>
       <c r="D5" t="n">
-        <v>4270.507898563272</v>
+        <v>4242.11458562212</v>
       </c>
       <c r="E5" t="n">
-        <v>6004.255877318449</v>
+        <v>6036.142484867423</v>
       </c>
       <c r="F5" t="n">
         <v>5321.959394842444</v>
@@ -742,10 +742,10 @@
         <v>5496.470380804378</v>
       </c>
       <c r="D6" t="n">
-        <v>4813.775633006402</v>
+        <v>4697.941021639032</v>
       </c>
       <c r="E6" t="n">
-        <v>6524.339971833573</v>
+        <v>6505.086613253977</v>
       </c>
       <c r="F6" t="n">
         <v>5496.470380804378</v>
@@ -795,10 +795,10 @@
         <v>5676.79839962913</v>
       </c>
       <c r="D7" t="n">
-        <v>5230.591255894849</v>
+        <v>5278.570548358602</v>
       </c>
       <c r="E7" t="n">
-        <v>7047.947823168954</v>
+        <v>7160.232557264712</v>
       </c>
       <c r="F7" t="n">
         <v>5676.79839962913</v>
@@ -848,10 +848,10 @@
         <v>5851.309385588566</v>
       </c>
       <c r="D8" t="n">
-        <v>4924.745587000498</v>
+        <v>4929.42659102279</v>
       </c>
       <c r="E8" t="n">
-        <v>6724.771464054413</v>
+        <v>6743.683931390684</v>
       </c>
       <c r="F8" t="n">
         <v>5851.309385588566</v>
@@ -901,10 +901,10 @@
         <v>6031.637404456834</v>
       </c>
       <c r="D9" t="n">
-        <v>6095.579228084176</v>
+        <v>6180.016865561843</v>
       </c>
       <c r="E9" t="n">
-        <v>7895.870837821796</v>
+        <v>7971.086719016831</v>
       </c>
       <c r="F9" t="n">
         <v>6031.637404456834</v>
@@ -954,10 +954,10 @@
         <v>6211.965423325099</v>
       </c>
       <c r="D10" t="n">
-        <v>5548.792154689806</v>
+        <v>5541.557175425605</v>
       </c>
       <c r="E10" t="n">
-        <v>7362.144778551366</v>
+        <v>7368.583835527766</v>
       </c>
       <c r="F10" t="n">
         <v>6211.965423325099</v>
@@ -1007,10 +1007,10 @@
         <v>6386.476409334599</v>
       </c>
       <c r="D11" t="n">
-        <v>6131.066121194763</v>
+        <v>6100.839690769964</v>
       </c>
       <c r="E11" t="n">
-        <v>7908.593649228996</v>
+        <v>7903.062678652085</v>
       </c>
       <c r="F11" t="n">
         <v>6386.476409334599</v>
@@ -1060,10 +1060,10 @@
         <v>6566.804428211083</v>
       </c>
       <c r="D12" t="n">
-        <v>5551.854315104936</v>
+        <v>5556.263055436963</v>
       </c>
       <c r="E12" t="n">
-        <v>7428.997619883658</v>
+        <v>7337.591672727965</v>
       </c>
       <c r="F12" t="n">
         <v>6566.804428211083</v>
@@ -1113,10 +1113,10 @@
         <v>6741.315414229314</v>
       </c>
       <c r="D13" t="n">
-        <v>5044.706896174842</v>
+        <v>4986.741499753051</v>
       </c>
       <c r="E13" t="n">
-        <v>6880.398392391974</v>
+        <v>6773.797709718638</v>
       </c>
       <c r="F13" t="n">
         <v>6741.315414229314</v>
@@ -1166,10 +1166,10 @@
         <v>6921.64343311482</v>
       </c>
       <c r="D14" t="n">
-        <v>6097.344314487641</v>
+        <v>6106.698423651384</v>
       </c>
       <c r="E14" t="n">
-        <v>7878.967832102155</v>
+        <v>7888.096361792294</v>
       </c>
       <c r="F14" t="n">
         <v>6921.64343311482</v>
@@ -1219,10 +1219,10 @@
         <v>7101.971452054767</v>
       </c>
       <c r="D15" t="n">
-        <v>5127.084703655486</v>
+        <v>5084.535691526403</v>
       </c>
       <c r="E15" t="n">
-        <v>7008.415475405723</v>
+        <v>6951.314854956852</v>
       </c>
       <c r="F15" t="n">
         <v>7101.971452054767</v>
@@ -1272,10 +1272,10 @@
         <v>7264.848372387622</v>
       </c>
       <c r="D16" t="n">
-        <v>6538.963793108559</v>
+        <v>6514.565372490892</v>
       </c>
       <c r="E16" t="n">
-        <v>8260.479524380027</v>
+        <v>8318.21669277514</v>
       </c>
       <c r="F16" t="n">
         <v>7264.848372387622</v>
@@ -1325,10 +1325,10 @@
         <v>7445.176391364749</v>
       </c>
       <c r="D17" t="n">
-        <v>6404.522748570585</v>
+        <v>6389.170489766438</v>
       </c>
       <c r="E17" t="n">
-        <v>8270.168778747049</v>
+        <v>8165.435016140957</v>
       </c>
       <c r="F17" t="n">
         <v>7445.176391364749</v>
@@ -1378,10 +1378,10 @@
         <v>7619.687377471646</v>
       </c>
       <c r="D18" t="n">
-        <v>6851.454769375863</v>
+        <v>6866.763625724076</v>
       </c>
       <c r="E18" t="n">
-        <v>8654.494491410074</v>
+        <v>8587.857183860062</v>
       </c>
       <c r="F18" t="n">
         <v>7619.687377471646</v>
@@ -1431,10 +1431,10 @@
         <v>7800.01539646853</v>
       </c>
       <c r="D19" t="n">
-        <v>7304.192013539794</v>
+        <v>7254.290648456837</v>
       </c>
       <c r="E19" t="n">
-        <v>9106.017910211171</v>
+        <v>9070.067976020702</v>
       </c>
       <c r="F19" t="n">
         <v>7800.01539646853</v>
@@ -1484,10 +1484,10 @@
         <v>7974.526382594547</v>
       </c>
       <c r="D20" t="n">
-        <v>7466.842640162222</v>
+        <v>7410.545782801233</v>
       </c>
       <c r="E20" t="n">
-        <v>9215.268709187818</v>
+        <v>9206.831855320852</v>
       </c>
       <c r="F20" t="n">
         <v>7974.526382594547</v>
@@ -1537,10 +1537,10 @@
         <v>8154.854401575235</v>
       </c>
       <c r="D21" t="n">
-        <v>8087.227926142194</v>
+        <v>8085.06328644849</v>
       </c>
       <c r="E21" t="n">
-        <v>9875.55584341911</v>
+        <v>9850.981041814492</v>
       </c>
       <c r="F21" t="n">
         <v>8154.854401575235</v>
@@ -1590,10 +1590,10 @@
         <v>8335.182420555922</v>
       </c>
       <c r="D22" t="n">
-        <v>7470.774714584787</v>
+        <v>7537.251037837753</v>
       </c>
       <c r="E22" t="n">
-        <v>9356.398107030192</v>
+        <v>9274.549704373474</v>
       </c>
       <c r="F22" t="n">
         <v>8335.182420555922</v>
@@ -1643,10 +1643,10 @@
         <v>8509.693340443928</v>
       </c>
       <c r="D23" t="n">
-        <v>8214.140899383105</v>
+        <v>8215.564473131442</v>
       </c>
       <c r="E23" t="n">
-        <v>10097.75776145731</v>
+        <v>10075.48204043635</v>
       </c>
       <c r="F23" t="n">
         <v>8509.693340443928</v>
@@ -1696,10 +1696,10 @@
         <v>8690.021290994866</v>
       </c>
       <c r="D24" t="n">
-        <v>7884.828782084851</v>
+        <v>7902.169952173322</v>
       </c>
       <c r="E24" t="n">
-        <v>9677.588243419455</v>
+        <v>9673.382768060224</v>
       </c>
       <c r="F24" t="n">
         <v>8690.021290994866</v>
@@ -1749,10 +1749,10 @@
         <v>8864.519213950809</v>
       </c>
       <c r="D25" t="n">
-        <v>7242.581263990411</v>
+        <v>7215.449132070135</v>
       </c>
       <c r="E25" t="n">
-        <v>9033.771066812642</v>
+        <v>9026.658767421131</v>
       </c>
       <c r="F25" t="n">
         <v>8864.519213950809</v>
@@ -1802,10 +1802,10 @@
         <v>9044.833734338614</v>
       </c>
       <c r="D26" t="n">
-        <v>8144.386136760675</v>
+        <v>8124.56127071588</v>
       </c>
       <c r="E26" t="n">
-        <v>10016.16863117337</v>
+        <v>9931.686385067564</v>
       </c>
       <c r="F26" t="n">
         <v>9044.833734338614</v>
@@ -1855,10 +1855,10 @@
         <v>9225.096493444595</v>
       </c>
       <c r="D27" t="n">
-        <v>7260.151264460088</v>
+        <v>7304.066955579535</v>
       </c>
       <c r="E27" t="n">
-        <v>9054.164525960707</v>
+        <v>9080.252202501635</v>
       </c>
       <c r="F27" t="n">
         <v>9225.096493444595</v>
@@ -1908,10 +1908,10 @@
         <v>9387.914469411287</v>
       </c>
       <c r="D28" t="n">
-        <v>8483.084272428199</v>
+        <v>8539.515929613241</v>
       </c>
       <c r="E28" t="n">
-        <v>10352.20460447443</v>
+        <v>10311.41734631381</v>
       </c>
       <c r="F28" t="n">
         <v>9387.914469411287</v>
@@ -1961,10 +1961,10 @@
         <v>9370.886321306689</v>
       </c>
       <c r="D29" t="n">
-        <v>8335.843780049534</v>
+        <v>8288.087908185975</v>
       </c>
       <c r="E29" t="n">
-        <v>10161.23169173522</v>
+        <v>10177.60341970844</v>
       </c>
       <c r="F29" t="n">
         <v>9370.886321306689</v>
@@ -2014,10 +2014,10 @@
         <v>9354.407468302243</v>
       </c>
       <c r="D30" t="n">
-        <v>8615.234302674016</v>
+        <v>8643.239854560215</v>
       </c>
       <c r="E30" t="n">
-        <v>10431.86866593268</v>
+        <v>10436.89820957455</v>
       </c>
       <c r="F30" t="n">
         <v>9354.407468302243</v>
@@ -2067,10 +2067,10 @@
         <v>9337.27814117764</v>
       </c>
       <c r="D31" t="n">
-        <v>8734.677016338215</v>
+        <v>8782.816079287953</v>
       </c>
       <c r="E31" t="n">
-        <v>10536.92952319719</v>
+        <v>10541.43134649259</v>
       </c>
       <c r="F31" t="n">
         <v>9337.27814117764</v>
@@ -2120,10 +2120,10 @@
         <v>9320.701372992538</v>
       </c>
       <c r="D32" t="n">
-        <v>9123.316334006255</v>
+        <v>9136.853085912668</v>
       </c>
       <c r="E32" t="n">
-        <v>10933.12256286185</v>
+        <v>10873.78220350007</v>
       </c>
       <c r="F32" t="n">
         <v>9320.701372992538</v>
@@ -2173,10 +2173,10 @@
         <v>9303.42876541775</v>
       </c>
       <c r="D33" t="n">
-        <v>8912.575013382726</v>
+        <v>8951.414307844128</v>
       </c>
       <c r="E33" t="n">
-        <v>10772.40760874678</v>
+        <v>10775.18453335783</v>
       </c>
       <c r="F33" t="n">
         <v>9303.42876541775</v>
@@ -2226,10 +2226,10 @@
         <v>9286.156157842961</v>
       </c>
       <c r="D34" t="n">
-        <v>8278.839589470399</v>
+        <v>8277.390438842745</v>
       </c>
       <c r="E34" t="n">
-        <v>10027.8679482523</v>
+        <v>10064.73772425724</v>
       </c>
       <c r="F34" t="n">
         <v>9286.156157842961</v>
@@ -2279,10 +2279,10 @@
         <v>9269.335772001268</v>
       </c>
       <c r="D35" t="n">
-        <v>9001.911286695891</v>
+        <v>9062.677133790417</v>
       </c>
       <c r="E35" t="n">
-        <v>10803.55456430749</v>
+        <v>10735.78955703493</v>
       </c>
       <c r="F35" t="n">
         <v>9269.335772001268</v>
@@ -2332,10 +2332,10 @@
         <v>9251.954706631519</v>
       </c>
       <c r="D36" t="n">
-        <v>8611.231149780688</v>
+        <v>8553.979905499782</v>
       </c>
       <c r="E36" t="n">
-        <v>10400.10825200233</v>
+        <v>10316.54967285273</v>
       </c>
       <c r="F36" t="n">
         <v>9251.954706631519</v>
@@ -2385,10 +2385,10 @@
         <v>9235.084785591873</v>
       </c>
       <c r="D37" t="n">
-        <v>7669.557032420017</v>
+        <v>7707.924506408471</v>
       </c>
       <c r="E37" t="n">
-        <v>9496.478273453526</v>
+        <v>9529.979321691091</v>
       </c>
       <c r="F37" t="n">
         <v>9235.084785591873</v>
@@ -2438,10 +2438,10 @@
         <v>9217.652533850902</v>
       </c>
       <c r="D38" t="n">
-        <v>8238.378169487538</v>
+        <v>8187.892803608758</v>
       </c>
       <c r="E38" t="n">
-        <v>10013.52174213304</v>
+        <v>10001.8397081305</v>
       </c>
       <c r="F38" t="n">
         <v>9217.652533850902</v>
@@ -2491,10 +2491,10 @@
         <v>9200.213908157837</v>
       </c>
       <c r="D39" t="n">
-        <v>7272.66535637061</v>
+        <v>7181.371816926231</v>
       </c>
       <c r="E39" t="n">
-        <v>9106.890786683907</v>
+        <v>9061.578902475001</v>
       </c>
       <c r="F39" t="n">
         <v>9200.213908157837</v>
@@ -2544,10 +2544,10 @@
         <v>9184.462891402809</v>
       </c>
       <c r="D40" t="n">
-        <v>8200.222095004363</v>
+        <v>8180.614014897184</v>
       </c>
       <c r="E40" t="n">
-        <v>10008.98181962133</v>
+        <v>10012.93659600155</v>
       </c>
       <c r="F40" t="n">
         <v>9184.462891402809</v>
@@ -2597,10 +2597,10 @@
         <v>9167.02039290737</v>
       </c>
       <c r="D41" t="n">
-        <v>8168.921536541819</v>
+        <v>8214.552634301141</v>
       </c>
       <c r="E41" t="n">
-        <v>9965.969284350227</v>
+        <v>9989.700344998966</v>
       </c>
       <c r="F41" t="n">
         <v>9167.02039290737</v>
@@ -2650,10 +2650,10 @@
         <v>9150.140555653721</v>
       </c>
       <c r="D42" t="n">
-        <v>8519.851190495576</v>
+        <v>8429.146138828964</v>
       </c>
       <c r="E42" t="n">
-        <v>10300.14955260981</v>
+        <v>10337.91170971608</v>
       </c>
       <c r="F42" t="n">
         <v>9150.140555653721</v>
@@ -2703,10 +2703,10 @@
         <v>9132.681722456084</v>
       </c>
       <c r="D43" t="n">
-        <v>8495.130768092869</v>
+        <v>8496.285455740363</v>
       </c>
       <c r="E43" t="n">
-        <v>10296.31148523239</v>
+        <v>10302.11838781222</v>
       </c>
       <c r="F43" t="n">
         <v>9132.681722456084</v>
@@ -2756,10 +2756,10 @@
         <v>9115.786077426113</v>
       </c>
       <c r="D44" t="n">
-        <v>9250.798272669579</v>
+        <v>9280.814759283026</v>
       </c>
       <c r="E44" t="n">
-        <v>11058.87771606247</v>
+        <v>11000.68863702923</v>
       </c>
       <c r="F44" t="n">
         <v>9115.786077426113</v>
@@ -2809,10 +2809,10 @@
         <v>9098.323074588505</v>
       </c>
       <c r="D45" t="n">
-        <v>8571.108469915807</v>
+        <v>8441.656696606218</v>
       </c>
       <c r="E45" t="n">
-        <v>10365.17030744091</v>
+        <v>10332.56805725996</v>
       </c>
       <c r="F45" t="n">
         <v>9098.323074588505</v>
@@ -2862,10 +2862,10 @@
         <v>9080.860071750896</v>
       </c>
       <c r="D46" t="n">
-        <v>7863.071299920736</v>
+        <v>7869.802193233409</v>
       </c>
       <c r="E46" t="n">
-        <v>9638.567518360212</v>
+        <v>9651.50449116303</v>
       </c>
       <c r="F46" t="n">
         <v>9080.860071750896</v>
@@ -2915,10 +2915,10 @@
         <v>9063.956982103657</v>
       </c>
       <c r="D47" t="n">
-        <v>8788.91814251735</v>
+        <v>8749.993291635756</v>
       </c>
       <c r="E47" t="n">
-        <v>10583.63669532757</v>
+        <v>10567.35563397009</v>
       </c>
       <c r="F47" t="n">
         <v>9063.956982103657</v>
@@ -2968,10 +2968,10 @@
         <v>9046.490456134839</v>
       </c>
       <c r="D48" t="n">
-        <v>8496.968342770313</v>
+        <v>8556.180732517712</v>
       </c>
       <c r="E48" t="n">
-        <v>10319.38025688073</v>
+        <v>10411.62641283315</v>
       </c>
       <c r="F48" t="n">
         <v>9046.490456134839</v>
@@ -3021,10 +3021,10 @@
         <v>9029.585595842504</v>
       </c>
       <c r="D49" t="n">
-        <v>7579.071744337599</v>
+        <v>7554.708846680126</v>
       </c>
       <c r="E49" t="n">
-        <v>9362.504669273621</v>
+        <v>9350.700837860324</v>
       </c>
       <c r="F49" t="n">
         <v>9029.585595842504</v>
@@ -3074,10 +3074,10 @@
         <v>9012.117240207092</v>
       </c>
       <c r="D50" t="n">
-        <v>7940.365578578487</v>
+        <v>7944.641729599184</v>
       </c>
       <c r="E50" t="n">
-        <v>9837.82798758567</v>
+        <v>9715.872392748304</v>
       </c>
       <c r="F50" t="n">
         <v>9012.117240207092</v>
@@ -3127,10 +3127,10 @@
         <v>8994.648884528051</v>
       </c>
       <c r="D51" t="n">
-        <v>7043.655094614234</v>
+        <v>7015.765827329742</v>
       </c>
       <c r="E51" t="n">
-        <v>8798.836620439724</v>
+        <v>8857.004408784802</v>
       </c>
       <c r="F51" t="n">
         <v>8994.648884528051</v>
@@ -3180,10 +3180,10 @@
         <v>8978.307519537979</v>
       </c>
       <c r="D52" t="n">
-        <v>8327.259091465616</v>
+        <v>8328.801014875995</v>
       </c>
       <c r="E52" t="n">
-        <v>10061.26810628359</v>
+        <v>10124.86289603316</v>
       </c>
       <c r="F52" t="n">
         <v>8978.307519537979</v>
@@ -3233,10 +3233,10 @@
         <v>8960.839098645876</v>
       </c>
       <c r="D53" t="n">
-        <v>7918.273776648007</v>
+        <v>7843.503287356016</v>
       </c>
       <c r="E53" t="n">
-        <v>9725.747418306235</v>
+        <v>9666.637840665082</v>
       </c>
       <c r="F53" t="n">
         <v>8960.839098645876</v>
@@ -3286,10 +3286,10 @@
         <v>8943.934175201903</v>
       </c>
       <c r="D54" t="n">
-        <v>8179.258438572401</v>
+        <v>8144.794542893102</v>
       </c>
       <c r="E54" t="n">
-        <v>9999.262886403851</v>
+        <v>10010.15122972383</v>
       </c>
       <c r="F54" t="n">
         <v>8943.934175201903</v>
@@ -3339,10 +3339,10 @@
         <v>8926.465754309798</v>
       </c>
       <c r="D55" t="n">
-        <v>8525.066905187865</v>
+        <v>8517.702250055663</v>
       </c>
       <c r="E55" t="n">
-        <v>10261.66044984265</v>
+        <v>10395.10305358218</v>
       </c>
       <c r="F55" t="n">
         <v>8926.465754309798</v>
@@ -3392,10 +3392,10 @@
         <v>8909.560830865827</v>
       </c>
       <c r="D56" t="n">
-        <v>7955.252104545994</v>
+        <v>8010.956959462913</v>
       </c>
       <c r="E56" t="n">
-        <v>9809.827239461296</v>
+        <v>9791.798167992656</v>
       </c>
       <c r="F56" t="n">
         <v>8909.560830865827</v>
@@ -3445,10 +3445,10 @@
         <v>8892.092409973722</v>
       </c>
       <c r="D57" t="n">
-        <v>9034.133505001197</v>
+        <v>8962.1597176468</v>
       </c>
       <c r="E57" t="n">
-        <v>10825.6179072857</v>
+        <v>10780.30500024764</v>
       </c>
       <c r="F57" t="n">
         <v>8892.092409973722</v>
@@ -3498,10 +3498,10 @@
         <v>8874.623989081618</v>
       </c>
       <c r="D58" t="n">
-        <v>8179.619354024986</v>
+        <v>8241.699327956194</v>
       </c>
       <c r="E58" t="n">
-        <v>10032.17955718638</v>
+        <v>10014.8624483296</v>
       </c>
       <c r="F58" t="n">
         <v>8874.623989081618</v>
@@ -3551,10 +3551,10 @@
         <v>8857.719065637644</v>
       </c>
       <c r="D59" t="n">
-        <v>8564.849184885261</v>
+        <v>8563.757691494518</v>
       </c>
       <c r="E59" t="n">
-        <v>10306.10432706443</v>
+        <v>10303.69679726472</v>
       </c>
       <c r="F59" t="n">
         <v>8857.719065637644</v>
@@ -3604,10 +3604,10 @@
         <v>8840.250644745542</v>
       </c>
       <c r="D60" t="n">
-        <v>7898.648842690411</v>
+        <v>7871.677904662083</v>
       </c>
       <c r="E60" t="n">
-        <v>9655.306564004268</v>
+        <v>9672.464813123614</v>
       </c>
       <c r="F60" t="n">
         <v>8840.250644745542</v>
@@ -3657,10 +3657,10 @@
         <v>8823.34572130157</v>
       </c>
       <c r="D61" t="n">
-        <v>7149.391956235263</v>
+        <v>7079.534367591026</v>
       </c>
       <c r="E61" t="n">
-        <v>8884.681457326385</v>
+        <v>8930.173246392904</v>
       </c>
       <c r="F61" t="n">
         <v>8823.34572130157</v>
@@ -3710,10 +3710,10 @@
         <v>8805.877300409464</v>
       </c>
       <c r="D62" t="n">
-        <v>8031.814139193444</v>
+        <v>7988.694587448253</v>
       </c>
       <c r="E62" t="n">
-        <v>9800.607909495997</v>
+        <v>9780.041633336508</v>
       </c>
       <c r="F62" t="n">
         <v>8805.877300409464</v>
@@ -3763,10 +3763,10 @@
         <v>8788.408879517359</v>
       </c>
       <c r="D63" t="n">
-        <v>6815.731057745311</v>
+        <v>6813.386748993148</v>
       </c>
       <c r="E63" t="n">
-        <v>8687.31517348928</v>
+        <v>8696.509506411652</v>
       </c>
       <c r="F63" t="n">
         <v>8788.408879517359</v>
@@ -3816,10 +3816,10 @@
         <v>8772.630950969653</v>
       </c>
       <c r="D64" t="n">
-        <v>7988.315725304701</v>
+        <v>8021.556790294373</v>
       </c>
       <c r="E64" t="n">
-        <v>9777.211045316122</v>
+        <v>9868.725890339576</v>
       </c>
       <c r="F64" t="n">
         <v>8772.630950969653</v>
@@ -3869,10 +3869,10 @@
         <v>8755.162530077549</v>
       </c>
       <c r="D65" t="n">
-        <v>7742.515926633855</v>
+        <v>7720.145491749687</v>
       </c>
       <c r="E65" t="n">
-        <v>9534.734584571004</v>
+        <v>9490.043404255061</v>
       </c>
       <c r="F65" t="n">
         <v>8755.162530077549</v>
@@ -3922,10 +3922,10 @@
         <v>8738.257606633577</v>
       </c>
       <c r="D66" t="n">
-        <v>8024.769744673543</v>
+        <v>7987.065573201935</v>
       </c>
       <c r="E66" t="n">
-        <v>9773.608224054</v>
+        <v>9735.699390135924</v>
       </c>
       <c r="F66" t="n">
         <v>8738.257606633577</v>
@@ -3975,10 +3975,10 @@
         <v>8720.789185741471</v>
       </c>
       <c r="D67" t="n">
-        <v>8260.568653631928</v>
+        <v>8213.115263582687</v>
       </c>
       <c r="E67" t="n">
-        <v>10111.9552051493</v>
+        <v>10003.89783726912</v>
       </c>
       <c r="F67" t="n">
         <v>8720.789185741471</v>
@@ -4028,10 +4028,10 @@
         <v>8703.884262297499</v>
       </c>
       <c r="D68" t="n">
-        <v>8209.699257199247</v>
+        <v>8073.670688614514</v>
       </c>
       <c r="E68" t="n">
-        <v>9981.327279185474</v>
+        <v>9925.470066753927</v>
       </c>
       <c r="F68" t="n">
         <v>8703.884262297499</v>
@@ -4081,10 +4081,10 @@
         <v>8686.415841405396</v>
       </c>
       <c r="D69" t="n">
-        <v>8539.637300079741</v>
+        <v>8621.102153491463</v>
       </c>
       <c r="E69" t="n">
-        <v>10405.92918785797</v>
+        <v>10377.57154834595</v>
       </c>
       <c r="F69" t="n">
         <v>8686.415841405396</v>
@@ -4134,10 +4134,10 @@
         <v>8668.94742051329</v>
       </c>
       <c r="D70" t="n">
-        <v>7900.199005977566</v>
+        <v>7851.43741690375</v>
       </c>
       <c r="E70" t="n">
-        <v>9620.375313271612</v>
+        <v>9606.950231954215</v>
       </c>
       <c r="F70" t="n">
         <v>8668.94742051329</v>
@@ -4187,10 +4187,10 @@
         <v>8652.042497069318</v>
       </c>
       <c r="D71" t="n">
-        <v>8376.912708196838</v>
+        <v>8374.383052404304</v>
       </c>
       <c r="E71" t="n">
-        <v>10091.07365977205</v>
+        <v>10126.04661827701</v>
       </c>
       <c r="F71" t="n">
         <v>8652.042497069318</v>
@@ -4240,10 +4240,10 @@
         <v>8634.574076177214</v>
       </c>
       <c r="D72" t="n">
-        <v>7819.986520585766</v>
+        <v>7803.236127038464</v>
       </c>
       <c r="E72" t="n">
-        <v>9582.169573721487</v>
+        <v>9641.060771997945</v>
       </c>
       <c r="F72" t="n">
         <v>8634.574076177214</v>
@@ -4293,10 +4293,10 @@
         <v>8617.669152733242</v>
       </c>
       <c r="D73" t="n">
-        <v>7008.645156114652</v>
+        <v>7043.70241127422</v>
       </c>
       <c r="E73" t="n">
-        <v>8848.418816382522</v>
+        <v>8796.805810499096</v>
       </c>
       <c r="F73" t="n">
         <v>8617.669152733242</v>
@@ -4346,10 +4346,10 @@
         <v>8600.200731841138</v>
       </c>
       <c r="D74" t="n">
-        <v>7629.547392367083</v>
+        <v>7727.166827554395</v>
       </c>
       <c r="E74" t="n">
-        <v>9440.820618881235</v>
+        <v>9510.974258113733</v>
       </c>
       <c r="F74" t="n">
         <v>8600.200731841138</v>
@@ -4399,10 +4399,10 @@
         <v>8582.732310949033</v>
       </c>
       <c r="D75" t="n">
-        <v>6599.489037981931</v>
+        <v>6629.949759251826</v>
       </c>
       <c r="E75" t="n">
-        <v>8415.267857780822</v>
+        <v>8431.412386538621</v>
       </c>
       <c r="F75" t="n">
         <v>8582.732310949033</v>
@@ -4452,10 +4452,10 @@
         <v>8566.954382401325</v>
       </c>
       <c r="D76" t="n">
-        <v>7735.981978603488</v>
+        <v>7730.767572389703</v>
       </c>
       <c r="E76" t="n">
-        <v>9521.205706649762</v>
+        <v>9527.568681206405</v>
       </c>
       <c r="F76" t="n">
         <v>8566.954382401325</v>
@@ -4505,10 +4505,10 @@
         <v>8549.485961509221</v>
       </c>
       <c r="D77" t="n">
-        <v>7484.18002301964</v>
+        <v>7514.312330803365</v>
       </c>
       <c r="E77" t="n">
-        <v>9309.311614100392</v>
+        <v>9312.591980923215</v>
       </c>
       <c r="F77" t="n">
         <v>8549.485961509221</v>
@@ -4558,16 +4558,16 @@
         <v>8532.581038065249</v>
       </c>
       <c r="D78" t="n">
-        <v>7793.735387639176</v>
+        <v>7844.856340175494</v>
       </c>
       <c r="E78" t="n">
-        <v>9566.250506864906</v>
+        <v>9622.400751737654</v>
       </c>
       <c r="F78" t="n">
-        <v>8531.562560886989</v>
+        <v>8532.2784438451</v>
       </c>
       <c r="G78" t="n">
-        <v>8534.646917056905</v>
+        <v>8533.901582060727</v>
       </c>
       <c r="H78" t="n">
         <v>194.6368133004122</v>
@@ -4611,16 +4611,16 @@
         <v>8515.112617173145</v>
       </c>
       <c r="D79" t="n">
-        <v>7952.989822900868</v>
+        <v>8033.688901450039</v>
       </c>
       <c r="E79" t="n">
-        <v>9793.114845725924</v>
+        <v>9737.783277018865</v>
       </c>
       <c r="F79" t="n">
-        <v>8508.915261748369</v>
+        <v>8508.053974470662</v>
       </c>
       <c r="G79" t="n">
-        <v>8524.230414441261</v>
+        <v>8522.813343922695</v>
       </c>
       <c r="H79" t="n">
         <v>337.9660260929159</v>
@@ -4664,16 +4664,16 @@
         <v>8498.207693729173</v>
       </c>
       <c r="D80" t="n">
-        <v>8316.898346716458</v>
+        <v>8392.943867518043</v>
       </c>
       <c r="E80" t="n">
-        <v>10099.62464226453</v>
+        <v>10131.36162098645</v>
       </c>
       <c r="F80" t="n">
-        <v>8483.310332719288</v>
+        <v>8482.507340603594</v>
       </c>
       <c r="G80" t="n">
-        <v>8518.07239794532</v>
+        <v>8516.806860979243</v>
       </c>
       <c r="H80" t="n">
         <v>697.6059478656276</v>
@@ -4717,16 +4717,16 @@
         <v>8480.739272837069</v>
       </c>
       <c r="D81" t="n">
-        <v>8206.286366284401</v>
+        <v>8124.358073492471</v>
       </c>
       <c r="E81" t="n">
-        <v>9970.197841856978</v>
+        <v>10017.07172449199</v>
       </c>
       <c r="F81" t="n">
-        <v>8455.36610085832</v>
+        <v>8452.956082697294</v>
       </c>
       <c r="G81" t="n">
-        <v>8512.740632825109</v>
+        <v>8510.836156380019</v>
       </c>
       <c r="H81" t="n">
         <v>563.0750076223342</v>
@@ -4770,16 +4770,16 @@
         <v>8463.270851944964</v>
       </c>
       <c r="D82" t="n">
-        <v>7389.329835214518</v>
+        <v>7514.473548532561</v>
       </c>
       <c r="E82" t="n">
-        <v>9295.944568529239</v>
+        <v>9266.719816623467</v>
       </c>
       <c r="F82" t="n">
-        <v>8422.991989555338</v>
+        <v>8422.603068585082</v>
       </c>
       <c r="G82" t="n">
-        <v>8509.319375878124</v>
+        <v>8507.56635820832</v>
       </c>
       <c r="H82" t="n">
         <v>-130.4616289782248</v>
@@ -4823,16 +4823,16 @@
         <v>8446.365928500993</v>
       </c>
       <c r="D83" t="n">
-        <v>8177.656568364972</v>
+        <v>8110.564745942058</v>
       </c>
       <c r="E83" t="n">
-        <v>9920.861013597361</v>
+        <v>9891.325220277453</v>
       </c>
       <c r="F83" t="n">
-        <v>8390.984680401354</v>
+        <v>8388.832721053095</v>
       </c>
       <c r="G83" t="n">
-        <v>8508.327384993139</v>
+        <v>8505.494350915098</v>
       </c>
       <c r="H83" t="n">
         <v>612.4604894620029</v>
@@ -4876,16 +4876,16 @@
         <v>8428.897507608888</v>
       </c>
       <c r="D84" t="n">
-        <v>7725.976936932833</v>
+        <v>7792.89208560637</v>
       </c>
       <c r="E84" t="n">
-        <v>9575.426629890339</v>
+        <v>9511.034931884145</v>
       </c>
       <c r="F84" t="n">
-        <v>8355.981643445031</v>
+        <v>8355.03465122158</v>
       </c>
       <c r="G84" t="n">
-        <v>8509.444902793251</v>
+        <v>8506.60084884738</v>
       </c>
       <c r="H84" t="n">
         <v>231.9627940637925</v>
@@ -4929,16 +4929,16 @@
         <v>8411.992584164916</v>
       </c>
       <c r="D85" t="n">
-        <v>6853.363599303371</v>
+        <v>6829.925885136464</v>
       </c>
       <c r="E85" t="n">
-        <v>8688.547158293804</v>
+        <v>8649.507626464243</v>
       </c>
       <c r="F85" t="n">
-        <v>8325.112045878102</v>
+        <v>8321.069610791876</v>
       </c>
       <c r="G85" t="n">
-        <v>8512.862126838903</v>
+        <v>8508.143373064275</v>
       </c>
       <c r="H85" t="n">
         <v>-628.598297886594</v>
@@ -4982,16 +4982,16 @@
         <v>8394.52416327281</v>
       </c>
       <c r="D86" t="n">
-        <v>7412.381595567231</v>
+        <v>7360.790311240366</v>
       </c>
       <c r="E86" t="n">
-        <v>9215.671876694551</v>
+        <v>9290.824213996868</v>
       </c>
       <c r="F86" t="n">
-        <v>8287.433720806046</v>
+        <v>8281.2106077278</v>
       </c>
       <c r="G86" t="n">
-        <v>8512.855534129432</v>
+        <v>8511.123751582545</v>
       </c>
       <c r="H86" t="n">
         <v>-82.43546954448497</v>
@@ -5035,16 +5035,16 @@
         <v>8377.055742380706</v>
       </c>
       <c r="D87" t="n">
-        <v>6410.404089165686</v>
+        <v>6480.194313771144</v>
       </c>
       <c r="E87" t="n">
-        <v>8250.648167225847</v>
+        <v>8242.294916375766</v>
       </c>
       <c r="F87" t="n">
-        <v>8250.747920980191</v>
+        <v>8241.239772652874</v>
       </c>
       <c r="G87" t="n">
-        <v>8516.235369998947</v>
+        <v>8513.861397722023</v>
       </c>
       <c r="H87" t="n">
         <v>-1048.539956463549</v>
@@ -5088,16 +5088,16 @@
         <v>8361.277813832998</v>
       </c>
       <c r="D88" t="n">
-        <v>7436.507676174643</v>
+        <v>7388.107978613731</v>
       </c>
       <c r="E88" t="n">
-        <v>9169.94832500747</v>
+        <v>9270.044162260712</v>
       </c>
       <c r="F88" t="n">
-        <v>8213.730912487172</v>
+        <v>8206.163260744983</v>
       </c>
       <c r="G88" t="n">
-        <v>8525.838547353476</v>
+        <v>8517.366724486548</v>
       </c>
       <c r="H88" t="n">
         <v>-64.44308306855378</v>
@@ -5141,16 +5141,16 @@
         <v>8343.809392940895</v>
       </c>
       <c r="D89" t="n">
-        <v>7362.405090069406</v>
+        <v>7384.376953973827</v>
       </c>
       <c r="E89" t="n">
-        <v>9206.818083489045</v>
+        <v>9238.30196011815</v>
       </c>
       <c r="F89" t="n">
-        <v>8177.066629875393</v>
+        <v>8163.594445760884</v>
       </c>
       <c r="G89" t="n">
-        <v>8537.321476771409</v>
+        <v>8524.750226168908</v>
       </c>
       <c r="H89" t="n">
         <v>-82.35198469177388</v>
@@ -5194,16 +5194,16 @@
         <v>8326.904469496923</v>
       </c>
       <c r="D90" t="n">
-        <v>7589.454045816655</v>
+        <v>7612.13569515785</v>
       </c>
       <c r="E90" t="n">
-        <v>9485.017221080765</v>
+        <v>9443.820439126885</v>
       </c>
       <c r="F90" t="n">
-        <v>8134.988233575841</v>
+        <v>8121.710074367116</v>
       </c>
       <c r="G90" t="n">
-        <v>8543.684872662761</v>
+        <v>8534.47297581284</v>
       </c>
       <c r="H90" t="n">
         <v>221.6245101798546</v>
@@ -5247,16 +5247,16 @@
         <v>8309.436048604817</v>
       </c>
       <c r="D91" t="n">
-        <v>7713.760887666487</v>
+        <v>7566.541939228589</v>
       </c>
       <c r="E91" t="n">
-        <v>9500.915425132656</v>
+        <v>9495.634049947685</v>
       </c>
       <c r="F91" t="n">
-        <v>8082.378007869451</v>
+        <v>8079.344643191856</v>
       </c>
       <c r="G91" t="n">
-        <v>8551.405521304665</v>
+        <v>8540.712796464088</v>
       </c>
       <c r="H91" t="n">
         <v>259.6711338136146</v>
@@ -5300,16 +5300,16 @@
         <v>8292.531125160847</v>
       </c>
       <c r="D92" t="n">
-        <v>8403.581893306895</v>
+        <v>8380.010117884203</v>
       </c>
       <c r="E92" t="n">
-        <v>10222.11098116538</v>
+        <v>10237.42457273207</v>
       </c>
       <c r="F92" t="n">
-        <v>8048.586244237465</v>
+        <v>8039.914173527399</v>
       </c>
       <c r="G92" t="n">
-        <v>8558.162632341162</v>
+        <v>8546.680573414964</v>
       </c>
       <c r="H92" t="n">
         <v>1058.427514811675</v>
@@ -5353,16 +5353,16 @@
         <v>8275.062704268741</v>
       </c>
       <c r="D93" t="n">
-        <v>7664.23643994584</v>
+        <v>7672.890565509832</v>
       </c>
       <c r="E93" t="n">
-        <v>9552.319271846953</v>
+        <v>9597.541309727903</v>
       </c>
       <c r="F93" t="n">
-        <v>8009.028012538461</v>
+        <v>7991.803399449491</v>
       </c>
       <c r="G93" t="n">
-        <v>8564.59514304937</v>
+        <v>8563.309454515691</v>
       </c>
       <c r="H93" t="n">
         <v>331.914962698224</v>
@@ -5406,16 +5406,16 @@
         <v>8257.594283376637</v>
       </c>
       <c r="D94" t="n">
-        <v>7065.603461807696</v>
+        <v>7036.304205922166</v>
       </c>
       <c r="E94" t="n">
-        <v>8916.863473615318</v>
+        <v>8888.168028244554</v>
       </c>
       <c r="F94" t="n">
-        <v>7954.309321392007</v>
+        <v>7949.720835369635</v>
       </c>
       <c r="G94" t="n">
-        <v>8584.407428425304</v>
+        <v>8576.156160541615</v>
       </c>
       <c r="H94" t="n">
         <v>-322.9383887204689</v>

--- a/outputs/cb_senior_monthly.xlsx
+++ b/outputs/cb_senior_monthly.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q94"/>
+  <dimension ref="A1:Q77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,40 +524,40 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>42370</v>
+        <v>42917</v>
       </c>
       <c r="C2" t="n">
-        <v>4792.609403979561</v>
+        <v>8380.467701348956</v>
       </c>
       <c r="D2" t="n">
-        <v>3722.784466225693</v>
+        <v>5438.262232767763</v>
       </c>
       <c r="E2" t="n">
-        <v>5509.388573853434</v>
+        <v>8961.342411543079</v>
       </c>
       <c r="F2" t="n">
-        <v>4792.609403979561</v>
+        <v>8380.467701348956</v>
       </c>
       <c r="G2" t="n">
-        <v>4792.609403979561</v>
+        <v>8380.467701348956</v>
       </c>
       <c r="H2" t="n">
-        <v>-164.2153022380033</v>
+        <v>-1075.199123542488</v>
       </c>
       <c r="I2" t="n">
-        <v>-164.2153022380033</v>
+        <v>-1075.199123542488</v>
       </c>
       <c r="J2" t="n">
-        <v>-164.2153022380033</v>
+        <v>-1075.199123542488</v>
       </c>
       <c r="K2" t="n">
-        <v>-164.2153022380033</v>
+        <v>-1075.199123542488</v>
       </c>
       <c r="L2" t="n">
-        <v>-164.2153022380033</v>
+        <v>-1075.199123542488</v>
       </c>
       <c r="M2" t="n">
-        <v>-164.2153022380033</v>
+        <v>-1075.199123542488</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -569,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>4628.394101741557</v>
+        <v>7305.268577806468</v>
       </c>
     </row>
     <row r="3">
@@ -577,40 +577,40 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>42401</v>
+        <v>42948</v>
       </c>
       <c r="C3" t="n">
-        <v>4972.937422864596</v>
+        <v>8398.454335062857</v>
       </c>
       <c r="D3" t="n">
-        <v>3078.610889378423</v>
+        <v>7092.001732503105</v>
       </c>
       <c r="E3" t="n">
-        <v>4860.798210560581</v>
+        <v>10344.88625290846</v>
       </c>
       <c r="F3" t="n">
-        <v>4972.937422864596</v>
+        <v>8398.454335062857</v>
       </c>
       <c r="G3" t="n">
-        <v>4972.937422864596</v>
+        <v>8398.454335062857</v>
       </c>
       <c r="H3" t="n">
-        <v>-1041.037760790316</v>
+        <v>332.3383920341877</v>
       </c>
       <c r="I3" t="n">
-        <v>-1041.037760790316</v>
+        <v>332.3383920341877</v>
       </c>
       <c r="J3" t="n">
-        <v>-1041.037760790316</v>
+        <v>332.3383920341877</v>
       </c>
       <c r="K3" t="n">
-        <v>-1041.037760790316</v>
+        <v>332.3383920341877</v>
       </c>
       <c r="L3" t="n">
-        <v>-1041.037760790316</v>
+        <v>332.3383920341877</v>
       </c>
       <c r="M3" t="n">
-        <v>-1041.037760790316</v>
+        <v>332.3383920341877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>3931.89966207428</v>
+        <v>8730.792727097045</v>
       </c>
     </row>
     <row r="4">
@@ -630,40 +630,40 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>42430</v>
+        <v>42979</v>
       </c>
       <c r="C4" t="n">
-        <v>5141.631376015112</v>
+        <v>8416.440968776758</v>
       </c>
       <c r="D4" t="n">
-        <v>4473.937389061508</v>
+        <v>6709.664625434773</v>
       </c>
       <c r="E4" t="n">
-        <v>6268.553558098631</v>
+        <v>10013.27324961309</v>
       </c>
       <c r="F4" t="n">
-        <v>5141.631376015112</v>
+        <v>8416.440968776758</v>
       </c>
       <c r="G4" t="n">
-        <v>5141.631376015112</v>
+        <v>8416.440968776758</v>
       </c>
       <c r="H4" t="n">
-        <v>252.7511628415252</v>
+        <v>-144.2079385732957</v>
       </c>
       <c r="I4" t="n">
-        <v>252.7511628415252</v>
+        <v>-144.2079385732957</v>
       </c>
       <c r="J4" t="n">
-        <v>252.7511628415252</v>
+        <v>-144.2079385732957</v>
       </c>
       <c r="K4" t="n">
-        <v>252.7511628415252</v>
+        <v>-144.2079385732957</v>
       </c>
       <c r="L4" t="n">
-        <v>252.7511628415252</v>
+        <v>-144.2079385732957</v>
       </c>
       <c r="M4" t="n">
-        <v>252.7511628415252</v>
+        <v>-144.2079385732957</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>5394.382538856637</v>
+        <v>8272.233030203462</v>
       </c>
     </row>
     <row r="5">
@@ -683,40 +683,40 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>42461</v>
+        <v>43009</v>
       </c>
       <c r="C5" t="n">
-        <v>5321.959394842444</v>
+        <v>8433.847388213906</v>
       </c>
       <c r="D5" t="n">
-        <v>4242.11458562212</v>
+        <v>6930.461434496022</v>
       </c>
       <c r="E5" t="n">
-        <v>6036.142484867423</v>
+        <v>10346.91416033531</v>
       </c>
       <c r="F5" t="n">
-        <v>5321.959394842444</v>
+        <v>8433.847388213906</v>
       </c>
       <c r="G5" t="n">
-        <v>5321.959394842444</v>
+        <v>8433.847388213906</v>
       </c>
       <c r="H5" t="n">
-        <v>-158.9062109650932</v>
+        <v>174.3907712380275</v>
       </c>
       <c r="I5" t="n">
-        <v>-158.9062109650932</v>
+        <v>174.3907712380275</v>
       </c>
       <c r="J5" t="n">
-        <v>-158.9062109650932</v>
+        <v>174.3907712380275</v>
       </c>
       <c r="K5" t="n">
-        <v>-158.9062109650932</v>
+        <v>174.3907712380275</v>
       </c>
       <c r="L5" t="n">
-        <v>-158.9062109650932</v>
+        <v>174.3907712380275</v>
       </c>
       <c r="M5" t="n">
-        <v>-158.9062109650932</v>
+        <v>174.3907712380275</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>5163.05318387735</v>
+        <v>8608.238159451934</v>
       </c>
     </row>
     <row r="6">
@@ -736,40 +736,40 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>42491</v>
+        <v>43040</v>
       </c>
       <c r="C6" t="n">
-        <v>5496.470380804378</v>
+        <v>8451.834021632296</v>
       </c>
       <c r="D6" t="n">
-        <v>4697.941021639032</v>
+        <v>7022.801995968233</v>
       </c>
       <c r="E6" t="n">
-        <v>6505.086613253977</v>
+        <v>10394.3563429941</v>
       </c>
       <c r="F6" t="n">
-        <v>5496.470380804378</v>
+        <v>8451.834021632296</v>
       </c>
       <c r="G6" t="n">
-        <v>5496.470380804378</v>
+        <v>8451.834021632296</v>
       </c>
       <c r="H6" t="n">
-        <v>141.9166255037146</v>
+        <v>159.044366067102</v>
       </c>
       <c r="I6" t="n">
-        <v>141.9166255037146</v>
+        <v>159.044366067102</v>
       </c>
       <c r="J6" t="n">
-        <v>141.9166255037146</v>
+        <v>159.044366067102</v>
       </c>
       <c r="K6" t="n">
-        <v>141.9166255037146</v>
+        <v>159.044366067102</v>
       </c>
       <c r="L6" t="n">
-        <v>141.9166255037146</v>
+        <v>159.044366067102</v>
       </c>
       <c r="M6" t="n">
-        <v>141.9166255037146</v>
+        <v>159.044366067102</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>5638.387006308092</v>
+        <v>8610.878387699398</v>
       </c>
     </row>
     <row r="7">
@@ -789,40 +789,40 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>42522</v>
+        <v>43070</v>
       </c>
       <c r="C7" t="n">
-        <v>5676.79839962913</v>
+        <v>8469.240440796346</v>
       </c>
       <c r="D7" t="n">
-        <v>5278.570548358602</v>
+        <v>6636.400507544993</v>
       </c>
       <c r="E7" t="n">
-        <v>7160.232557264712</v>
+        <v>9936.106321381274</v>
       </c>
       <c r="F7" t="n">
-        <v>5676.79839962913</v>
+        <v>8469.240440796346</v>
       </c>
       <c r="G7" t="n">
-        <v>5676.79839962913</v>
+        <v>8469.240440796346</v>
       </c>
       <c r="H7" t="n">
-        <v>504.9204184376209</v>
+        <v>-191.3050966732604</v>
       </c>
       <c r="I7" t="n">
-        <v>504.9204184376209</v>
+        <v>-191.3050966732604</v>
       </c>
       <c r="J7" t="n">
-        <v>504.9204184376209</v>
+        <v>-191.3050966732604</v>
       </c>
       <c r="K7" t="n">
-        <v>504.9204184376209</v>
+        <v>-191.3050966732604</v>
       </c>
       <c r="L7" t="n">
-        <v>504.9204184376209</v>
+        <v>-191.3050966732604</v>
       </c>
       <c r="M7" t="n">
-        <v>504.9204184376209</v>
+        <v>-191.3050966732604</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>6181.718818066751</v>
+        <v>8277.935344123085</v>
       </c>
     </row>
     <row r="8">
@@ -842,40 +842,40 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>42552</v>
+        <v>43101</v>
       </c>
       <c r="C8" t="n">
-        <v>5851.309385588566</v>
+        <v>8487.22707393253</v>
       </c>
       <c r="D8" t="n">
-        <v>4929.42659102279</v>
+        <v>6853.914356875</v>
       </c>
       <c r="E8" t="n">
-        <v>6743.683931390684</v>
+        <v>10133.66599373847</v>
       </c>
       <c r="F8" t="n">
-        <v>5851.309385588566</v>
+        <v>8487.22707393253</v>
       </c>
       <c r="G8" t="n">
-        <v>5851.309385588566</v>
+        <v>8487.22707393253</v>
       </c>
       <c r="H8" t="n">
-        <v>-35.15361344505807</v>
+        <v>5.671953108697941</v>
       </c>
       <c r="I8" t="n">
-        <v>-35.15361344505807</v>
+        <v>5.671953108697941</v>
       </c>
       <c r="J8" t="n">
-        <v>-35.15361344505807</v>
+        <v>5.671953108697941</v>
       </c>
       <c r="K8" t="n">
-        <v>-35.15361344505807</v>
+        <v>5.671953108697941</v>
       </c>
       <c r="L8" t="n">
-        <v>-35.15361344505807</v>
+        <v>5.671953108697941</v>
       </c>
       <c r="M8" t="n">
-        <v>-35.15361344505807</v>
+        <v>5.671953108697941</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>5816.155772143508</v>
+        <v>8492.899027041229</v>
       </c>
     </row>
     <row r="9">
@@ -895,40 +895,40 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>42583</v>
+        <v>43132</v>
       </c>
       <c r="C9" t="n">
-        <v>6031.637404456834</v>
+        <v>8505.213706832204</v>
       </c>
       <c r="D9" t="n">
-        <v>6180.016865561843</v>
+        <v>5701.326365368675</v>
       </c>
       <c r="E9" t="n">
-        <v>7971.086719016831</v>
+        <v>9047.572358125399</v>
       </c>
       <c r="F9" t="n">
-        <v>6031.637404456834</v>
+        <v>8505.213706832204</v>
       </c>
       <c r="G9" t="n">
-        <v>6031.637404456834</v>
+        <v>8505.213706832204</v>
       </c>
       <c r="H9" t="n">
-        <v>1001.797073735159</v>
+        <v>-1160.514105207696</v>
       </c>
       <c r="I9" t="n">
-        <v>1001.797073735159</v>
+        <v>-1160.514105207696</v>
       </c>
       <c r="J9" t="n">
-        <v>1001.797073735159</v>
+        <v>-1160.514105207696</v>
       </c>
       <c r="K9" t="n">
-        <v>1001.797073735159</v>
+        <v>-1160.514105207696</v>
       </c>
       <c r="L9" t="n">
-        <v>1001.797073735159</v>
+        <v>-1160.514105207696</v>
       </c>
       <c r="M9" t="n">
-        <v>1001.797073735159</v>
+        <v>-1160.514105207696</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>7033.434478191994</v>
+        <v>7344.699601624508</v>
       </c>
     </row>
     <row r="10">
@@ -948,40 +948,40 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>42614</v>
+        <v>43160</v>
       </c>
       <c r="C10" t="n">
-        <v>6211.965423325099</v>
+        <v>8521.459697693437</v>
       </c>
       <c r="D10" t="n">
-        <v>5541.557175425605</v>
+        <v>6895.680891053476</v>
       </c>
       <c r="E10" t="n">
-        <v>7368.583835527766</v>
+        <v>10335.06995669558</v>
       </c>
       <c r="F10" t="n">
-        <v>6211.965423325099</v>
+        <v>8521.459697693437</v>
       </c>
       <c r="G10" t="n">
-        <v>6211.965423325099</v>
+        <v>8521.459697693437</v>
       </c>
       <c r="H10" t="n">
-        <v>261.6575943067467</v>
+        <v>164.8648748404917</v>
       </c>
       <c r="I10" t="n">
-        <v>261.6575943067467</v>
+        <v>164.8648748404917</v>
       </c>
       <c r="J10" t="n">
-        <v>261.6575943067467</v>
+        <v>164.8648748404917</v>
       </c>
       <c r="K10" t="n">
-        <v>261.6575943067467</v>
+        <v>164.8648748404917</v>
       </c>
       <c r="L10" t="n">
-        <v>261.6575943067467</v>
+        <v>164.8648748404917</v>
       </c>
       <c r="M10" t="n">
-        <v>261.6575943067467</v>
+        <v>164.8648748404917</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>6473.623017631846</v>
+        <v>8686.324572533929</v>
       </c>
     </row>
     <row r="11">
@@ -1001,40 +1001,40 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>42644</v>
+        <v>43191</v>
       </c>
       <c r="C11" t="n">
-        <v>6386.476409334599</v>
+        <v>8539.44633043266</v>
       </c>
       <c r="D11" t="n">
-        <v>6100.839690769964</v>
+        <v>6891.798760935142</v>
       </c>
       <c r="E11" t="n">
-        <v>7903.062678652085</v>
+        <v>10224.22988079422</v>
       </c>
       <c r="F11" t="n">
-        <v>6386.476409334599</v>
+        <v>8539.44633043266</v>
       </c>
       <c r="G11" t="n">
-        <v>6386.476409334599</v>
+        <v>8539.44633043266</v>
       </c>
       <c r="H11" t="n">
-        <v>605.6699430913152</v>
+        <v>45.43733714082085</v>
       </c>
       <c r="I11" t="n">
-        <v>605.6699430913152</v>
+        <v>45.43733714082085</v>
       </c>
       <c r="J11" t="n">
-        <v>605.6699430913152</v>
+        <v>45.43733714082085</v>
       </c>
       <c r="K11" t="n">
-        <v>605.6699430913152</v>
+        <v>45.43733714082085</v>
       </c>
       <c r="L11" t="n">
-        <v>605.6699430913152</v>
+        <v>45.43733714082085</v>
       </c>
       <c r="M11" t="n">
-        <v>605.6699430913152</v>
+        <v>45.43733714082085</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>6992.146352425914</v>
+        <v>8584.88366757348</v>
       </c>
     </row>
     <row r="12">
@@ -1054,40 +1054,40 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>42675</v>
+        <v>43221</v>
       </c>
       <c r="C12" t="n">
-        <v>6566.804428211083</v>
+        <v>8556.852749123886</v>
       </c>
       <c r="D12" t="n">
-        <v>5556.263055436963</v>
+        <v>6809.146459281262</v>
       </c>
       <c r="E12" t="n">
-        <v>7337.591672727965</v>
+        <v>10131.63444722405</v>
       </c>
       <c r="F12" t="n">
-        <v>6566.804428211083</v>
+        <v>8556.852749123886</v>
       </c>
       <c r="G12" t="n">
-        <v>6566.804428211083</v>
+        <v>8556.852749123886</v>
       </c>
       <c r="H12" t="n">
-        <v>-66.52505235845642</v>
+        <v>-39.9977880647721</v>
       </c>
       <c r="I12" t="n">
-        <v>-66.52505235845642</v>
+        <v>-39.9977880647721</v>
       </c>
       <c r="J12" t="n">
-        <v>-66.52505235845642</v>
+        <v>-39.9977880647721</v>
       </c>
       <c r="K12" t="n">
-        <v>-66.52505235845642</v>
+        <v>-39.9977880647721</v>
       </c>
       <c r="L12" t="n">
-        <v>-66.52505235845642</v>
+        <v>-39.9977880647721</v>
       </c>
       <c r="M12" t="n">
-        <v>-66.52505235845642</v>
+        <v>-39.9977880647721</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6500.279375852627</v>
+        <v>8516.854961059113</v>
       </c>
     </row>
     <row r="13">
@@ -1107,40 +1107,40 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>42705</v>
+        <v>43252</v>
       </c>
       <c r="C13" t="n">
-        <v>6741.315414229314</v>
+        <v>8574.839381771486</v>
       </c>
       <c r="D13" t="n">
-        <v>4986.741499753051</v>
+        <v>7289.356835374148</v>
       </c>
       <c r="E13" t="n">
-        <v>6773.797709718638</v>
+        <v>10624.16727680094</v>
       </c>
       <c r="F13" t="n">
-        <v>6741.315414229314</v>
+        <v>8574.839381771486</v>
       </c>
       <c r="G13" t="n">
-        <v>6741.315414229314</v>
+        <v>8574.839381771486</v>
       </c>
       <c r="H13" t="n">
-        <v>-839.3014785570081</v>
+        <v>396.7017060081192</v>
       </c>
       <c r="I13" t="n">
-        <v>-839.3014785570081</v>
+        <v>396.7017060081192</v>
       </c>
       <c r="J13" t="n">
-        <v>-839.3014785570081</v>
+        <v>396.7017060081192</v>
       </c>
       <c r="K13" t="n">
-        <v>-839.3014785570081</v>
+        <v>396.7017060081192</v>
       </c>
       <c r="L13" t="n">
-        <v>-839.3014785570081</v>
+        <v>396.7017060081192</v>
       </c>
       <c r="M13" t="n">
-        <v>-839.3014785570081</v>
+        <v>396.7017060081192</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>5902.013935672307</v>
+        <v>8971.541087779606</v>
       </c>
     </row>
     <row r="14">
@@ -1160,40 +1160,40 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>42736</v>
+        <v>43282</v>
       </c>
       <c r="C14" t="n">
-        <v>6921.64343311482</v>
+        <v>8592.218769124533</v>
       </c>
       <c r="D14" t="n">
-        <v>6106.698423651384</v>
+        <v>6296.332347628156</v>
       </c>
       <c r="E14" t="n">
-        <v>7888.096361792294</v>
+        <v>9443.852528137902</v>
       </c>
       <c r="F14" t="n">
-        <v>6921.64343311482</v>
+        <v>8592.218769124533</v>
       </c>
       <c r="G14" t="n">
-        <v>6921.64343311482</v>
+        <v>8592.218769124533</v>
       </c>
       <c r="H14" t="n">
-        <v>72.13846902899338</v>
+        <v>-684.2684379813913</v>
       </c>
       <c r="I14" t="n">
-        <v>72.13846902899338</v>
+        <v>-684.2684379813913</v>
       </c>
       <c r="J14" t="n">
-        <v>72.13846902899338</v>
+        <v>-684.2684379813913</v>
       </c>
       <c r="K14" t="n">
-        <v>72.13846902899338</v>
+        <v>-684.2684379813913</v>
       </c>
       <c r="L14" t="n">
-        <v>72.13846902899338</v>
+        <v>-684.2684379813913</v>
       </c>
       <c r="M14" t="n">
-        <v>72.13846902899338</v>
+        <v>-684.2684379813913</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>6993.781902143814</v>
+        <v>7907.950331143142</v>
       </c>
     </row>
     <row r="15">
@@ -1213,40 +1213,40 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>42767</v>
+        <v>43313</v>
       </c>
       <c r="C15" t="n">
-        <v>7101.971452054767</v>
+        <v>8610.177469389349</v>
       </c>
       <c r="D15" t="n">
-        <v>5084.535691526403</v>
+        <v>7194.394503865273</v>
       </c>
       <c r="E15" t="n">
-        <v>6951.314854956852</v>
+        <v>10482.00672786738</v>
       </c>
       <c r="F15" t="n">
-        <v>7101.971452054767</v>
+        <v>8610.177469389349</v>
       </c>
       <c r="G15" t="n">
-        <v>7101.971452054767</v>
+        <v>8610.177469389349</v>
       </c>
       <c r="H15" t="n">
-        <v>-1065.950347930549</v>
+        <v>260.0088849459685</v>
       </c>
       <c r="I15" t="n">
-        <v>-1065.950347930549</v>
+        <v>260.0088849459685</v>
       </c>
       <c r="J15" t="n">
-        <v>-1065.950347930549</v>
+        <v>260.0088849459685</v>
       </c>
       <c r="K15" t="n">
-        <v>-1065.950347930549</v>
+        <v>260.0088849459685</v>
       </c>
       <c r="L15" t="n">
-        <v>-1065.950347930549</v>
+        <v>260.0088849459685</v>
       </c>
       <c r="M15" t="n">
-        <v>-1065.950347930549</v>
+        <v>260.0088849459685</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6036.021104124218</v>
+        <v>8870.186354335317</v>
       </c>
     </row>
     <row r="16">
@@ -1266,40 +1266,40 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>42795</v>
+        <v>43344</v>
       </c>
       <c r="C16" t="n">
-        <v>7264.848372387622</v>
+        <v>8628.110674377756</v>
       </c>
       <c r="D16" t="n">
-        <v>6514.565372490892</v>
+        <v>6584.478198730128</v>
       </c>
       <c r="E16" t="n">
-        <v>8318.21669277514</v>
+        <v>9938.623887373857</v>
       </c>
       <c r="F16" t="n">
-        <v>7264.848372387622</v>
+        <v>8628.110674377756</v>
       </c>
       <c r="G16" t="n">
-        <v>7264.848372387622</v>
+        <v>8628.110674377756</v>
       </c>
       <c r="H16" t="n">
-        <v>146.3764881749766</v>
+        <v>-434.4194341044479</v>
       </c>
       <c r="I16" t="n">
-        <v>146.3764881749766</v>
+        <v>-434.4194341044479</v>
       </c>
       <c r="J16" t="n">
-        <v>146.3764881749766</v>
+        <v>-434.4194341044479</v>
       </c>
       <c r="K16" t="n">
-        <v>146.3764881749766</v>
+        <v>-434.4194341044479</v>
       </c>
       <c r="L16" t="n">
-        <v>146.3764881749766</v>
+        <v>-434.4194341044479</v>
       </c>
       <c r="M16" t="n">
-        <v>146.3764881749766</v>
+        <v>-434.4194341044479</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>7411.224860562598</v>
+        <v>8193.691240273309</v>
       </c>
     </row>
     <row r="17">
@@ -1319,40 +1319,40 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>42826</v>
+        <v>43374</v>
       </c>
       <c r="C17" t="n">
-        <v>7445.176391364749</v>
+        <v>8645.465388882667</v>
       </c>
       <c r="D17" t="n">
-        <v>6389.170489766438</v>
+        <v>7288.085375533955</v>
       </c>
       <c r="E17" t="n">
-        <v>8165.435016140957</v>
+        <v>10727.22046147463</v>
       </c>
       <c r="F17" t="n">
-        <v>7445.176391364749</v>
+        <v>8645.465388882667</v>
       </c>
       <c r="G17" t="n">
-        <v>7445.176391364749</v>
+        <v>8645.465388882667</v>
       </c>
       <c r="H17" t="n">
-        <v>-135.7519387314808</v>
+        <v>294.1988478652047</v>
       </c>
       <c r="I17" t="n">
-        <v>-135.7519387314808</v>
+        <v>294.1988478652047</v>
       </c>
       <c r="J17" t="n">
-        <v>-135.7519387314808</v>
+        <v>294.1988478652047</v>
       </c>
       <c r="K17" t="n">
-        <v>-135.7519387314808</v>
+        <v>294.1988478652047</v>
       </c>
       <c r="L17" t="n">
-        <v>-135.7519387314808</v>
+        <v>294.1988478652047</v>
       </c>
       <c r="M17" t="n">
-        <v>-135.7519387314808</v>
+        <v>294.1988478652047</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>7309.424452633269</v>
+        <v>8939.664236747871</v>
       </c>
     </row>
     <row r="18">
@@ -1372,40 +1372,40 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>42856</v>
+        <v>43405</v>
       </c>
       <c r="C18" t="n">
-        <v>7619.687377471646</v>
+        <v>8663.365761857865</v>
       </c>
       <c r="D18" t="n">
-        <v>6866.763625724076</v>
+        <v>7057.084621710676</v>
       </c>
       <c r="E18" t="n">
-        <v>8587.857183860062</v>
+        <v>10649.37558058344</v>
       </c>
       <c r="F18" t="n">
-        <v>7619.687377471646</v>
+        <v>8663.365761857865</v>
       </c>
       <c r="G18" t="n">
-        <v>7619.687377471646</v>
+        <v>8663.365761857865</v>
       </c>
       <c r="H18" t="n">
-        <v>168.056630335697</v>
+        <v>186.3381742378006</v>
       </c>
       <c r="I18" t="n">
-        <v>168.056630335697</v>
+        <v>186.3381742378006</v>
       </c>
       <c r="J18" t="n">
-        <v>168.056630335697</v>
+        <v>186.3381742378006</v>
       </c>
       <c r="K18" t="n">
-        <v>168.056630335697</v>
+        <v>186.3381742378006</v>
       </c>
       <c r="L18" t="n">
-        <v>168.056630335697</v>
+        <v>186.3381742378006</v>
       </c>
       <c r="M18" t="n">
-        <v>168.056630335697</v>
+        <v>186.3381742378006</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>7787.744007807343</v>
+        <v>8849.703936095666</v>
       </c>
     </row>
     <row r="19">
@@ -1425,40 +1425,40 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>42887</v>
+        <v>43435</v>
       </c>
       <c r="C19" t="n">
-        <v>7800.01539646853</v>
+        <v>8680.688703446769</v>
       </c>
       <c r="D19" t="n">
-        <v>7254.290648456837</v>
+        <v>6560.994355466431</v>
       </c>
       <c r="E19" t="n">
-        <v>9070.067976020702</v>
+        <v>9889.978321976016</v>
       </c>
       <c r="F19" t="n">
-        <v>7800.01539646853</v>
+        <v>8680.688703446769</v>
       </c>
       <c r="G19" t="n">
-        <v>7800.01539646853</v>
+        <v>8680.688703446769</v>
       </c>
       <c r="H19" t="n">
-        <v>419.709197630937</v>
+        <v>-499.6506537691599</v>
       </c>
       <c r="I19" t="n">
-        <v>419.709197630937</v>
+        <v>-499.6506537691599</v>
       </c>
       <c r="J19" t="n">
-        <v>419.709197630937</v>
+        <v>-499.6506537691599</v>
       </c>
       <c r="K19" t="n">
-        <v>419.709197630937</v>
+        <v>-499.6506537691599</v>
       </c>
       <c r="L19" t="n">
-        <v>419.709197630937</v>
+        <v>-499.6506537691599</v>
       </c>
       <c r="M19" t="n">
-        <v>419.709197630937</v>
+        <v>-499.6506537691599</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>8219.724594099467</v>
+        <v>8181.038049677609</v>
       </c>
     </row>
     <row r="20">
@@ -1478,40 +1478,40 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>42917</v>
+        <v>43466</v>
       </c>
       <c r="C20" t="n">
-        <v>7974.526382594547</v>
+        <v>8698.49418481047</v>
       </c>
       <c r="D20" t="n">
-        <v>7410.545782801233</v>
+        <v>7357.39728165954</v>
       </c>
       <c r="E20" t="n">
-        <v>9206.831855320852</v>
+        <v>10771.30247287583</v>
       </c>
       <c r="F20" t="n">
-        <v>7974.526382594547</v>
+        <v>8698.49418481047</v>
       </c>
       <c r="G20" t="n">
-        <v>7974.526382594547</v>
+        <v>8698.49418481047</v>
       </c>
       <c r="H20" t="n">
-        <v>332.9640454052237</v>
+        <v>360.2103504816826</v>
       </c>
       <c r="I20" t="n">
-        <v>332.9640454052237</v>
+        <v>360.2103504816826</v>
       </c>
       <c r="J20" t="n">
-        <v>332.9640454052237</v>
+        <v>360.2103504816826</v>
       </c>
       <c r="K20" t="n">
-        <v>332.9640454052237</v>
+        <v>360.2103504816826</v>
       </c>
       <c r="L20" t="n">
-        <v>332.9640454052237</v>
+        <v>360.2103504816826</v>
       </c>
       <c r="M20" t="n">
-        <v>332.9640454052237</v>
+        <v>360.2103504816826</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>8307.49042799977</v>
+        <v>9058.704535292152</v>
       </c>
     </row>
     <row r="21">
@@ -1531,40 +1531,40 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>42948</v>
+        <v>43497</v>
       </c>
       <c r="C21" t="n">
-        <v>8154.854401575235</v>
+        <v>8716.140675782235</v>
       </c>
       <c r="D21" t="n">
-        <v>8085.06328644849</v>
+        <v>6017.52915518359</v>
       </c>
       <c r="E21" t="n">
-        <v>9850.981041814492</v>
+        <v>9406.929435382113</v>
       </c>
       <c r="F21" t="n">
-        <v>8154.854401575235</v>
+        <v>8716.140675782235</v>
       </c>
       <c r="G21" t="n">
-        <v>8154.854401575235</v>
+        <v>8716.140675782235</v>
       </c>
       <c r="H21" t="n">
-        <v>786.4436338296092</v>
+        <v>-972.8707923343954</v>
       </c>
       <c r="I21" t="n">
-        <v>786.4436338296092</v>
+        <v>-972.8707923343954</v>
       </c>
       <c r="J21" t="n">
-        <v>786.4436338296092</v>
+        <v>-972.8707923343954</v>
       </c>
       <c r="K21" t="n">
-        <v>786.4436338296092</v>
+        <v>-972.8707923343954</v>
       </c>
       <c r="L21" t="n">
-        <v>786.4436338296092</v>
+        <v>-972.8707923343954</v>
       </c>
       <c r="M21" t="n">
-        <v>786.4436338296092</v>
+        <v>-972.8707923343954</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>8941.298035404845</v>
+        <v>7743.26988344784</v>
       </c>
     </row>
     <row r="22">
@@ -1584,40 +1584,40 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>42979</v>
+        <v>43525</v>
       </c>
       <c r="C22" t="n">
-        <v>8335.182420555922</v>
+        <v>8732.079441821246</v>
       </c>
       <c r="D22" t="n">
-        <v>7537.251037837753</v>
+        <v>6889.868442001784</v>
       </c>
       <c r="E22" t="n">
-        <v>9274.549704373474</v>
+        <v>10446.87912960938</v>
       </c>
       <c r="F22" t="n">
-        <v>8335.182420555922</v>
+        <v>8732.079441821246</v>
       </c>
       <c r="G22" t="n">
-        <v>8335.182420555922</v>
+        <v>8732.079441821246</v>
       </c>
       <c r="H22" t="n">
-        <v>64.50222332370197</v>
+        <v>-5.040127171969237</v>
       </c>
       <c r="I22" t="n">
-        <v>64.50222332370197</v>
+        <v>-5.040127171969237</v>
       </c>
       <c r="J22" t="n">
-        <v>64.50222332370197</v>
+        <v>-5.040127171969237</v>
       </c>
       <c r="K22" t="n">
-        <v>64.50222332370197</v>
+        <v>-5.040127171969237</v>
       </c>
       <c r="L22" t="n">
-        <v>64.50222332370197</v>
+        <v>-5.040127171969237</v>
       </c>
       <c r="M22" t="n">
-        <v>64.50222332370197</v>
+        <v>-5.040127171969237</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>8399.684643879624</v>
+        <v>8727.039314649277</v>
       </c>
     </row>
     <row r="23">
@@ -1637,40 +1637,40 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>43009</v>
+        <v>43556</v>
       </c>
       <c r="C23" t="n">
-        <v>8509.693340443928</v>
+        <v>8749.633341121411</v>
       </c>
       <c r="D23" t="n">
-        <v>8215.564473131442</v>
+        <v>6884.157609498862</v>
       </c>
       <c r="E23" t="n">
-        <v>10075.48204043635</v>
+        <v>10186.86954970762</v>
       </c>
       <c r="F23" t="n">
-        <v>8509.693340443928</v>
+        <v>8749.633341121411</v>
       </c>
       <c r="G23" t="n">
-        <v>8509.693340443928</v>
+        <v>8749.633341121411</v>
       </c>
       <c r="H23" t="n">
-        <v>606.1777202811376</v>
+        <v>-248.6122514230706</v>
       </c>
       <c r="I23" t="n">
-        <v>606.1777202811376</v>
+        <v>-248.6122514230706</v>
       </c>
       <c r="J23" t="n">
-        <v>606.1777202811376</v>
+        <v>-248.6122514230706</v>
       </c>
       <c r="K23" t="n">
-        <v>606.1777202811376</v>
+        <v>-248.6122514230706</v>
       </c>
       <c r="L23" t="n">
-        <v>606.1777202811376</v>
+        <v>-248.6122514230706</v>
       </c>
       <c r="M23" t="n">
-        <v>606.1777202811376</v>
+        <v>-248.6122514230706</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9115.871060725065</v>
+        <v>8501.021089698341</v>
       </c>
     </row>
     <row r="24">
@@ -1690,40 +1690,40 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>43040</v>
+        <v>43586</v>
       </c>
       <c r="C24" t="n">
-        <v>8690.021290994866</v>
+        <v>8766.620985605437</v>
       </c>
       <c r="D24" t="n">
-        <v>7902.169952173322</v>
+        <v>7130.703047071646</v>
       </c>
       <c r="E24" t="n">
-        <v>9673.382768060224</v>
+        <v>10548.68599295777</v>
       </c>
       <c r="F24" t="n">
-        <v>8690.021290994866</v>
+        <v>8766.620985605437</v>
       </c>
       <c r="G24" t="n">
-        <v>8690.021290994866</v>
+        <v>8766.620985605437</v>
       </c>
       <c r="H24" t="n">
-        <v>81.45717173879233</v>
+        <v>79.9793543369739</v>
       </c>
       <c r="I24" t="n">
-        <v>81.45717173879233</v>
+        <v>79.9793543369739</v>
       </c>
       <c r="J24" t="n">
-        <v>81.45717173879233</v>
+        <v>79.9793543369739</v>
       </c>
       <c r="K24" t="n">
-        <v>81.45717173879233</v>
+        <v>79.9793543369739</v>
       </c>
       <c r="L24" t="n">
-        <v>81.45717173879233</v>
+        <v>79.9793543369739</v>
       </c>
       <c r="M24" t="n">
-        <v>81.45717173879233</v>
+        <v>79.9793543369739</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -1735,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>8771.478462733658</v>
+        <v>8846.600339942412</v>
       </c>
     </row>
     <row r="25">
@@ -1743,40 +1743,40 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>43070</v>
+        <v>43617</v>
       </c>
       <c r="C25" t="n">
-        <v>8864.519213950809</v>
+        <v>8784.082376479102</v>
       </c>
       <c r="D25" t="n">
-        <v>7215.449132070135</v>
+        <v>7432.339165812587</v>
       </c>
       <c r="E25" t="n">
-        <v>9026.658767421131</v>
+        <v>10821.63684502613</v>
       </c>
       <c r="F25" t="n">
-        <v>8864.519213950809</v>
+        <v>8784.082376479102</v>
       </c>
       <c r="G25" t="n">
-        <v>8864.519213950809</v>
+        <v>8784.082376479102</v>
       </c>
       <c r="H25" t="n">
-        <v>-732.5040114926041</v>
+        <v>349.9908713797958</v>
       </c>
       <c r="I25" t="n">
-        <v>-732.5040114926041</v>
+        <v>349.9908713797958</v>
       </c>
       <c r="J25" t="n">
-        <v>-732.5040114926041</v>
+        <v>349.9908713797958</v>
       </c>
       <c r="K25" t="n">
-        <v>-732.5040114926041</v>
+        <v>349.9908713797958</v>
       </c>
       <c r="L25" t="n">
-        <v>-732.5040114926041</v>
+        <v>349.9908713797958</v>
       </c>
       <c r="M25" t="n">
-        <v>-732.5040114926041</v>
+        <v>349.9908713797958</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>8132.015202458205</v>
+        <v>9134.073247858898</v>
       </c>
     </row>
     <row r="26">
@@ -1796,40 +1796,40 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>43101</v>
+        <v>43647</v>
       </c>
       <c r="C26" t="n">
-        <v>9044.833734338614</v>
+        <v>8800.980496679424</v>
       </c>
       <c r="D26" t="n">
-        <v>8124.56127071588</v>
+        <v>6836.853700286879</v>
       </c>
       <c r="E26" t="n">
-        <v>9931.686385067564</v>
+        <v>10095.78185959309</v>
       </c>
       <c r="F26" t="n">
-        <v>9044.833734338614</v>
+        <v>8800.980496679424</v>
       </c>
       <c r="G26" t="n">
-        <v>9044.833734338614</v>
+        <v>8800.980496679424</v>
       </c>
       <c r="H26" t="n">
-        <v>-3.631775406453302</v>
+        <v>-295.1782441672411</v>
       </c>
       <c r="I26" t="n">
-        <v>-3.631775406453302</v>
+        <v>-295.1782441672411</v>
       </c>
       <c r="J26" t="n">
-        <v>-3.631775406453302</v>
+        <v>-295.1782441672411</v>
       </c>
       <c r="K26" t="n">
-        <v>-3.631775406453302</v>
+        <v>-295.1782441672411</v>
       </c>
       <c r="L26" t="n">
-        <v>-3.631775406453302</v>
+        <v>-295.1782441672411</v>
       </c>
       <c r="M26" t="n">
-        <v>-3.631775406453302</v>
+        <v>-295.1782441672411</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9041.201958932161</v>
+        <v>8505.802252512183</v>
       </c>
     </row>
     <row r="27">
@@ -1849,40 +1849,40 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>43132</v>
+        <v>43678</v>
       </c>
       <c r="C27" t="n">
-        <v>9225.096493444595</v>
+        <v>8818.308867597698</v>
       </c>
       <c r="D27" t="n">
-        <v>7304.066955579535</v>
+        <v>7314.056891185814</v>
       </c>
       <c r="E27" t="n">
-        <v>9080.252202501635</v>
+        <v>10805.42675656504</v>
       </c>
       <c r="F27" t="n">
-        <v>9225.096493444595</v>
+        <v>8818.308867597698</v>
       </c>
       <c r="G27" t="n">
-        <v>9225.096493444595</v>
+        <v>8818.308867597698</v>
       </c>
       <c r="H27" t="n">
-        <v>-1056.831771403396</v>
+        <v>177.8432388563267</v>
       </c>
       <c r="I27" t="n">
-        <v>-1056.831771403396</v>
+        <v>177.8432388563267</v>
       </c>
       <c r="J27" t="n">
-        <v>-1056.831771403396</v>
+        <v>177.8432388563267</v>
       </c>
       <c r="K27" t="n">
-        <v>-1056.831771403396</v>
+        <v>177.8432388563267</v>
       </c>
       <c r="L27" t="n">
-        <v>-1056.831771403396</v>
+        <v>177.8432388563267</v>
       </c>
       <c r="M27" t="n">
-        <v>-1056.831771403396</v>
+        <v>177.8432388563267</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>8168.264722041199</v>
+        <v>8996.152106454025</v>
       </c>
     </row>
     <row r="28">
@@ -1902,40 +1902,40 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>43160</v>
+        <v>43709</v>
       </c>
       <c r="C28" t="n">
-        <v>9387.914469411287</v>
+        <v>8835.637238515974</v>
       </c>
       <c r="D28" t="n">
-        <v>8539.515929613241</v>
+        <v>6355.793193677971</v>
       </c>
       <c r="E28" t="n">
-        <v>10311.41734631381</v>
+        <v>9771.299142203239</v>
       </c>
       <c r="F28" t="n">
-        <v>9387.914469411287</v>
+        <v>8835.637238515974</v>
       </c>
       <c r="G28" t="n">
-        <v>9387.914469411287</v>
+        <v>8835.637238515974</v>
       </c>
       <c r="H28" t="n">
-        <v>40.60514531199274</v>
+        <v>-724.290173627847</v>
       </c>
       <c r="I28" t="n">
-        <v>40.60514531199274</v>
+        <v>-724.290173627847</v>
       </c>
       <c r="J28" t="n">
-        <v>40.60514531199274</v>
+        <v>-724.290173627847</v>
       </c>
       <c r="K28" t="n">
-        <v>40.60514531199274</v>
+        <v>-724.290173627847</v>
       </c>
       <c r="L28" t="n">
-        <v>40.60514531199274</v>
+        <v>-724.290173627847</v>
       </c>
       <c r="M28" t="n">
-        <v>40.60514531199274</v>
+        <v>-724.290173627847</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>9428.51961472328</v>
+        <v>8111.347064888127</v>
       </c>
     </row>
     <row r="29">
@@ -1955,40 +1955,40 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>43191</v>
+        <v>43739</v>
       </c>
       <c r="C29" t="n">
-        <v>9370.886321306689</v>
+        <v>8852.386622186305</v>
       </c>
       <c r="D29" t="n">
-        <v>8288.087908185975</v>
+        <v>7561.8629949411</v>
       </c>
       <c r="E29" t="n">
-        <v>10177.60341970844</v>
+        <v>10964.10594322081</v>
       </c>
       <c r="F29" t="n">
-        <v>9370.886321306689</v>
+        <v>8852.386622186305</v>
       </c>
       <c r="G29" t="n">
-        <v>9370.886321306689</v>
+        <v>8852.386622186305</v>
       </c>
       <c r="H29" t="n">
-        <v>-110.2331330425724</v>
+        <v>417.1603377093914</v>
       </c>
       <c r="I29" t="n">
-        <v>-110.2331330425724</v>
+        <v>417.1603377093914</v>
       </c>
       <c r="J29" t="n">
-        <v>-110.2331330425724</v>
+        <v>417.1603377093914</v>
       </c>
       <c r="K29" t="n">
-        <v>-110.2331330425724</v>
+        <v>417.1603377093914</v>
       </c>
       <c r="L29" t="n">
-        <v>-110.2331330425724</v>
+        <v>417.1603377093914</v>
       </c>
       <c r="M29" t="n">
-        <v>-110.2331330425724</v>
+        <v>417.1603377093914</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9260.653188264116</v>
+        <v>9269.546959895695</v>
       </c>
     </row>
     <row r="30">
@@ -2008,40 +2008,40 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>43221</v>
+        <v>43770</v>
       </c>
       <c r="C30" t="n">
-        <v>9354.407468302243</v>
+        <v>8869.694318645645</v>
       </c>
       <c r="D30" t="n">
-        <v>8643.239854560215</v>
+        <v>7401.713568311327</v>
       </c>
       <c r="E30" t="n">
-        <v>10436.89820957455</v>
+        <v>10967.58655511332</v>
       </c>
       <c r="F30" t="n">
-        <v>9354.407468302243</v>
+        <v>8869.694318645645</v>
       </c>
       <c r="G30" t="n">
-        <v>9354.407468302243</v>
+        <v>8869.694318645645</v>
       </c>
       <c r="H30" t="n">
-        <v>194.6368133014814</v>
+        <v>210.8926345728363</v>
       </c>
       <c r="I30" t="n">
-        <v>194.6368133014814</v>
+        <v>210.8926345728363</v>
       </c>
       <c r="J30" t="n">
-        <v>194.6368133014814</v>
+        <v>210.8926345728363</v>
       </c>
       <c r="K30" t="n">
-        <v>194.6368133014814</v>
+        <v>210.8926345728363</v>
       </c>
       <c r="L30" t="n">
-        <v>194.6368133014814</v>
+        <v>210.8926345728363</v>
       </c>
       <c r="M30" t="n">
-        <v>194.6368133014814</v>
+        <v>210.8926345728363</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>9549.044281603725</v>
+        <v>9080.586953218481</v>
       </c>
     </row>
     <row r="31">
@@ -2061,40 +2061,40 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>43252</v>
+        <v>43800</v>
       </c>
       <c r="C31" t="n">
-        <v>9337.27814117764</v>
+        <v>8886.420711203897</v>
       </c>
       <c r="D31" t="n">
-        <v>8782.816079287953</v>
+        <v>6304.350535504461</v>
       </c>
       <c r="E31" t="n">
-        <v>10541.43134649259</v>
+        <v>9675.836570222027</v>
       </c>
       <c r="F31" t="n">
-        <v>9337.27814117764</v>
+        <v>8886.420711203897</v>
       </c>
       <c r="G31" t="n">
-        <v>9337.27814117764</v>
+        <v>8886.420711203897</v>
       </c>
       <c r="H31" t="n">
-        <v>337.9660260915117</v>
+        <v>-801.993277670207</v>
       </c>
       <c r="I31" t="n">
-        <v>337.9660260915117</v>
+        <v>-801.993277670207</v>
       </c>
       <c r="J31" t="n">
-        <v>337.9660260915117</v>
+        <v>-801.993277670207</v>
       </c>
       <c r="K31" t="n">
-        <v>337.9660260915117</v>
+        <v>-801.993277670207</v>
       </c>
       <c r="L31" t="n">
-        <v>337.9660260915117</v>
+        <v>-801.993277670207</v>
       </c>
       <c r="M31" t="n">
-        <v>337.9660260915117</v>
+        <v>-801.993277670207</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>9675.244167269151</v>
+        <v>8084.42743353369</v>
       </c>
     </row>
     <row r="32">
@@ -2114,40 +2114,40 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>43282</v>
+        <v>43831</v>
       </c>
       <c r="C32" t="n">
-        <v>9320.701372992538</v>
+        <v>8903.570587391496</v>
       </c>
       <c r="D32" t="n">
-        <v>9136.853085912668</v>
+        <v>7961.86067505409</v>
       </c>
       <c r="E32" t="n">
-        <v>10873.78220350007</v>
+        <v>11338.59220896005</v>
       </c>
       <c r="F32" t="n">
-        <v>9320.701372992538</v>
+        <v>8903.570587391496</v>
       </c>
       <c r="G32" t="n">
-        <v>9320.701372992538</v>
+        <v>8903.570587391496</v>
       </c>
       <c r="H32" t="n">
-        <v>697.6059478660471</v>
+        <v>720.464555697373</v>
       </c>
       <c r="I32" t="n">
-        <v>697.6059478660471</v>
+        <v>720.464555697373</v>
       </c>
       <c r="J32" t="n">
-        <v>697.6059478660471</v>
+        <v>720.464555697373</v>
       </c>
       <c r="K32" t="n">
-        <v>697.6059478660471</v>
+        <v>720.464555697373</v>
       </c>
       <c r="L32" t="n">
-        <v>697.6059478660471</v>
+        <v>720.464555697373</v>
       </c>
       <c r="M32" t="n">
-        <v>697.6059478660471</v>
+        <v>720.464555697373</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>10018.30732085858</v>
+        <v>9624.03514308887</v>
       </c>
     </row>
     <row r="33">
@@ -2167,40 +2167,40 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>43313</v>
+        <v>43862</v>
       </c>
       <c r="C33" t="n">
-        <v>9303.42876541775</v>
+        <v>8920.720463579095</v>
       </c>
       <c r="D33" t="n">
-        <v>8951.414307844128</v>
+        <v>6467.599682835362</v>
       </c>
       <c r="E33" t="n">
-        <v>10775.18453335783</v>
+        <v>9862.320874173851</v>
       </c>
       <c r="F33" t="n">
-        <v>9303.42876541775</v>
+        <v>8920.720463579095</v>
       </c>
       <c r="G33" t="n">
-        <v>9303.42876541775</v>
+        <v>8920.720463579095</v>
       </c>
       <c r="H33" t="n">
-        <v>563.0750076225819</v>
+        <v>-791.0352107505529</v>
       </c>
       <c r="I33" t="n">
-        <v>563.0750076225819</v>
+        <v>-791.0352107505529</v>
       </c>
       <c r="J33" t="n">
-        <v>563.0750076225819</v>
+        <v>-791.0352107505529</v>
       </c>
       <c r="K33" t="n">
-        <v>563.0750076225819</v>
+        <v>-791.0352107505529</v>
       </c>
       <c r="L33" t="n">
-        <v>563.0750076225819</v>
+        <v>-791.0352107505529</v>
       </c>
       <c r="M33" t="n">
-        <v>563.0750076225819</v>
+        <v>-791.0352107505529</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>9866.503773040331</v>
+        <v>8129.685252828542</v>
       </c>
     </row>
     <row r="34">
@@ -2220,40 +2220,40 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>43344</v>
+        <v>43891</v>
       </c>
       <c r="C34" t="n">
-        <v>9286.156157842961</v>
+        <v>8936.698227546822</v>
       </c>
       <c r="D34" t="n">
-        <v>8277.390438842745</v>
+        <v>7728.183502408545</v>
       </c>
       <c r="E34" t="n">
-        <v>10064.73772425724</v>
+        <v>11200.48551980254</v>
       </c>
       <c r="F34" t="n">
-        <v>9286.156157842961</v>
+        <v>8936.698227546822</v>
       </c>
       <c r="G34" t="n">
-        <v>9286.156157842961</v>
+        <v>8936.698227546822</v>
       </c>
       <c r="H34" t="n">
-        <v>-130.4616289781239</v>
+        <v>483.6467214967339</v>
       </c>
       <c r="I34" t="n">
-        <v>-130.4616289781239</v>
+        <v>483.6467214967339</v>
       </c>
       <c r="J34" t="n">
-        <v>-130.4616289781239</v>
+        <v>483.6467214967339</v>
       </c>
       <c r="K34" t="n">
-        <v>-130.4616289781239</v>
+        <v>483.6467214967339</v>
       </c>
       <c r="L34" t="n">
-        <v>-130.4616289781239</v>
+        <v>483.6467214967339</v>
       </c>
       <c r="M34" t="n">
-        <v>-130.4616289781239</v>
+        <v>483.6467214967339</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>9155.694528864837</v>
+        <v>9420.344949043556</v>
       </c>
     </row>
     <row r="35">
@@ -2273,40 +2273,40 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>43374</v>
+        <v>43922</v>
       </c>
       <c r="C35" t="n">
-        <v>9269.335772001268</v>
+        <v>8953.777906270943</v>
       </c>
       <c r="D35" t="n">
-        <v>9062.677133790417</v>
+        <v>8002.976008264217</v>
       </c>
       <c r="E35" t="n">
-        <v>10735.78955703493</v>
+        <v>11363.68978096</v>
       </c>
       <c r="F35" t="n">
-        <v>9269.335772001268</v>
+        <v>8953.777906270943</v>
       </c>
       <c r="G35" t="n">
-        <v>9269.335772001268</v>
+        <v>8953.777906270943</v>
       </c>
       <c r="H35" t="n">
-        <v>612.4604894629242</v>
+        <v>642.0762578904091</v>
       </c>
       <c r="I35" t="n">
-        <v>612.4604894629242</v>
+        <v>642.0762578904091</v>
       </c>
       <c r="J35" t="n">
-        <v>612.4604894629242</v>
+        <v>642.0762578904091</v>
       </c>
       <c r="K35" t="n">
-        <v>612.4604894629242</v>
+        <v>642.0762578904091</v>
       </c>
       <c r="L35" t="n">
-        <v>612.4604894629242</v>
+        <v>642.0762578904091</v>
       </c>
       <c r="M35" t="n">
-        <v>612.4604894629242</v>
+        <v>642.0762578904091</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9881.796261464193</v>
+        <v>9595.854164161352</v>
       </c>
     </row>
     <row r="36">
@@ -2326,40 +2326,40 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>43405</v>
+        <v>43952</v>
       </c>
       <c r="C36" t="n">
-        <v>9251.954706631519</v>
+        <v>8970.25585760694</v>
       </c>
       <c r="D36" t="n">
-        <v>8553.979905499782</v>
+        <v>7129.412939930004</v>
       </c>
       <c r="E36" t="n">
-        <v>10316.54967285273</v>
+        <v>10443.76531087037</v>
       </c>
       <c r="F36" t="n">
-        <v>9251.954706631519</v>
+        <v>8970.25585760694</v>
       </c>
       <c r="G36" t="n">
-        <v>9251.954706631519</v>
+        <v>8970.25585760694</v>
       </c>
       <c r="H36" t="n">
-        <v>231.9627940631332</v>
+        <v>-262.0358003667976</v>
       </c>
       <c r="I36" t="n">
-        <v>231.9627940631332</v>
+        <v>-262.0358003667976</v>
       </c>
       <c r="J36" t="n">
-        <v>231.9627940631332</v>
+        <v>-262.0358003667976</v>
       </c>
       <c r="K36" t="n">
-        <v>231.9627940631332</v>
+        <v>-262.0358003667976</v>
       </c>
       <c r="L36" t="n">
-        <v>231.9627940631332</v>
+        <v>-262.0358003667976</v>
       </c>
       <c r="M36" t="n">
-        <v>231.9627940631332</v>
+        <v>-262.0358003667976</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>9483.917500694652</v>
+        <v>8708.220057240143</v>
       </c>
     </row>
     <row r="37">
@@ -2379,40 +2379,40 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>43435</v>
+        <v>43983</v>
       </c>
       <c r="C37" t="n">
-        <v>9235.084785591873</v>
+        <v>8987.283073987472</v>
       </c>
       <c r="D37" t="n">
-        <v>7707.924506408471</v>
+        <v>7785.819531327162</v>
       </c>
       <c r="E37" t="n">
-        <v>9529.979321691091</v>
+        <v>11234.21603535415</v>
       </c>
       <c r="F37" t="n">
-        <v>9235.084785591873</v>
+        <v>8987.283073987472</v>
       </c>
       <c r="G37" t="n">
-        <v>9235.084785591873</v>
+        <v>8987.283073987472</v>
       </c>
       <c r="H37" t="n">
-        <v>-628.5982978870326</v>
+        <v>504.5512024617193</v>
       </c>
       <c r="I37" t="n">
-        <v>-628.5982978870326</v>
+        <v>504.5512024617193</v>
       </c>
       <c r="J37" t="n">
-        <v>-628.5982978870326</v>
+        <v>504.5512024617193</v>
       </c>
       <c r="K37" t="n">
-        <v>-628.5982978870326</v>
+        <v>504.5512024617193</v>
       </c>
       <c r="L37" t="n">
-        <v>-628.5982978870326</v>
+        <v>504.5512024617193</v>
       </c>
       <c r="M37" t="n">
-        <v>-628.5982978870326</v>
+        <v>504.5512024617193</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>8606.48648770484</v>
+        <v>9491.834276449192</v>
       </c>
     </row>
     <row r="38">
@@ -2432,40 +2432,40 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>43466</v>
+        <v>44013</v>
       </c>
       <c r="C38" t="n">
-        <v>9217.652533850902</v>
+        <v>9003.757245062125</v>
       </c>
       <c r="D38" t="n">
-        <v>8187.892803608758</v>
+        <v>5875.643073914794</v>
       </c>
       <c r="E38" t="n">
-        <v>10001.8397081305</v>
+        <v>9394.577698446115</v>
       </c>
       <c r="F38" t="n">
-        <v>9217.652533850902</v>
+        <v>9003.757245062125</v>
       </c>
       <c r="G38" t="n">
-        <v>9217.652533850902</v>
+        <v>9003.757245062125</v>
       </c>
       <c r="H38" t="n">
-        <v>-82.43546954508258</v>
+        <v>-1467.533508133469</v>
       </c>
       <c r="I38" t="n">
-        <v>-82.43546954508258</v>
+        <v>-1467.533508133469</v>
       </c>
       <c r="J38" t="n">
-        <v>-82.43546954508258</v>
+        <v>-1467.533508133469</v>
       </c>
       <c r="K38" t="n">
-        <v>-82.43546954508258</v>
+        <v>-1467.533508133469</v>
       </c>
       <c r="L38" t="n">
-        <v>-82.43546954508258</v>
+        <v>-1467.533508133469</v>
       </c>
       <c r="M38" t="n">
-        <v>-82.43546954508258</v>
+        <v>-1467.533508133469</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9135.21706430582</v>
+        <v>7536.223736928656</v>
       </c>
     </row>
     <row r="39">
@@ -2485,40 +2485,40 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>43497</v>
+        <v>44044</v>
       </c>
       <c r="C39" t="n">
-        <v>9200.213908157837</v>
+        <v>9020.7805551726</v>
       </c>
       <c r="D39" t="n">
-        <v>7181.371816926231</v>
+        <v>7621.827334736568</v>
       </c>
       <c r="E39" t="n">
-        <v>9061.578902475001</v>
+        <v>10988.05057262243</v>
       </c>
       <c r="F39" t="n">
-        <v>9200.213908157837</v>
+        <v>9020.7805551726</v>
       </c>
       <c r="G39" t="n">
-        <v>9200.213908157837</v>
+        <v>9020.7805551726</v>
       </c>
       <c r="H39" t="n">
-        <v>-1048.539956462831</v>
+        <v>394.7863205676135</v>
       </c>
       <c r="I39" t="n">
-        <v>-1048.539956462831</v>
+        <v>394.7863205676135</v>
       </c>
       <c r="J39" t="n">
-        <v>-1048.539956462831</v>
+        <v>394.7863205676135</v>
       </c>
       <c r="K39" t="n">
-        <v>-1048.539956462831</v>
+        <v>394.7863205676135</v>
       </c>
       <c r="L39" t="n">
-        <v>-1048.539956462831</v>
+        <v>394.7863205676135</v>
       </c>
       <c r="M39" t="n">
-        <v>-1048.539956462831</v>
+        <v>394.7863205676135</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>8151.673951695007</v>
+        <v>9415.566875740213</v>
       </c>
     </row>
     <row r="40">
@@ -2538,40 +2538,40 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>43525</v>
+        <v>44075</v>
       </c>
       <c r="C40" t="n">
-        <v>9184.462891402809</v>
+        <v>9037.707330783565</v>
       </c>
       <c r="D40" t="n">
-        <v>8180.614014897184</v>
+        <v>7554.321585116357</v>
       </c>
       <c r="E40" t="n">
-        <v>10012.93659600155</v>
+        <v>10918.80254017401</v>
       </c>
       <c r="F40" t="n">
-        <v>9184.462891402809</v>
+        <v>9037.707330783565</v>
       </c>
       <c r="G40" t="n">
-        <v>9184.462891402809</v>
+        <v>9037.707330783565</v>
       </c>
       <c r="H40" t="n">
-        <v>-64.44308306889232</v>
+        <v>146.0158060245168</v>
       </c>
       <c r="I40" t="n">
-        <v>-64.44308306889232</v>
+        <v>146.0158060245168</v>
       </c>
       <c r="J40" t="n">
-        <v>-64.44308306889232</v>
+        <v>146.0158060245168</v>
       </c>
       <c r="K40" t="n">
-        <v>-64.44308306889232</v>
+        <v>146.0158060245168</v>
       </c>
       <c r="L40" t="n">
-        <v>-64.44308306889232</v>
+        <v>146.0158060245168</v>
       </c>
       <c r="M40" t="n">
-        <v>-64.44308306889232</v>
+        <v>146.0158060245168</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -2583,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>9120.019808333916</v>
+        <v>9183.723136808083</v>
       </c>
     </row>
     <row r="41">
@@ -2591,40 +2591,40 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>43556</v>
+        <v>44105</v>
       </c>
       <c r="C41" t="n">
-        <v>9167.02039290737</v>
+        <v>9054.088081374823</v>
       </c>
       <c r="D41" t="n">
-        <v>8214.552634301141</v>
+        <v>7361.732980463872</v>
       </c>
       <c r="E41" t="n">
-        <v>9989.700344998966</v>
+        <v>10743.99137686458</v>
       </c>
       <c r="F41" t="n">
-        <v>9167.02039290737</v>
+        <v>9054.088081374823</v>
       </c>
       <c r="G41" t="n">
-        <v>9167.02039290737</v>
+        <v>9054.088081374823</v>
       </c>
       <c r="H41" t="n">
-        <v>-82.35198469219283</v>
+        <v>57.78762809349075</v>
       </c>
       <c r="I41" t="n">
-        <v>-82.35198469219283</v>
+        <v>57.78762809349075</v>
       </c>
       <c r="J41" t="n">
-        <v>-82.35198469219283</v>
+        <v>57.78762809349075</v>
       </c>
       <c r="K41" t="n">
-        <v>-82.35198469219283</v>
+        <v>57.78762809349075</v>
       </c>
       <c r="L41" t="n">
-        <v>-82.35198469219283</v>
+        <v>57.78762809349075</v>
       </c>
       <c r="M41" t="n">
-        <v>-82.35198469219283</v>
+        <v>57.78762809349075</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9084.668408215177</v>
+        <v>9111.875709468313</v>
       </c>
     </row>
     <row r="42">
@@ -2644,40 +2644,40 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>43586</v>
+        <v>44136</v>
       </c>
       <c r="C42" t="n">
-        <v>9150.140555653721</v>
+        <v>9070.977671520386</v>
       </c>
       <c r="D42" t="n">
-        <v>8429.146138828964</v>
+        <v>7424.924054294929</v>
       </c>
       <c r="E42" t="n">
-        <v>10337.91170971608</v>
+        <v>10792.05477942463</v>
       </c>
       <c r="F42" t="n">
-        <v>9150.140555653721</v>
+        <v>9070.977671520386</v>
       </c>
       <c r="G42" t="n">
-        <v>9150.140555653721</v>
+        <v>9070.977671520386</v>
       </c>
       <c r="H42" t="n">
-        <v>221.6245101790054</v>
+        <v>128.9805515742717</v>
       </c>
       <c r="I42" t="n">
-        <v>221.6245101790054</v>
+        <v>128.9805515742717</v>
       </c>
       <c r="J42" t="n">
-        <v>221.6245101790054</v>
+        <v>128.9805515742717</v>
       </c>
       <c r="K42" t="n">
-        <v>221.6245101790054</v>
+        <v>128.9805515742717</v>
       </c>
       <c r="L42" t="n">
-        <v>221.6245101790054</v>
+        <v>128.9805515742717</v>
       </c>
       <c r="M42" t="n">
-        <v>221.6245101790054</v>
+        <v>128.9805515742717</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -2689,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>9371.765065832726</v>
+        <v>9199.958223094658</v>
       </c>
     </row>
     <row r="43">
@@ -2697,40 +2697,40 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>43617</v>
+        <v>44166</v>
       </c>
       <c r="C43" t="n">
-        <v>9132.681722456084</v>
+        <v>9087.29535063519</v>
       </c>
       <c r="D43" t="n">
-        <v>8496.285455740363</v>
+        <v>7488.453989162716</v>
       </c>
       <c r="E43" t="n">
-        <v>10302.11838781222</v>
+        <v>10905.31992229478</v>
       </c>
       <c r="F43" t="n">
-        <v>9132.681722456084</v>
+        <v>9087.29535063519</v>
       </c>
       <c r="G43" t="n">
-        <v>9132.681722456084</v>
+        <v>9087.29535063519</v>
       </c>
       <c r="H43" t="n">
-        <v>259.6711338122009</v>
+        <v>122.8032288424224</v>
       </c>
       <c r="I43" t="n">
-        <v>259.6711338122009</v>
+        <v>122.8032288424224</v>
       </c>
       <c r="J43" t="n">
-        <v>259.6711338122009</v>
+        <v>122.8032288424224</v>
       </c>
       <c r="K43" t="n">
-        <v>259.6711338122009</v>
+        <v>122.8032288424224</v>
       </c>
       <c r="L43" t="n">
-        <v>259.6711338122009</v>
+        <v>122.8032288424224</v>
       </c>
       <c r="M43" t="n">
-        <v>259.6711338122009</v>
+        <v>122.8032288424224</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>9392.352856268284</v>
+        <v>9210.098579477612</v>
       </c>
     </row>
     <row r="44">
@@ -2750,40 +2750,40 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>43647</v>
+        <v>44197</v>
       </c>
       <c r="C44" t="n">
-        <v>9115.786077426113</v>
+        <v>9104.156952387155</v>
       </c>
       <c r="D44" t="n">
-        <v>9280.814759283026</v>
+        <v>6956.143371620337</v>
       </c>
       <c r="E44" t="n">
-        <v>11000.68863702923</v>
+        <v>10525.38581859828</v>
       </c>
       <c r="F44" t="n">
-        <v>9115.786077426113</v>
+        <v>9104.156952387155</v>
       </c>
       <c r="G44" t="n">
-        <v>9115.786077426113</v>
+        <v>9104.156952387155</v>
       </c>
       <c r="H44" t="n">
-        <v>1058.427514811051</v>
+        <v>-342.7620533573859</v>
       </c>
       <c r="I44" t="n">
-        <v>1058.427514811051</v>
+        <v>-342.7620533573859</v>
       </c>
       <c r="J44" t="n">
-        <v>1058.427514811051</v>
+        <v>-342.7620533573859</v>
       </c>
       <c r="K44" t="n">
-        <v>1058.427514811051</v>
+        <v>-342.7620533573859</v>
       </c>
       <c r="L44" t="n">
-        <v>1058.427514811051</v>
+        <v>-342.7620533573859</v>
       </c>
       <c r="M44" t="n">
-        <v>1058.427514811051</v>
+        <v>-342.7620533573859</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>10174.21359223716</v>
+        <v>8761.394899029769</v>
       </c>
     </row>
     <row r="45">
@@ -2803,40 +2803,40 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>43678</v>
+        <v>44228</v>
       </c>
       <c r="C45" t="n">
-        <v>9098.323074588505</v>
+        <v>9121.018552356947</v>
       </c>
       <c r="D45" t="n">
-        <v>8441.656696606218</v>
+        <v>6073.83019808719</v>
       </c>
       <c r="E45" t="n">
-        <v>10332.56805725996</v>
+        <v>9555.597925323515</v>
       </c>
       <c r="F45" t="n">
-        <v>9098.323074588505</v>
+        <v>9121.018552356947</v>
       </c>
       <c r="G45" t="n">
-        <v>9098.323074588505</v>
+        <v>9121.018552356947</v>
       </c>
       <c r="H45" t="n">
-        <v>331.9149626984658</v>
+        <v>-1353.659633871241</v>
       </c>
       <c r="I45" t="n">
-        <v>331.9149626984658</v>
+        <v>-1353.659633871241</v>
       </c>
       <c r="J45" t="n">
-        <v>331.9149626984658</v>
+        <v>-1353.659633871241</v>
       </c>
       <c r="K45" t="n">
-        <v>331.9149626984658</v>
+        <v>-1353.659633871241</v>
       </c>
       <c r="L45" t="n">
-        <v>331.9149626984658</v>
+        <v>-1353.659633871241</v>
       </c>
       <c r="M45" t="n">
-        <v>331.9149626984658</v>
+        <v>-1353.659633871241</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>9430.23803728697</v>
+        <v>7767.358918485706</v>
       </c>
     </row>
     <row r="46">
@@ -2856,40 +2856,40 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>43709</v>
+        <v>44256</v>
       </c>
       <c r="C46" t="n">
-        <v>9080.860071750896</v>
+        <v>9136.248384587729</v>
       </c>
       <c r="D46" t="n">
-        <v>7869.802193233409</v>
+        <v>7766.697934452633</v>
       </c>
       <c r="E46" t="n">
-        <v>9651.50449116303</v>
+        <v>11236.54923631757</v>
       </c>
       <c r="F46" t="n">
-        <v>9080.860071750896</v>
+        <v>9136.248384587729</v>
       </c>
       <c r="G46" t="n">
-        <v>9080.860071750896</v>
+        <v>9136.248384587729</v>
       </c>
       <c r="H46" t="n">
-        <v>-322.9383887211179</v>
+        <v>327.8428534547963</v>
       </c>
       <c r="I46" t="n">
-        <v>-322.9383887211179</v>
+        <v>327.8428534547963</v>
       </c>
       <c r="J46" t="n">
-        <v>-322.9383887211179</v>
+        <v>327.8428534547963</v>
       </c>
       <c r="K46" t="n">
-        <v>-322.9383887211179</v>
+        <v>327.8428534547963</v>
       </c>
       <c r="L46" t="n">
-        <v>-322.9383887211179</v>
+        <v>327.8428534547963</v>
       </c>
       <c r="M46" t="n">
-        <v>-322.9383887211179</v>
+        <v>327.8428534547963</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -2901,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>8757.921683029777</v>
+        <v>9464.091238042525</v>
       </c>
     </row>
     <row r="47">
@@ -2909,40 +2909,40 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>43739</v>
+        <v>44287</v>
       </c>
       <c r="C47" t="n">
-        <v>9063.956982103657</v>
+        <v>9153.10998451165</v>
       </c>
       <c r="D47" t="n">
-        <v>8749.993291635756</v>
+        <v>7810.892705300893</v>
       </c>
       <c r="E47" t="n">
-        <v>10567.35563397009</v>
+        <v>11269.85829521099</v>
       </c>
       <c r="F47" t="n">
-        <v>9063.956982103657</v>
+        <v>9153.10998451165</v>
       </c>
       <c r="G47" t="n">
-        <v>9063.956982103657</v>
+        <v>9153.10998451165</v>
       </c>
       <c r="H47" t="n">
-        <v>624.521653973259</v>
+        <v>342.4627037429716</v>
       </c>
       <c r="I47" t="n">
-        <v>624.521653973259</v>
+        <v>342.4627037429716</v>
       </c>
       <c r="J47" t="n">
-        <v>624.521653973259</v>
+        <v>342.4627037429716</v>
       </c>
       <c r="K47" t="n">
-        <v>624.521653973259</v>
+        <v>342.4627037429716</v>
       </c>
       <c r="L47" t="n">
-        <v>624.521653973259</v>
+        <v>342.4627037429716</v>
       </c>
       <c r="M47" t="n">
-        <v>624.521653973259</v>
+        <v>342.4627037429716</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>9688.478636076916</v>
+        <v>9495.572688254621</v>
       </c>
     </row>
     <row r="48">
@@ -2962,40 +2962,40 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>43770</v>
+        <v>44317</v>
       </c>
       <c r="C48" t="n">
-        <v>9046.490456134839</v>
+        <v>9169.427661857379</v>
       </c>
       <c r="D48" t="n">
-        <v>8556.180732517712</v>
+        <v>7315.516841120186</v>
       </c>
       <c r="E48" t="n">
-        <v>10411.62641283315</v>
+        <v>10600.96331856742</v>
       </c>
       <c r="F48" t="n">
-        <v>9046.490456134839</v>
+        <v>9169.427661857379</v>
       </c>
       <c r="G48" t="n">
-        <v>9046.490456134839</v>
+        <v>9169.427661857379</v>
       </c>
       <c r="H48" t="n">
-        <v>384.791090617023</v>
+        <v>-154.0178500038669</v>
       </c>
       <c r="I48" t="n">
-        <v>384.791090617023</v>
+        <v>-154.0178500038669</v>
       </c>
       <c r="J48" t="n">
-        <v>384.791090617023</v>
+        <v>-154.0178500038669</v>
       </c>
       <c r="K48" t="n">
-        <v>384.791090617023</v>
+        <v>-154.0178500038669</v>
       </c>
       <c r="L48" t="n">
-        <v>384.791090617023</v>
+        <v>-154.0178500038669</v>
       </c>
       <c r="M48" t="n">
-        <v>384.791090617023</v>
+        <v>-154.0178500038669</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>9431.281546751863</v>
+        <v>9015.409811853511</v>
       </c>
     </row>
     <row r="49">
@@ -3015,40 +3015,40 @@
         <v>47</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>43800</v>
+        <v>44348</v>
       </c>
       <c r="C49" t="n">
-        <v>9029.585595842504</v>
+        <v>9186.289261923368</v>
       </c>
       <c r="D49" t="n">
-        <v>7554.708846680126</v>
+        <v>8069.908058134691</v>
       </c>
       <c r="E49" t="n">
-        <v>9350.700837860324</v>
+        <v>11406.78074705568</v>
       </c>
       <c r="F49" t="n">
-        <v>9029.585595842504</v>
+        <v>9186.289261923368</v>
       </c>
       <c r="G49" t="n">
-        <v>9029.585595842504</v>
+        <v>9186.289261923368</v>
       </c>
       <c r="H49" t="n">
-        <v>-527.7332797342591</v>
+        <v>448.1969856894389</v>
       </c>
       <c r="I49" t="n">
-        <v>-527.7332797342591</v>
+        <v>448.1969856894389</v>
       </c>
       <c r="J49" t="n">
-        <v>-527.7332797342591</v>
+        <v>448.1969856894389</v>
       </c>
       <c r="K49" t="n">
-        <v>-527.7332797342591</v>
+        <v>448.1969856894389</v>
       </c>
       <c r="L49" t="n">
-        <v>-527.7332797342591</v>
+        <v>448.1969856894389</v>
       </c>
       <c r="M49" t="n">
-        <v>-527.7332797342591</v>
+        <v>448.1969856894389</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>8501.852316108245</v>
+        <v>9634.486247612807</v>
       </c>
     </row>
     <row r="50">
@@ -3068,40 +3068,40 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>43831</v>
+        <v>44378</v>
       </c>
       <c r="C50" t="n">
-        <v>9012.117240207092</v>
+        <v>9202.606939406582</v>
       </c>
       <c r="D50" t="n">
-        <v>7944.641729599184</v>
+        <v>6449.416066367461</v>
       </c>
       <c r="E50" t="n">
-        <v>9715.872392748304</v>
+        <v>9859.321046095734</v>
       </c>
       <c r="F50" t="n">
-        <v>9012.117240207092</v>
+        <v>9202.606939406582</v>
       </c>
       <c r="G50" t="n">
-        <v>9012.117240207092</v>
+        <v>9202.606939406582</v>
       </c>
       <c r="H50" t="n">
-        <v>-164.2153022385985</v>
+        <v>-1075.199123542261</v>
       </c>
       <c r="I50" t="n">
-        <v>-164.2153022385985</v>
+        <v>-1075.199123542261</v>
       </c>
       <c r="J50" t="n">
-        <v>-164.2153022385985</v>
+        <v>-1075.199123542261</v>
       </c>
       <c r="K50" t="n">
-        <v>-164.2153022385985</v>
+        <v>-1075.199123542261</v>
       </c>
       <c r="L50" t="n">
-        <v>-164.2153022385985</v>
+        <v>-1075.199123542261</v>
       </c>
       <c r="M50" t="n">
-        <v>-164.2153022385985</v>
+        <v>-1075.199123542261</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>8847.901937968492</v>
+        <v>8127.407815864321</v>
       </c>
     </row>
     <row r="51">
@@ -3121,40 +3121,40 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>43862</v>
+        <v>44409</v>
       </c>
       <c r="C51" t="n">
-        <v>8994.648884528051</v>
+        <v>9219.468539472571</v>
       </c>
       <c r="D51" t="n">
-        <v>7015.765827329742</v>
+        <v>7843.619795639922</v>
       </c>
       <c r="E51" t="n">
-        <v>8857.004408784802</v>
+        <v>11290.94117962211</v>
       </c>
       <c r="F51" t="n">
-        <v>8994.648884528051</v>
+        <v>9219.468539472571</v>
       </c>
       <c r="G51" t="n">
-        <v>8994.648884528051</v>
+        <v>9219.468539472571</v>
       </c>
       <c r="H51" t="n">
-        <v>-1041.037760790716</v>
+        <v>332.3383920334692</v>
       </c>
       <c r="I51" t="n">
-        <v>-1041.037760790716</v>
+        <v>332.3383920334692</v>
       </c>
       <c r="J51" t="n">
-        <v>-1041.037760790716</v>
+        <v>332.3383920334692</v>
       </c>
       <c r="K51" t="n">
-        <v>-1041.037760790716</v>
+        <v>332.3383920334692</v>
       </c>
       <c r="L51" t="n">
-        <v>-1041.037760790716</v>
+        <v>332.3383920334692</v>
       </c>
       <c r="M51" t="n">
-        <v>-1041.037760790716</v>
+        <v>332.3383920334692</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>7953.611123737335</v>
+        <v>9551.80693150604</v>
       </c>
     </row>
     <row r="52">
@@ -3174,40 +3174,40 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>43891</v>
+        <v>44440</v>
       </c>
       <c r="C52" t="n">
-        <v>8978.307519537979</v>
+        <v>9236.330139538559</v>
       </c>
       <c r="D52" t="n">
-        <v>8328.801014875995</v>
+        <v>7600.632188171353</v>
       </c>
       <c r="E52" t="n">
-        <v>10124.86289603316</v>
+        <v>10896.0940975654</v>
       </c>
       <c r="F52" t="n">
-        <v>8978.307519537979</v>
+        <v>9236.330139538559</v>
       </c>
       <c r="G52" t="n">
-        <v>8978.307519537979</v>
+        <v>9236.330139538559</v>
       </c>
       <c r="H52" t="n">
-        <v>252.7511628407431</v>
+        <v>-144.2079385763849</v>
       </c>
       <c r="I52" t="n">
-        <v>252.7511628407431</v>
+        <v>-144.2079385763849</v>
       </c>
       <c r="J52" t="n">
-        <v>252.7511628407431</v>
+        <v>-144.2079385763849</v>
       </c>
       <c r="K52" t="n">
-        <v>252.7511628407431</v>
+        <v>-144.2079385763849</v>
       </c>
       <c r="L52" t="n">
-        <v>252.7511628407431</v>
+        <v>-144.2079385763849</v>
       </c>
       <c r="M52" t="n">
-        <v>252.7511628407431</v>
+        <v>-144.2079385763849</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -3219,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>9231.058682378722</v>
+        <v>9092.122200962174</v>
       </c>
     </row>
     <row r="53">
@@ -3227,40 +3227,40 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>43922</v>
+        <v>44470</v>
       </c>
       <c r="C53" t="n">
-        <v>8960.839098645876</v>
+        <v>9252.647817021774</v>
       </c>
       <c r="D53" t="n">
-        <v>7843.503287356016</v>
+        <v>7761.095538231089</v>
       </c>
       <c r="E53" t="n">
-        <v>9666.637840665082</v>
+        <v>11063.06447093432</v>
       </c>
       <c r="F53" t="n">
-        <v>8960.839098645876</v>
+        <v>9252.647817021774</v>
       </c>
       <c r="G53" t="n">
-        <v>8960.839098645876</v>
+        <v>9252.647817021774</v>
       </c>
       <c r="H53" t="n">
-        <v>-158.9062109641606</v>
+        <v>174.390771236455</v>
       </c>
       <c r="I53" t="n">
-        <v>-158.9062109641606</v>
+        <v>174.390771236455</v>
       </c>
       <c r="J53" t="n">
-        <v>-158.9062109641606</v>
+        <v>174.390771236455</v>
       </c>
       <c r="K53" t="n">
-        <v>-158.9062109641606</v>
+        <v>174.390771236455</v>
       </c>
       <c r="L53" t="n">
-        <v>-158.9062109641606</v>
+        <v>174.390771236455</v>
       </c>
       <c r="M53" t="n">
-        <v>-158.9062109641606</v>
+        <v>174.390771236455</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>8801.932887681716</v>
+        <v>9427.038588258229</v>
       </c>
     </row>
     <row r="54">
@@ -3280,40 +3280,40 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>43952</v>
+        <v>44501</v>
       </c>
       <c r="C54" t="n">
-        <v>8943.934175201903</v>
+        <v>9269.509417087764</v>
       </c>
       <c r="D54" t="n">
-        <v>8144.794542893102</v>
+        <v>7726.628984901334</v>
       </c>
       <c r="E54" t="n">
-        <v>10010.15122972383</v>
+        <v>11035.1194937664</v>
       </c>
       <c r="F54" t="n">
-        <v>8943.934175201903</v>
+        <v>9269.509417087764</v>
       </c>
       <c r="G54" t="n">
-        <v>8943.934175201903</v>
+        <v>9269.509417087764</v>
       </c>
       <c r="H54" t="n">
-        <v>141.9166255058746</v>
+        <v>159.0443660674134</v>
       </c>
       <c r="I54" t="n">
-        <v>141.9166255058746</v>
+        <v>159.0443660674134</v>
       </c>
       <c r="J54" t="n">
-        <v>141.9166255058746</v>
+        <v>159.0443660674134</v>
       </c>
       <c r="K54" t="n">
-        <v>141.9166255058746</v>
+        <v>159.0443660674134</v>
       </c>
       <c r="L54" t="n">
-        <v>141.9166255058746</v>
+        <v>159.0443660674134</v>
       </c>
       <c r="M54" t="n">
-        <v>141.9166255058746</v>
+        <v>159.0443660674134</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>9085.850800707778</v>
+        <v>9428.553783155177</v>
       </c>
     </row>
     <row r="55">
@@ -3333,40 +3333,40 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>43983</v>
+        <v>44531</v>
       </c>
       <c r="C55" t="n">
-        <v>8926.465754309798</v>
+        <v>9285.827094570979</v>
       </c>
       <c r="D55" t="n">
-        <v>8517.702250055663</v>
+        <v>7396.84078447336</v>
       </c>
       <c r="E55" t="n">
-        <v>10395.10305358218</v>
+        <v>10873.20623988352</v>
       </c>
       <c r="F55" t="n">
-        <v>8926.465754309798</v>
+        <v>9285.827094570979</v>
       </c>
       <c r="G55" t="n">
-        <v>8926.465754309798</v>
+        <v>9285.827094570979</v>
       </c>
       <c r="H55" t="n">
-        <v>504.9204184374182</v>
+        <v>-191.3050966714673</v>
       </c>
       <c r="I55" t="n">
-        <v>504.9204184374182</v>
+        <v>-191.3050966714673</v>
       </c>
       <c r="J55" t="n">
-        <v>504.9204184374182</v>
+        <v>-191.3050966714673</v>
       </c>
       <c r="K55" t="n">
-        <v>504.9204184374182</v>
+        <v>-191.3050966714673</v>
       </c>
       <c r="L55" t="n">
-        <v>504.9204184374182</v>
+        <v>-191.3050966714673</v>
       </c>
       <c r="M55" t="n">
-        <v>504.9204184374182</v>
+        <v>-191.3050966714673</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>9431.386172747216</v>
+        <v>9094.521997899512</v>
       </c>
     </row>
     <row r="56">
@@ -3386,40 +3386,40 @@
         <v>54</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>44013</v>
+        <v>44562</v>
       </c>
       <c r="C56" t="n">
-        <v>8909.560830865827</v>
+        <v>9302.688694636967</v>
       </c>
       <c r="D56" t="n">
-        <v>8010.956959462913</v>
+        <v>7627.016807555253</v>
       </c>
       <c r="E56" t="n">
-        <v>9791.798167992656</v>
+        <v>11054.41343477973</v>
       </c>
       <c r="F56" t="n">
-        <v>8909.560830865827</v>
+        <v>9302.688694636967</v>
       </c>
       <c r="G56" t="n">
-        <v>8909.560830865827</v>
+        <v>9302.688694636967</v>
       </c>
       <c r="H56" t="n">
-        <v>-35.15361344517331</v>
+        <v>5.671953111081635</v>
       </c>
       <c r="I56" t="n">
-        <v>-35.15361344517331</v>
+        <v>5.671953111081635</v>
       </c>
       <c r="J56" t="n">
-        <v>-35.15361344517331</v>
+        <v>5.671953111081635</v>
       </c>
       <c r="K56" t="n">
-        <v>-35.15361344517331</v>
+        <v>5.671953111081635</v>
       </c>
       <c r="L56" t="n">
-        <v>-35.15361344517331</v>
+        <v>5.671953111081635</v>
       </c>
       <c r="M56" t="n">
-        <v>-35.15361344517331</v>
+        <v>5.671953111081635</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>8874.407217420654</v>
+        <v>9308.360647748048</v>
       </c>
     </row>
     <row r="57">
@@ -3439,40 +3439,40 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>44044</v>
+        <v>44593</v>
       </c>
       <c r="C57" t="n">
-        <v>8892.092409973722</v>
+        <v>9319.550294702956</v>
       </c>
       <c r="D57" t="n">
-        <v>8962.1597176468</v>
+        <v>6538.737166691321</v>
       </c>
       <c r="E57" t="n">
-        <v>10780.30500024764</v>
+        <v>9820.764185406346</v>
       </c>
       <c r="F57" t="n">
-        <v>8892.092409973722</v>
+        <v>9319.550294702956</v>
       </c>
       <c r="G57" t="n">
-        <v>8892.092409973722</v>
+        <v>9319.550294702956</v>
       </c>
       <c r="H57" t="n">
-        <v>1001.797073736093</v>
+        <v>-1160.514105207445</v>
       </c>
       <c r="I57" t="n">
-        <v>1001.797073736093</v>
+        <v>-1160.514105207445</v>
       </c>
       <c r="J57" t="n">
-        <v>1001.797073736093</v>
+        <v>-1160.514105207445</v>
       </c>
       <c r="K57" t="n">
-        <v>1001.797073736093</v>
+        <v>-1160.514105207445</v>
       </c>
       <c r="L57" t="n">
-        <v>1001.797073736093</v>
+        <v>-1160.514105207445</v>
       </c>
       <c r="M57" t="n">
-        <v>1001.797073736093</v>
+        <v>-1160.514105207445</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>9893.889483709816</v>
+        <v>8159.036189495511</v>
       </c>
     </row>
     <row r="58">
@@ -3492,40 +3492,40 @@
         <v>56</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>44075</v>
+        <v>44621</v>
       </c>
       <c r="C58" t="n">
-        <v>8874.623989081618</v>
+        <v>9334.780127020624</v>
       </c>
       <c r="D58" t="n">
-        <v>8241.699327956194</v>
+        <v>7810.665365611151</v>
       </c>
       <c r="E58" t="n">
-        <v>10014.8624483296</v>
+        <v>11165.96280032106</v>
       </c>
       <c r="F58" t="n">
-        <v>8874.623989081618</v>
+        <v>9334.780127020624</v>
       </c>
       <c r="G58" t="n">
-        <v>8874.623989081618</v>
+        <v>9334.780127020624</v>
       </c>
       <c r="H58" t="n">
-        <v>261.6575943056295</v>
+        <v>164.8648748407483</v>
       </c>
       <c r="I58" t="n">
-        <v>261.6575943056295</v>
+        <v>164.8648748407483</v>
       </c>
       <c r="J58" t="n">
-        <v>261.6575943056295</v>
+        <v>164.8648748407483</v>
       </c>
       <c r="K58" t="n">
-        <v>261.6575943056295</v>
+        <v>164.8648748407483</v>
       </c>
       <c r="L58" t="n">
-        <v>261.6575943056295</v>
+        <v>164.8648748407483</v>
       </c>
       <c r="M58" t="n">
-        <v>261.6575943056295</v>
+        <v>164.8648748407483</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
@@ -3537,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>9136.281583387246</v>
+        <v>9499.645001861372</v>
       </c>
     </row>
     <row r="59">
@@ -3545,40 +3545,40 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>44105</v>
+        <v>44652</v>
       </c>
       <c r="C59" t="n">
-        <v>8857.719065637644</v>
+        <v>9351.641727086611</v>
       </c>
       <c r="D59" t="n">
-        <v>8563.757691494518</v>
+        <v>7786.604887699898</v>
       </c>
       <c r="E59" t="n">
-        <v>10303.69679726472</v>
+        <v>11044.55033760646</v>
       </c>
       <c r="F59" t="n">
-        <v>8857.719065637644</v>
+        <v>9351.641727086611</v>
       </c>
       <c r="G59" t="n">
-        <v>8857.719065637644</v>
+        <v>9351.641727086611</v>
       </c>
       <c r="H59" t="n">
-        <v>605.6699430920627</v>
+        <v>45.43733714029733</v>
       </c>
       <c r="I59" t="n">
-        <v>605.6699430920627</v>
+        <v>45.43733714029733</v>
       </c>
       <c r="J59" t="n">
-        <v>605.6699430920627</v>
+        <v>45.43733714029733</v>
       </c>
       <c r="K59" t="n">
-        <v>605.6699430920627</v>
+        <v>45.43733714029733</v>
       </c>
       <c r="L59" t="n">
-        <v>605.6699430920627</v>
+        <v>45.43733714029733</v>
       </c>
       <c r="M59" t="n">
-        <v>605.6699430920627</v>
+        <v>45.43733714029733</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>9463.389008729708</v>
+        <v>9397.079064226909</v>
       </c>
     </row>
     <row r="60">
@@ -3598,40 +3598,40 @@
         <v>58</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>44136</v>
+        <v>44682</v>
       </c>
       <c r="C60" t="n">
-        <v>8840.250644745542</v>
+        <v>9367.959404569827</v>
       </c>
       <c r="D60" t="n">
-        <v>7871.677904662083</v>
+        <v>7634.981531333706</v>
       </c>
       <c r="E60" t="n">
-        <v>9672.464813123614</v>
+        <v>11066.00498674027</v>
       </c>
       <c r="F60" t="n">
-        <v>8840.250644745542</v>
+        <v>9367.959404569827</v>
       </c>
       <c r="G60" t="n">
-        <v>8840.250644745542</v>
+        <v>9367.959404569827</v>
       </c>
       <c r="H60" t="n">
-        <v>-66.52505235872441</v>
+        <v>-39.99778806356449</v>
       </c>
       <c r="I60" t="n">
-        <v>-66.52505235872441</v>
+        <v>-39.99778806356449</v>
       </c>
       <c r="J60" t="n">
-        <v>-66.52505235872441</v>
+        <v>-39.99778806356449</v>
       </c>
       <c r="K60" t="n">
-        <v>-66.52505235872441</v>
+        <v>-39.99778806356449</v>
       </c>
       <c r="L60" t="n">
-        <v>-66.52505235872441</v>
+        <v>-39.99778806356449</v>
       </c>
       <c r="M60" t="n">
-        <v>-66.52505235872441</v>
+        <v>-39.99778806356449</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>8773.725592386818</v>
+        <v>9327.961616506262</v>
       </c>
     </row>
     <row r="61">
@@ -3651,40 +3651,40 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>44166</v>
+        <v>44713</v>
       </c>
       <c r="C61" t="n">
-        <v>8823.34572130157</v>
+        <v>9384.821004635814</v>
       </c>
       <c r="D61" t="n">
-        <v>7079.534367591026</v>
+        <v>7990.817037815144</v>
       </c>
       <c r="E61" t="n">
-        <v>8930.173246392904</v>
+        <v>11378.75869805286</v>
       </c>
       <c r="F61" t="n">
-        <v>8823.34572130157</v>
+        <v>9384.812200245571</v>
       </c>
       <c r="G61" t="n">
-        <v>8823.34572130157</v>
+        <v>9384.837132463077</v>
       </c>
       <c r="H61" t="n">
-        <v>-839.301478558519</v>
+        <v>396.7017060108868</v>
       </c>
       <c r="I61" t="n">
-        <v>-839.301478558519</v>
+        <v>396.7017060108868</v>
       </c>
       <c r="J61" t="n">
-        <v>-839.301478558519</v>
+        <v>396.7017060108868</v>
       </c>
       <c r="K61" t="n">
-        <v>-839.301478558519</v>
+        <v>396.7017060108868</v>
       </c>
       <c r="L61" t="n">
-        <v>-839.301478558519</v>
+        <v>396.7017060108868</v>
       </c>
       <c r="M61" t="n">
-        <v>-839.301478558519</v>
+        <v>396.7017060108868</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>7984.044242743051</v>
+        <v>9781.522710646701</v>
       </c>
     </row>
     <row r="62">
@@ -3704,40 +3704,40 @@
         <v>60</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>44197</v>
+        <v>44743</v>
       </c>
       <c r="C62" t="n">
-        <v>8805.877300409464</v>
+        <v>9401.13868211903</v>
       </c>
       <c r="D62" t="n">
-        <v>7988.694587448253</v>
+        <v>7004.663646334762</v>
       </c>
       <c r="E62" t="n">
-        <v>9780.041633336508</v>
+        <v>10362.45232440395</v>
       </c>
       <c r="F62" t="n">
-        <v>8805.877300409464</v>
+        <v>9401.086277484812</v>
       </c>
       <c r="G62" t="n">
-        <v>8805.877300409464</v>
+        <v>9401.204336015624</v>
       </c>
       <c r="H62" t="n">
-        <v>72.13846902840143</v>
+        <v>-684.2684379824735</v>
       </c>
       <c r="I62" t="n">
-        <v>72.13846902840143</v>
+        <v>-684.2684379824735</v>
       </c>
       <c r="J62" t="n">
-        <v>72.13846902840143</v>
+        <v>-684.2684379824735</v>
       </c>
       <c r="K62" t="n">
-        <v>72.13846902840143</v>
+        <v>-684.2684379824735</v>
       </c>
       <c r="L62" t="n">
-        <v>72.13846902840143</v>
+        <v>-684.2684379824735</v>
       </c>
       <c r="M62" t="n">
-        <v>72.13846902840143</v>
+        <v>-684.2684379824735</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>8878.015769437865</v>
+        <v>8716.870244136557</v>
       </c>
     </row>
     <row r="63">
@@ -3757,40 +3757,40 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>44228</v>
+        <v>44774</v>
       </c>
       <c r="C63" t="n">
-        <v>8788.408879517359</v>
+        <v>9418.000282185018</v>
       </c>
       <c r="D63" t="n">
-        <v>6813.386748993148</v>
+        <v>8055.617683552965</v>
       </c>
       <c r="E63" t="n">
-        <v>8696.509506411652</v>
+        <v>11378.83804810442</v>
       </c>
       <c r="F63" t="n">
-        <v>8788.408879517359</v>
+        <v>9417.895701289921</v>
       </c>
       <c r="G63" t="n">
-        <v>8788.408879517359</v>
+        <v>9418.129000776746</v>
       </c>
       <c r="H63" t="n">
-        <v>-1065.950347930386</v>
+        <v>260.0088849460486</v>
       </c>
       <c r="I63" t="n">
-        <v>-1065.950347930386</v>
+        <v>260.0088849460486</v>
       </c>
       <c r="J63" t="n">
-        <v>-1065.950347930386</v>
+        <v>260.0088849460486</v>
       </c>
       <c r="K63" t="n">
-        <v>-1065.950347930386</v>
+        <v>260.0088849460486</v>
       </c>
       <c r="L63" t="n">
-        <v>-1065.950347930386</v>
+        <v>260.0088849460486</v>
       </c>
       <c r="M63" t="n">
-        <v>-1065.950347930386</v>
+        <v>260.0088849460486</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>7722.458531586974</v>
+        <v>9678.009167131066</v>
       </c>
     </row>
     <row r="64">
@@ -3810,40 +3810,40 @@
         <v>62</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>44256</v>
+        <v>44805</v>
       </c>
       <c r="C64" t="n">
-        <v>8772.630950969653</v>
+        <v>9434.861882251007</v>
       </c>
       <c r="D64" t="n">
-        <v>8021.556790294373</v>
+        <v>7240.19992856499</v>
       </c>
       <c r="E64" t="n">
-        <v>9868.725890339576</v>
+        <v>10700.97206694918</v>
       </c>
       <c r="F64" t="n">
-        <v>8772.630950969653</v>
+        <v>9434.679463709355</v>
       </c>
       <c r="G64" t="n">
-        <v>8772.630950969653</v>
+        <v>9435.081839766272</v>
       </c>
       <c r="H64" t="n">
-        <v>146.3764881769176</v>
+        <v>-434.4194341058148</v>
       </c>
       <c r="I64" t="n">
-        <v>146.3764881769176</v>
+        <v>-434.4194341058148</v>
       </c>
       <c r="J64" t="n">
-        <v>146.3764881769176</v>
+        <v>-434.4194341058148</v>
       </c>
       <c r="K64" t="n">
-        <v>146.3764881769176</v>
+        <v>-434.4194341058148</v>
       </c>
       <c r="L64" t="n">
-        <v>146.3764881769176</v>
+        <v>-434.4194341058148</v>
       </c>
       <c r="M64" t="n">
-        <v>146.3764881769176</v>
+        <v>-434.4194341058148</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>8919.007439146571</v>
+        <v>9000.442448145192</v>
       </c>
     </row>
     <row r="65">
@@ -3863,40 +3863,40 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>44287</v>
+        <v>44835</v>
       </c>
       <c r="C65" t="n">
-        <v>8755.162530077549</v>
+        <v>9451.179559734222</v>
       </c>
       <c r="D65" t="n">
-        <v>7720.145491749687</v>
+        <v>8029.573912061301</v>
       </c>
       <c r="E65" t="n">
-        <v>9490.043404255061</v>
+        <v>11335.0342046855</v>
       </c>
       <c r="F65" t="n">
-        <v>8755.162530077549</v>
+        <v>9450.921232151049</v>
       </c>
       <c r="G65" t="n">
-        <v>8755.162530077549</v>
+        <v>9451.488736846823</v>
       </c>
       <c r="H65" t="n">
-        <v>-135.7519387317905</v>
+        <v>294.1988478623574</v>
       </c>
       <c r="I65" t="n">
-        <v>-135.7519387317905</v>
+        <v>294.1988478623574</v>
       </c>
       <c r="J65" t="n">
-        <v>-135.7519387317905</v>
+        <v>294.1988478623574</v>
       </c>
       <c r="K65" t="n">
-        <v>-135.7519387317905</v>
+        <v>294.1988478623574</v>
       </c>
       <c r="L65" t="n">
-        <v>-135.7519387317905</v>
+        <v>294.1988478623574</v>
       </c>
       <c r="M65" t="n">
-        <v>-135.7519387317905</v>
+        <v>294.1988478623574</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>8619.410591345759</v>
+        <v>9745.37840759658</v>
       </c>
     </row>
     <row r="66">
@@ -3916,40 +3916,40 @@
         <v>64</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>44317</v>
+        <v>44866</v>
       </c>
       <c r="C66" t="n">
-        <v>8738.257606633577</v>
+        <v>9468.04115980021</v>
       </c>
       <c r="D66" t="n">
-        <v>7987.065573201935</v>
+        <v>8010.455121306295</v>
       </c>
       <c r="E66" t="n">
-        <v>9735.699390135924</v>
+        <v>11321.43996592474</v>
       </c>
       <c r="F66" t="n">
-        <v>8738.257606633577</v>
+        <v>9467.687639605074</v>
       </c>
       <c r="G66" t="n">
-        <v>8738.257606633577</v>
+        <v>9468.458608170036</v>
       </c>
       <c r="H66" t="n">
-        <v>168.0566303359226</v>
+        <v>186.3381742383666</v>
       </c>
       <c r="I66" t="n">
-        <v>168.0566303359226</v>
+        <v>186.3381742383666</v>
       </c>
       <c r="J66" t="n">
-        <v>168.0566303359226</v>
+        <v>186.3381742383666</v>
       </c>
       <c r="K66" t="n">
-        <v>168.0566303359226</v>
+        <v>186.3381742383666</v>
       </c>
       <c r="L66" t="n">
-        <v>168.0566303359226</v>
+        <v>186.3381742383666</v>
       </c>
       <c r="M66" t="n">
-        <v>168.0566303359226</v>
+        <v>186.3381742383666</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>8906.3142369695</v>
+        <v>9654.379334038576</v>
       </c>
     </row>
     <row r="67">
@@ -3969,40 +3969,40 @@
         <v>65</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>44348</v>
+        <v>44896</v>
       </c>
       <c r="C67" t="n">
-        <v>8720.789185741471</v>
+        <v>9484.358837283427</v>
       </c>
       <c r="D67" t="n">
-        <v>8213.115263582687</v>
+        <v>7288.759672818698</v>
       </c>
       <c r="E67" t="n">
-        <v>10003.89783726912</v>
+        <v>10847.28241430472</v>
       </c>
       <c r="F67" t="n">
-        <v>8720.789185741471</v>
+        <v>9483.887683797069</v>
       </c>
       <c r="G67" t="n">
-        <v>8720.789185741471</v>
+        <v>9484.89703920701</v>
       </c>
       <c r="H67" t="n">
-        <v>419.7091976295804</v>
+        <v>-499.6506537678776</v>
       </c>
       <c r="I67" t="n">
-        <v>419.7091976295804</v>
+        <v>-499.6506537678776</v>
       </c>
       <c r="J67" t="n">
-        <v>419.7091976295804</v>
+        <v>-499.6506537678776</v>
       </c>
       <c r="K67" t="n">
-        <v>419.7091976295804</v>
+        <v>-499.6506537678776</v>
       </c>
       <c r="L67" t="n">
-        <v>419.7091976295804</v>
+        <v>-499.6506537678776</v>
       </c>
       <c r="M67" t="n">
-        <v>419.7091976295804</v>
+        <v>-499.6506537678776</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
@@ -4014,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>9140.49838337105</v>
+        <v>8984.70818351555</v>
       </c>
     </row>
     <row r="68">
@@ -4022,40 +4022,40 @@
         <v>66</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>44378</v>
+        <v>44927</v>
       </c>
       <c r="C68" t="n">
-        <v>8703.884262297499</v>
+        <v>9501.220437349415</v>
       </c>
       <c r="D68" t="n">
-        <v>8073.670688614514</v>
+        <v>8139.093326944364</v>
       </c>
       <c r="E68" t="n">
-        <v>9925.470066753927</v>
+        <v>11564.71520348865</v>
       </c>
       <c r="F68" t="n">
-        <v>8703.884262297499</v>
+        <v>9500.62035648386</v>
       </c>
       <c r="G68" t="n">
-        <v>8703.884262297499</v>
+        <v>9501.899389923363</v>
       </c>
       <c r="H68" t="n">
-        <v>332.9640454045448</v>
+        <v>360.2103504815036</v>
       </c>
       <c r="I68" t="n">
-        <v>332.9640454045448</v>
+        <v>360.2103504815036</v>
       </c>
       <c r="J68" t="n">
-        <v>332.9640454045448</v>
+        <v>360.2103504815036</v>
       </c>
       <c r="K68" t="n">
-        <v>332.9640454045448</v>
+        <v>360.2103504815036</v>
       </c>
       <c r="L68" t="n">
-        <v>332.9640454045448</v>
+        <v>360.2103504815036</v>
       </c>
       <c r="M68" t="n">
-        <v>332.9640454045448</v>
+        <v>360.2103504815036</v>
       </c>
       <c r="N68" t="n">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>9036.848307702045</v>
+        <v>9861.430787830919</v>
       </c>
     </row>
     <row r="69">
@@ -4075,40 +4075,40 @@
         <v>67</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>44409</v>
+        <v>44958</v>
       </c>
       <c r="C69" t="n">
-        <v>8686.415841405396</v>
+        <v>9518.082037415403</v>
       </c>
       <c r="D69" t="n">
-        <v>8621.102153491463</v>
+        <v>6617.024780268617</v>
       </c>
       <c r="E69" t="n">
-        <v>10377.57154834595</v>
+        <v>10256.66823721615</v>
       </c>
       <c r="F69" t="n">
-        <v>8686.415841405396</v>
+        <v>9517.374061026425</v>
       </c>
       <c r="G69" t="n">
-        <v>8686.415841405396</v>
+        <v>9518.914214311639</v>
       </c>
       <c r="H69" t="n">
-        <v>786.443633829162</v>
+        <v>-972.8707923318129</v>
       </c>
       <c r="I69" t="n">
-        <v>786.443633829162</v>
+        <v>-972.8707923318129</v>
       </c>
       <c r="J69" t="n">
-        <v>786.443633829162</v>
+        <v>-972.8707923318129</v>
       </c>
       <c r="K69" t="n">
-        <v>786.443633829162</v>
+        <v>-972.8707923318129</v>
       </c>
       <c r="L69" t="n">
-        <v>786.443633829162</v>
+        <v>-972.8707923318129</v>
       </c>
       <c r="M69" t="n">
-        <v>786.443633829162</v>
+        <v>-972.8707923318129</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>9472.859475234558</v>
+        <v>8545.21124508359</v>
       </c>
     </row>
     <row r="70">
@@ -4128,40 +4128,40 @@
         <v>68</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>44440</v>
+        <v>44986</v>
       </c>
       <c r="C70" t="n">
-        <v>8668.94742051329</v>
+        <v>9533.31186973307</v>
       </c>
       <c r="D70" t="n">
-        <v>7851.43741690375</v>
+        <v>7822.896520124378</v>
       </c>
       <c r="E70" t="n">
-        <v>9606.950231954215</v>
+        <v>11211.94390436849</v>
       </c>
       <c r="F70" t="n">
-        <v>8668.94742051329</v>
+        <v>9532.503947261501</v>
       </c>
       <c r="G70" t="n">
-        <v>8668.94742051329</v>
+        <v>9534.271444980179</v>
       </c>
       <c r="H70" t="n">
-        <v>64.50222332203808</v>
+        <v>-5.040127171961673</v>
       </c>
       <c r="I70" t="n">
-        <v>64.50222332203808</v>
+        <v>-5.040127171961673</v>
       </c>
       <c r="J70" t="n">
-        <v>64.50222332203808</v>
+        <v>-5.040127171961673</v>
       </c>
       <c r="K70" t="n">
-        <v>64.50222332203808</v>
+        <v>-5.040127171961673</v>
       </c>
       <c r="L70" t="n">
-        <v>64.50222332203808</v>
+        <v>-5.040127171961673</v>
       </c>
       <c r="M70" t="n">
-        <v>64.50222332203808</v>
+        <v>-5.040127171961673</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -4173,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>8733.449643835329</v>
+        <v>9528.271742561108</v>
       </c>
     </row>
     <row r="71">
@@ -4181,40 +4181,40 @@
         <v>69</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>44470</v>
+        <v>45017</v>
       </c>
       <c r="C71" t="n">
-        <v>8652.042497069318</v>
+        <v>9550.17346979906</v>
       </c>
       <c r="D71" t="n">
-        <v>8374.383052404304</v>
+        <v>7530.168981061424</v>
       </c>
       <c r="E71" t="n">
-        <v>10126.04661827701</v>
+        <v>10943.87517525585</v>
       </c>
       <c r="F71" t="n">
-        <v>8652.042497069318</v>
+        <v>9549.257257964302</v>
       </c>
       <c r="G71" t="n">
-        <v>8652.042497069318</v>
+        <v>9551.307835482039</v>
       </c>
       <c r="H71" t="n">
-        <v>606.1777202806331</v>
+        <v>-248.6122514214357</v>
       </c>
       <c r="I71" t="n">
-        <v>606.1777202806331</v>
+        <v>-248.6122514214357</v>
       </c>
       <c r="J71" t="n">
-        <v>606.1777202806331</v>
+        <v>-248.6122514214357</v>
       </c>
       <c r="K71" t="n">
-        <v>606.1777202806331</v>
+        <v>-248.6122514214357</v>
       </c>
       <c r="L71" t="n">
-        <v>606.1777202806331</v>
+        <v>-248.6122514214357</v>
       </c>
       <c r="M71" t="n">
-        <v>606.1777202806331</v>
+        <v>-248.6122514214357</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>9258.220217349952</v>
+        <v>9301.561218377625</v>
       </c>
     </row>
     <row r="72">
@@ -4234,40 +4234,40 @@
         <v>70</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>44501</v>
+        <v>45047</v>
       </c>
       <c r="C72" t="n">
-        <v>8634.574076177214</v>
+        <v>9566.491147282273</v>
       </c>
       <c r="D72" t="n">
-        <v>7803.236127038464</v>
+        <v>8002.315514033338</v>
       </c>
       <c r="E72" t="n">
-        <v>9641.060771997945</v>
+        <v>11354.02737528922</v>
       </c>
       <c r="F72" t="n">
-        <v>8634.574076177214</v>
+        <v>9565.446968183254</v>
       </c>
       <c r="G72" t="n">
-        <v>8634.574076177214</v>
+        <v>9567.780999942108</v>
       </c>
       <c r="H72" t="n">
-        <v>81.45717174048808</v>
+        <v>79.97935433678734</v>
       </c>
       <c r="I72" t="n">
-        <v>81.45717174048808</v>
+        <v>79.97935433678734</v>
       </c>
       <c r="J72" t="n">
-        <v>81.45717174048808</v>
+        <v>79.97935433678734</v>
       </c>
       <c r="K72" t="n">
-        <v>81.45717174048808</v>
+        <v>79.97935433678734</v>
       </c>
       <c r="L72" t="n">
-        <v>81.45717174048808</v>
+        <v>79.97935433678734</v>
       </c>
       <c r="M72" t="n">
-        <v>81.45717174048808</v>
+        <v>79.97935433678734</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
@@ -4279,7 +4279,7 @@
         <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>8716.031247917703</v>
+        <v>9646.47050161906</v>
       </c>
     </row>
     <row r="73">
@@ -4287,40 +4287,40 @@
         <v>71</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>44531</v>
+        <v>45078</v>
       </c>
       <c r="C73" t="n">
-        <v>8617.669152733242</v>
+        <v>9583.352747348263</v>
       </c>
       <c r="D73" t="n">
-        <v>7043.70241127422</v>
+        <v>8211.216915251258</v>
       </c>
       <c r="E73" t="n">
-        <v>8796.805810499096</v>
+        <v>11545.2453599467</v>
       </c>
       <c r="F73" t="n">
-        <v>8617.669152733242</v>
+        <v>9582.176449742981</v>
       </c>
       <c r="G73" t="n">
-        <v>8617.669152733242</v>
+        <v>9584.800041862127</v>
       </c>
       <c r="H73" t="n">
-        <v>-732.5040114906583</v>
+        <v>349.9908713827786</v>
       </c>
       <c r="I73" t="n">
-        <v>-732.5040114906583</v>
+        <v>349.9908713827786</v>
       </c>
       <c r="J73" t="n">
-        <v>-732.5040114906583</v>
+        <v>349.9908713827786</v>
       </c>
       <c r="K73" t="n">
-        <v>-732.5040114906583</v>
+        <v>349.9908713827786</v>
       </c>
       <c r="L73" t="n">
-        <v>-732.5040114906583</v>
+        <v>349.9908713827786</v>
       </c>
       <c r="M73" t="n">
-        <v>-732.5040114906583</v>
+        <v>349.9908713827786</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
@@ -4332,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>7885.165141242584</v>
+        <v>9933.343618731042</v>
       </c>
     </row>
     <row r="74">
@@ -4340,40 +4340,40 @@
         <v>72</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>44562</v>
+        <v>45108</v>
       </c>
       <c r="C74" t="n">
-        <v>8600.200731841138</v>
+        <v>9599.670424831478</v>
       </c>
       <c r="D74" t="n">
-        <v>7727.166827554395</v>
+        <v>7642.6839697742</v>
       </c>
       <c r="E74" t="n">
-        <v>9510.974258113733</v>
+        <v>10926.76160100768</v>
       </c>
       <c r="F74" t="n">
-        <v>8600.200731841138</v>
+        <v>9598.310336468399</v>
       </c>
       <c r="G74" t="n">
-        <v>8600.200731841138</v>
+        <v>9601.286296225982</v>
       </c>
       <c r="H74" t="n">
-        <v>-3.631775405005287</v>
+        <v>-295.1782441660039</v>
       </c>
       <c r="I74" t="n">
-        <v>-3.631775405005287</v>
+        <v>-295.1782441660039</v>
       </c>
       <c r="J74" t="n">
-        <v>-3.631775405005287</v>
+        <v>-295.1782441660039</v>
       </c>
       <c r="K74" t="n">
-        <v>-3.631775405005287</v>
+        <v>-295.1782441660039</v>
       </c>
       <c r="L74" t="n">
-        <v>-3.631775405005287</v>
+        <v>-295.1782441660039</v>
       </c>
       <c r="M74" t="n">
-        <v>-3.631775405005287</v>
+        <v>-295.1782441660039</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
@@ -4385,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>8596.568956436133</v>
+        <v>9304.492180665475</v>
       </c>
     </row>
     <row r="75">
@@ -4393,40 +4393,40 @@
         <v>73</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>44593</v>
+        <v>45139</v>
       </c>
       <c r="C75" t="n">
-        <v>8582.732310949033</v>
+        <v>9616.532024897466</v>
       </c>
       <c r="D75" t="n">
-        <v>6629.949759251826</v>
+        <v>8069.919581313318</v>
       </c>
       <c r="E75" t="n">
-        <v>8431.412386538621</v>
+        <v>11294.36395883021</v>
       </c>
       <c r="F75" t="n">
-        <v>8582.732310949033</v>
+        <v>9614.996356451436</v>
       </c>
       <c r="G75" t="n">
-        <v>8582.732310949033</v>
+        <v>9618.319368669563</v>
       </c>
       <c r="H75" t="n">
-        <v>-1056.831771403481</v>
+        <v>177.8432388563929</v>
       </c>
       <c r="I75" t="n">
-        <v>-1056.831771403481</v>
+        <v>177.8432388563929</v>
       </c>
       <c r="J75" t="n">
-        <v>-1056.831771403481</v>
+        <v>177.8432388563929</v>
       </c>
       <c r="K75" t="n">
-        <v>-1056.831771403481</v>
+        <v>177.8432388563929</v>
       </c>
       <c r="L75" t="n">
-        <v>-1056.831771403481</v>
+        <v>177.8432388563929</v>
       </c>
       <c r="M75" t="n">
-        <v>-1056.831771403481</v>
+        <v>177.8432388563929</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
@@ -4438,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>7525.900539545553</v>
+        <v>9794.375263753858</v>
       </c>
     </row>
     <row r="76">
@@ -4446,40 +4446,40 @@
         <v>74</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>44621</v>
+        <v>45170</v>
       </c>
       <c r="C76" t="n">
-        <v>8566.954382401325</v>
+        <v>9633.393624963455</v>
       </c>
       <c r="D76" t="n">
-        <v>7730.767572389703</v>
+        <v>7238.849809397115</v>
       </c>
       <c r="E76" t="n">
-        <v>9527.568681206405</v>
+        <v>10617.33000581027</v>
       </c>
       <c r="F76" t="n">
-        <v>8566.954382401325</v>
+        <v>9631.662532783268</v>
       </c>
       <c r="G76" t="n">
-        <v>8566.954382401325</v>
+        <v>9635.355092148047</v>
       </c>
       <c r="H76" t="n">
-        <v>40.6051453106147</v>
+        <v>-724.290173627839</v>
       </c>
       <c r="I76" t="n">
-        <v>40.6051453106147</v>
+        <v>-724.290173627839</v>
       </c>
       <c r="J76" t="n">
-        <v>40.6051453106147</v>
+        <v>-724.290173627839</v>
       </c>
       <c r="K76" t="n">
-        <v>40.6051453106147</v>
+        <v>-724.290173627839</v>
       </c>
       <c r="L76" t="n">
-        <v>40.6051453106147</v>
+        <v>-724.290173627839</v>
       </c>
       <c r="M76" t="n">
-        <v>40.6051453106147</v>
+        <v>-724.290173627839</v>
       </c>
       <c r="N76" t="n">
         <v>0</v>
@@ -4491,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>8607.559527711939</v>
+        <v>8909.103451335617</v>
       </c>
     </row>
     <row r="77">
@@ -4499,40 +4499,40 @@
         <v>75</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>44652</v>
+        <v>45200</v>
       </c>
       <c r="C77" t="n">
-        <v>8549.485961509221</v>
+        <v>9649.711302446671</v>
       </c>
       <c r="D77" t="n">
-        <v>7514.312330803365</v>
+        <v>8308.615381556305</v>
       </c>
       <c r="E77" t="n">
-        <v>9312.591980923215</v>
+        <v>11758.96577564721</v>
       </c>
       <c r="F77" t="n">
-        <v>8549.485961509221</v>
+        <v>9647.853092641792</v>
       </c>
       <c r="G77" t="n">
-        <v>8549.485961509221</v>
+        <v>9651.910788859122</v>
       </c>
       <c r="H77" t="n">
-        <v>-110.2331330430184</v>
+        <v>417.1603377123764</v>
       </c>
       <c r="I77" t="n">
-        <v>-110.2331330430184</v>
+        <v>417.1603377123764</v>
       </c>
       <c r="J77" t="n">
-        <v>-110.2331330430184</v>
+        <v>417.1603377123764</v>
       </c>
       <c r="K77" t="n">
-        <v>-110.2331330430184</v>
+        <v>417.1603377123764</v>
       </c>
       <c r="L77" t="n">
-        <v>-110.2331330430184</v>
+        <v>417.1603377123764</v>
       </c>
       <c r="M77" t="n">
-        <v>-110.2331330430184</v>
+        <v>417.1603377123764</v>
       </c>
       <c r="N77" t="n">
         <v>0</v>
@@ -4544,908 +4544,7 @@
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>8439.252828466202</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" s="2" t="n">
-        <v>44682</v>
-      </c>
-      <c r="C78" t="n">
-        <v>8532.581038065249</v>
-      </c>
-      <c r="D78" t="n">
-        <v>7844.856340175494</v>
-      </c>
-      <c r="E78" t="n">
-        <v>9622.400751737654</v>
-      </c>
-      <c r="F78" t="n">
-        <v>8532.2784438451</v>
-      </c>
-      <c r="G78" t="n">
-        <v>8533.901582060727</v>
-      </c>
-      <c r="H78" t="n">
-        <v>194.6368133004122</v>
-      </c>
-      <c r="I78" t="n">
-        <v>194.6368133004122</v>
-      </c>
-      <c r="J78" t="n">
-        <v>194.6368133004122</v>
-      </c>
-      <c r="K78" t="n">
-        <v>194.6368133004122</v>
-      </c>
-      <c r="L78" t="n">
-        <v>194.6368133004122</v>
-      </c>
-      <c r="M78" t="n">
-        <v>194.6368133004122</v>
-      </c>
-      <c r="N78" t="n">
-        <v>0</v>
-      </c>
-      <c r="O78" t="n">
-        <v>0</v>
-      </c>
-      <c r="P78" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>8727.217851365662</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" s="2" t="n">
-        <v>44713</v>
-      </c>
-      <c r="C79" t="n">
-        <v>8515.112617173145</v>
-      </c>
-      <c r="D79" t="n">
-        <v>8033.688901450039</v>
-      </c>
-      <c r="E79" t="n">
-        <v>9737.783277018865</v>
-      </c>
-      <c r="F79" t="n">
-        <v>8508.053974470662</v>
-      </c>
-      <c r="G79" t="n">
-        <v>8522.813343922695</v>
-      </c>
-      <c r="H79" t="n">
-        <v>337.9660260929159</v>
-      </c>
-      <c r="I79" t="n">
-        <v>337.9660260929159</v>
-      </c>
-      <c r="J79" t="n">
-        <v>337.9660260929159</v>
-      </c>
-      <c r="K79" t="n">
-        <v>337.9660260929159</v>
-      </c>
-      <c r="L79" t="n">
-        <v>337.9660260929159</v>
-      </c>
-      <c r="M79" t="n">
-        <v>337.9660260929159</v>
-      </c>
-      <c r="N79" t="n">
-        <v>0</v>
-      </c>
-      <c r="O79" t="n">
-        <v>0</v>
-      </c>
-      <c r="P79" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>8853.078643266061</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" s="2" t="n">
-        <v>44743</v>
-      </c>
-      <c r="C80" t="n">
-        <v>8498.207693729173</v>
-      </c>
-      <c r="D80" t="n">
-        <v>8392.943867518043</v>
-      </c>
-      <c r="E80" t="n">
-        <v>10131.36162098645</v>
-      </c>
-      <c r="F80" t="n">
-        <v>8482.507340603594</v>
-      </c>
-      <c r="G80" t="n">
-        <v>8516.806860979243</v>
-      </c>
-      <c r="H80" t="n">
-        <v>697.6059478656276</v>
-      </c>
-      <c r="I80" t="n">
-        <v>697.6059478656276</v>
-      </c>
-      <c r="J80" t="n">
-        <v>697.6059478656276</v>
-      </c>
-      <c r="K80" t="n">
-        <v>697.6059478656276</v>
-      </c>
-      <c r="L80" t="n">
-        <v>697.6059478656276</v>
-      </c>
-      <c r="M80" t="n">
-        <v>697.6059478656276</v>
-      </c>
-      <c r="N80" t="n">
-        <v>0</v>
-      </c>
-      <c r="O80" t="n">
-        <v>0</v>
-      </c>
-      <c r="P80" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>9195.813641594801</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" s="2" t="n">
-        <v>44774</v>
-      </c>
-      <c r="C81" t="n">
-        <v>8480.739272837069</v>
-      </c>
-      <c r="D81" t="n">
-        <v>8124.358073492471</v>
-      </c>
-      <c r="E81" t="n">
-        <v>10017.07172449199</v>
-      </c>
-      <c r="F81" t="n">
-        <v>8452.956082697294</v>
-      </c>
-      <c r="G81" t="n">
-        <v>8510.836156380019</v>
-      </c>
-      <c r="H81" t="n">
-        <v>563.0750076223342</v>
-      </c>
-      <c r="I81" t="n">
-        <v>563.0750076223342</v>
-      </c>
-      <c r="J81" t="n">
-        <v>563.0750076223342</v>
-      </c>
-      <c r="K81" t="n">
-        <v>563.0750076223342</v>
-      </c>
-      <c r="L81" t="n">
-        <v>563.0750076223342</v>
-      </c>
-      <c r="M81" t="n">
-        <v>563.0750076223342</v>
-      </c>
-      <c r="N81" t="n">
-        <v>0</v>
-      </c>
-      <c r="O81" t="n">
-        <v>0</v>
-      </c>
-      <c r="P81" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>9043.814280459403</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" s="2" t="n">
-        <v>44805</v>
-      </c>
-      <c r="C82" t="n">
-        <v>8463.270851944964</v>
-      </c>
-      <c r="D82" t="n">
-        <v>7514.473548532561</v>
-      </c>
-      <c r="E82" t="n">
-        <v>9266.719816623467</v>
-      </c>
-      <c r="F82" t="n">
-        <v>8422.603068585082</v>
-      </c>
-      <c r="G82" t="n">
-        <v>8507.56635820832</v>
-      </c>
-      <c r="H82" t="n">
-        <v>-130.4616289782248</v>
-      </c>
-      <c r="I82" t="n">
-        <v>-130.4616289782248</v>
-      </c>
-      <c r="J82" t="n">
-        <v>-130.4616289782248</v>
-      </c>
-      <c r="K82" t="n">
-        <v>-130.4616289782248</v>
-      </c>
-      <c r="L82" t="n">
-        <v>-130.4616289782248</v>
-      </c>
-      <c r="M82" t="n">
-        <v>-130.4616289782248</v>
-      </c>
-      <c r="N82" t="n">
-        <v>0</v>
-      </c>
-      <c r="O82" t="n">
-        <v>0</v>
-      </c>
-      <c r="P82" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q82" t="n">
-        <v>8332.80922296674</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" s="2" t="n">
-        <v>44835</v>
-      </c>
-      <c r="C83" t="n">
-        <v>8446.365928500993</v>
-      </c>
-      <c r="D83" t="n">
-        <v>8110.564745942058</v>
-      </c>
-      <c r="E83" t="n">
-        <v>9891.325220277453</v>
-      </c>
-      <c r="F83" t="n">
-        <v>8388.832721053095</v>
-      </c>
-      <c r="G83" t="n">
-        <v>8505.494350915098</v>
-      </c>
-      <c r="H83" t="n">
-        <v>612.4604894620029</v>
-      </c>
-      <c r="I83" t="n">
-        <v>612.4604894620029</v>
-      </c>
-      <c r="J83" t="n">
-        <v>612.4604894620029</v>
-      </c>
-      <c r="K83" t="n">
-        <v>612.4604894620029</v>
-      </c>
-      <c r="L83" t="n">
-        <v>612.4604894620029</v>
-      </c>
-      <c r="M83" t="n">
-        <v>612.4604894620029</v>
-      </c>
-      <c r="N83" t="n">
-        <v>0</v>
-      </c>
-      <c r="O83" t="n">
-        <v>0</v>
-      </c>
-      <c r="P83" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q83" t="n">
-        <v>9058.826417962995</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" s="2" t="n">
-        <v>44866</v>
-      </c>
-      <c r="C84" t="n">
-        <v>8428.897507608888</v>
-      </c>
-      <c r="D84" t="n">
-        <v>7792.89208560637</v>
-      </c>
-      <c r="E84" t="n">
-        <v>9511.034931884145</v>
-      </c>
-      <c r="F84" t="n">
-        <v>8355.03465122158</v>
-      </c>
-      <c r="G84" t="n">
-        <v>8506.60084884738</v>
-      </c>
-      <c r="H84" t="n">
-        <v>231.9627940637925</v>
-      </c>
-      <c r="I84" t="n">
-        <v>231.9627940637925</v>
-      </c>
-      <c r="J84" t="n">
-        <v>231.9627940637925</v>
-      </c>
-      <c r="K84" t="n">
-        <v>231.9627940637925</v>
-      </c>
-      <c r="L84" t="n">
-        <v>231.9627940637925</v>
-      </c>
-      <c r="M84" t="n">
-        <v>231.9627940637925</v>
-      </c>
-      <c r="N84" t="n">
-        <v>0</v>
-      </c>
-      <c r="O84" t="n">
-        <v>0</v>
-      </c>
-      <c r="P84" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>8660.860301672681</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" s="2" t="n">
-        <v>44896</v>
-      </c>
-      <c r="C85" t="n">
-        <v>8411.992584164916</v>
-      </c>
-      <c r="D85" t="n">
-        <v>6829.925885136464</v>
-      </c>
-      <c r="E85" t="n">
-        <v>8649.507626464243</v>
-      </c>
-      <c r="F85" t="n">
-        <v>8321.069610791876</v>
-      </c>
-      <c r="G85" t="n">
-        <v>8508.143373064275</v>
-      </c>
-      <c r="H85" t="n">
-        <v>-628.598297886594</v>
-      </c>
-      <c r="I85" t="n">
-        <v>-628.598297886594</v>
-      </c>
-      <c r="J85" t="n">
-        <v>-628.598297886594</v>
-      </c>
-      <c r="K85" t="n">
-        <v>-628.598297886594</v>
-      </c>
-      <c r="L85" t="n">
-        <v>-628.598297886594</v>
-      </c>
-      <c r="M85" t="n">
-        <v>-628.598297886594</v>
-      </c>
-      <c r="N85" t="n">
-        <v>0</v>
-      </c>
-      <c r="O85" t="n">
-        <v>0</v>
-      </c>
-      <c r="P85" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>7783.394286278322</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" s="2" t="n">
-        <v>44927</v>
-      </c>
-      <c r="C86" t="n">
-        <v>8394.52416327281</v>
-      </c>
-      <c r="D86" t="n">
-        <v>7360.790311240366</v>
-      </c>
-      <c r="E86" t="n">
-        <v>9290.824213996868</v>
-      </c>
-      <c r="F86" t="n">
-        <v>8281.2106077278</v>
-      </c>
-      <c r="G86" t="n">
-        <v>8511.123751582545</v>
-      </c>
-      <c r="H86" t="n">
-        <v>-82.43546954448497</v>
-      </c>
-      <c r="I86" t="n">
-        <v>-82.43546954448497</v>
-      </c>
-      <c r="J86" t="n">
-        <v>-82.43546954448497</v>
-      </c>
-      <c r="K86" t="n">
-        <v>-82.43546954448497</v>
-      </c>
-      <c r="L86" t="n">
-        <v>-82.43546954448497</v>
-      </c>
-      <c r="M86" t="n">
-        <v>-82.43546954448497</v>
-      </c>
-      <c r="N86" t="n">
-        <v>0</v>
-      </c>
-      <c r="O86" t="n">
-        <v>0</v>
-      </c>
-      <c r="P86" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q86" t="n">
-        <v>8312.088693728325</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" s="2" t="n">
-        <v>44958</v>
-      </c>
-      <c r="C87" t="n">
-        <v>8377.055742380706</v>
-      </c>
-      <c r="D87" t="n">
-        <v>6480.194313771144</v>
-      </c>
-      <c r="E87" t="n">
-        <v>8242.294916375766</v>
-      </c>
-      <c r="F87" t="n">
-        <v>8241.239772652874</v>
-      </c>
-      <c r="G87" t="n">
-        <v>8513.861397722023</v>
-      </c>
-      <c r="H87" t="n">
-        <v>-1048.539956463549</v>
-      </c>
-      <c r="I87" t="n">
-        <v>-1048.539956463549</v>
-      </c>
-      <c r="J87" t="n">
-        <v>-1048.539956463549</v>
-      </c>
-      <c r="K87" t="n">
-        <v>-1048.539956463549</v>
-      </c>
-      <c r="L87" t="n">
-        <v>-1048.539956463549</v>
-      </c>
-      <c r="M87" t="n">
-        <v>-1048.539956463549</v>
-      </c>
-      <c r="N87" t="n">
-        <v>0</v>
-      </c>
-      <c r="O87" t="n">
-        <v>0</v>
-      </c>
-      <c r="P87" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q87" t="n">
-        <v>7328.515785917157</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" s="2" t="n">
-        <v>44986</v>
-      </c>
-      <c r="C88" t="n">
-        <v>8361.277813832998</v>
-      </c>
-      <c r="D88" t="n">
-        <v>7388.107978613731</v>
-      </c>
-      <c r="E88" t="n">
-        <v>9270.044162260712</v>
-      </c>
-      <c r="F88" t="n">
-        <v>8206.163260744983</v>
-      </c>
-      <c r="G88" t="n">
-        <v>8517.366724486548</v>
-      </c>
-      <c r="H88" t="n">
-        <v>-64.44308306855378</v>
-      </c>
-      <c r="I88" t="n">
-        <v>-64.44308306855378</v>
-      </c>
-      <c r="J88" t="n">
-        <v>-64.44308306855378</v>
-      </c>
-      <c r="K88" t="n">
-        <v>-64.44308306855378</v>
-      </c>
-      <c r="L88" t="n">
-        <v>-64.44308306855378</v>
-      </c>
-      <c r="M88" t="n">
-        <v>-64.44308306855378</v>
-      </c>
-      <c r="N88" t="n">
-        <v>0</v>
-      </c>
-      <c r="O88" t="n">
-        <v>0</v>
-      </c>
-      <c r="P88" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q88" t="n">
-        <v>8296.834730764444</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" s="2" t="n">
-        <v>45017</v>
-      </c>
-      <c r="C89" t="n">
-        <v>8343.809392940895</v>
-      </c>
-      <c r="D89" t="n">
-        <v>7384.376953973827</v>
-      </c>
-      <c r="E89" t="n">
-        <v>9238.30196011815</v>
-      </c>
-      <c r="F89" t="n">
-        <v>8163.594445760884</v>
-      </c>
-      <c r="G89" t="n">
-        <v>8524.750226168908</v>
-      </c>
-      <c r="H89" t="n">
-        <v>-82.35198469177388</v>
-      </c>
-      <c r="I89" t="n">
-        <v>-82.35198469177388</v>
-      </c>
-      <c r="J89" t="n">
-        <v>-82.35198469177388</v>
-      </c>
-      <c r="K89" t="n">
-        <v>-82.35198469177388</v>
-      </c>
-      <c r="L89" t="n">
-        <v>-82.35198469177388</v>
-      </c>
-      <c r="M89" t="n">
-        <v>-82.35198469177388</v>
-      </c>
-      <c r="N89" t="n">
-        <v>0</v>
-      </c>
-      <c r="O89" t="n">
-        <v>0</v>
-      </c>
-      <c r="P89" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q89" t="n">
-        <v>8261.457408249122</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" s="2" t="n">
-        <v>45047</v>
-      </c>
-      <c r="C90" t="n">
-        <v>8326.904469496923</v>
-      </c>
-      <c r="D90" t="n">
-        <v>7612.13569515785</v>
-      </c>
-      <c r="E90" t="n">
-        <v>9443.820439126885</v>
-      </c>
-      <c r="F90" t="n">
-        <v>8121.710074367116</v>
-      </c>
-      <c r="G90" t="n">
-        <v>8534.47297581284</v>
-      </c>
-      <c r="H90" t="n">
-        <v>221.6245101798546</v>
-      </c>
-      <c r="I90" t="n">
-        <v>221.6245101798546</v>
-      </c>
-      <c r="J90" t="n">
-        <v>221.6245101798546</v>
-      </c>
-      <c r="K90" t="n">
-        <v>221.6245101798546</v>
-      </c>
-      <c r="L90" t="n">
-        <v>221.6245101798546</v>
-      </c>
-      <c r="M90" t="n">
-        <v>221.6245101798546</v>
-      </c>
-      <c r="N90" t="n">
-        <v>0</v>
-      </c>
-      <c r="O90" t="n">
-        <v>0</v>
-      </c>
-      <c r="P90" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q90" t="n">
-        <v>8548.528979676777</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" s="2" t="n">
-        <v>45078</v>
-      </c>
-      <c r="C91" t="n">
-        <v>8309.436048604817</v>
-      </c>
-      <c r="D91" t="n">
-        <v>7566.541939228589</v>
-      </c>
-      <c r="E91" t="n">
-        <v>9495.634049947685</v>
-      </c>
-      <c r="F91" t="n">
-        <v>8079.344643191856</v>
-      </c>
-      <c r="G91" t="n">
-        <v>8540.712796464088</v>
-      </c>
-      <c r="H91" t="n">
-        <v>259.6711338136146</v>
-      </c>
-      <c r="I91" t="n">
-        <v>259.6711338136146</v>
-      </c>
-      <c r="J91" t="n">
-        <v>259.6711338136146</v>
-      </c>
-      <c r="K91" t="n">
-        <v>259.6711338136146</v>
-      </c>
-      <c r="L91" t="n">
-        <v>259.6711338136146</v>
-      </c>
-      <c r="M91" t="n">
-        <v>259.6711338136146</v>
-      </c>
-      <c r="N91" t="n">
-        <v>0</v>
-      </c>
-      <c r="O91" t="n">
-        <v>0</v>
-      </c>
-      <c r="P91" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q91" t="n">
-        <v>8569.107182418431</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" s="2" t="n">
-        <v>45108</v>
-      </c>
-      <c r="C92" t="n">
-        <v>8292.531125160847</v>
-      </c>
-      <c r="D92" t="n">
-        <v>8380.010117884203</v>
-      </c>
-      <c r="E92" t="n">
-        <v>10237.42457273207</v>
-      </c>
-      <c r="F92" t="n">
-        <v>8039.914173527399</v>
-      </c>
-      <c r="G92" t="n">
-        <v>8546.680573414964</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1058.427514811675</v>
-      </c>
-      <c r="I92" t="n">
-        <v>1058.427514811675</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1058.427514811675</v>
-      </c>
-      <c r="K92" t="n">
-        <v>1058.427514811675</v>
-      </c>
-      <c r="L92" t="n">
-        <v>1058.427514811675</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1058.427514811675</v>
-      </c>
-      <c r="N92" t="n">
-        <v>0</v>
-      </c>
-      <c r="O92" t="n">
-        <v>0</v>
-      </c>
-      <c r="P92" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q92" t="n">
-        <v>9350.958639972523</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" s="2" t="n">
-        <v>45139</v>
-      </c>
-      <c r="C93" t="n">
-        <v>8275.062704268741</v>
-      </c>
-      <c r="D93" t="n">
-        <v>7672.890565509832</v>
-      </c>
-      <c r="E93" t="n">
-        <v>9597.541309727903</v>
-      </c>
-      <c r="F93" t="n">
-        <v>7991.803399449491</v>
-      </c>
-      <c r="G93" t="n">
-        <v>8563.309454515691</v>
-      </c>
-      <c r="H93" t="n">
-        <v>331.914962698224</v>
-      </c>
-      <c r="I93" t="n">
-        <v>331.914962698224</v>
-      </c>
-      <c r="J93" t="n">
-        <v>331.914962698224</v>
-      </c>
-      <c r="K93" t="n">
-        <v>331.914962698224</v>
-      </c>
-      <c r="L93" t="n">
-        <v>331.914962698224</v>
-      </c>
-      <c r="M93" t="n">
-        <v>331.914962698224</v>
-      </c>
-      <c r="N93" t="n">
-        <v>0</v>
-      </c>
-      <c r="O93" t="n">
-        <v>0</v>
-      </c>
-      <c r="P93" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q93" t="n">
-        <v>8606.977666966965</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" s="2" t="n">
-        <v>45170</v>
-      </c>
-      <c r="C94" t="n">
-        <v>8257.594283376637</v>
-      </c>
-      <c r="D94" t="n">
-        <v>7036.304205922166</v>
-      </c>
-      <c r="E94" t="n">
-        <v>8888.168028244554</v>
-      </c>
-      <c r="F94" t="n">
-        <v>7949.720835369635</v>
-      </c>
-      <c r="G94" t="n">
-        <v>8576.156160541615</v>
-      </c>
-      <c r="H94" t="n">
-        <v>-322.9383887204689</v>
-      </c>
-      <c r="I94" t="n">
-        <v>-322.9383887204689</v>
-      </c>
-      <c r="J94" t="n">
-        <v>-322.9383887204689</v>
-      </c>
-      <c r="K94" t="n">
-        <v>-322.9383887204689</v>
-      </c>
-      <c r="L94" t="n">
-        <v>-322.9383887204689</v>
-      </c>
-      <c r="M94" t="n">
-        <v>-322.9383887204689</v>
-      </c>
-      <c r="N94" t="n">
-        <v>0</v>
-      </c>
-      <c r="O94" t="n">
-        <v>0</v>
-      </c>
-      <c r="P94" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q94" t="n">
-        <v>7934.655894656168</v>
+        <v>10066.87164015905</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/cb_senior_monthly.xlsx
+++ b/outputs/cb_senior_monthly.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q77"/>
+  <dimension ref="A1:Q78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,37 +527,37 @@
         <v>42917</v>
       </c>
       <c r="C2" t="n">
-        <v>8380.467701348956</v>
+        <v>8403.58209694029</v>
       </c>
       <c r="D2" t="n">
-        <v>5438.262232767763</v>
+        <v>5590.656133743227</v>
       </c>
       <c r="E2" t="n">
-        <v>8961.342411543079</v>
+        <v>9065.541982725981</v>
       </c>
       <c r="F2" t="n">
-        <v>8380.467701348956</v>
+        <v>8403.58209694029</v>
       </c>
       <c r="G2" t="n">
-        <v>8380.467701348956</v>
+        <v>8403.58209694029</v>
       </c>
       <c r="H2" t="n">
-        <v>-1075.199123542488</v>
+        <v>-1063.356033394557</v>
       </c>
       <c r="I2" t="n">
-        <v>-1075.199123542488</v>
+        <v>-1063.356033394557</v>
       </c>
       <c r="J2" t="n">
-        <v>-1075.199123542488</v>
+        <v>-1063.356033394557</v>
       </c>
       <c r="K2" t="n">
-        <v>-1075.199123542488</v>
+        <v>-1063.356033394557</v>
       </c>
       <c r="L2" t="n">
-        <v>-1075.199123542488</v>
+        <v>-1063.356033394557</v>
       </c>
       <c r="M2" t="n">
-        <v>-1075.199123542488</v>
+        <v>-1063.356033394557</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -569,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>7305.268577806468</v>
+        <v>7340.226063545733</v>
       </c>
     </row>
     <row r="3">
@@ -580,37 +580,37 @@
         <v>42948</v>
       </c>
       <c r="C3" t="n">
-        <v>8398.454335062857</v>
+        <v>8419.505161306368</v>
       </c>
       <c r="D3" t="n">
-        <v>7092.001732503105</v>
+        <v>7053.452521902978</v>
       </c>
       <c r="E3" t="n">
-        <v>10344.88625290846</v>
+        <v>10540.78514000256</v>
       </c>
       <c r="F3" t="n">
-        <v>8398.454335062857</v>
+        <v>8419.505161306368</v>
       </c>
       <c r="G3" t="n">
-        <v>8398.454335062857</v>
+        <v>8419.505161306368</v>
       </c>
       <c r="H3" t="n">
-        <v>332.3383920341877</v>
+        <v>349.3169420345912</v>
       </c>
       <c r="I3" t="n">
-        <v>332.3383920341877</v>
+        <v>349.3169420345912</v>
       </c>
       <c r="J3" t="n">
-        <v>332.3383920341877</v>
+        <v>349.3169420345912</v>
       </c>
       <c r="K3" t="n">
-        <v>332.3383920341877</v>
+        <v>349.3169420345912</v>
       </c>
       <c r="L3" t="n">
-        <v>332.3383920341877</v>
+        <v>349.3169420345912</v>
       </c>
       <c r="M3" t="n">
-        <v>332.3383920341877</v>
+        <v>349.3169420345912</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>8730.792727097045</v>
+        <v>8768.822103340959</v>
       </c>
     </row>
     <row r="4">
@@ -633,37 +633,37 @@
         <v>42979</v>
       </c>
       <c r="C4" t="n">
-        <v>8416.440968776758</v>
+        <v>8435.428225672445</v>
       </c>
       <c r="D4" t="n">
-        <v>6709.664625434773</v>
+        <v>6650.719810308951</v>
       </c>
       <c r="E4" t="n">
-        <v>10013.27324961309</v>
+        <v>9943.156688416266</v>
       </c>
       <c r="F4" t="n">
-        <v>8416.440968776758</v>
+        <v>8435.428225672445</v>
       </c>
       <c r="G4" t="n">
-        <v>8416.440968776758</v>
+        <v>8435.428225672445</v>
       </c>
       <c r="H4" t="n">
-        <v>-144.2079385732957</v>
+        <v>-122.529452019186</v>
       </c>
       <c r="I4" t="n">
-        <v>-144.2079385732957</v>
+        <v>-122.529452019186</v>
       </c>
       <c r="J4" t="n">
-        <v>-144.2079385732957</v>
+        <v>-122.529452019186</v>
       </c>
       <c r="K4" t="n">
-        <v>-144.2079385732957</v>
+        <v>-122.529452019186</v>
       </c>
       <c r="L4" t="n">
-        <v>-144.2079385732957</v>
+        <v>-122.529452019186</v>
       </c>
       <c r="M4" t="n">
-        <v>-144.2079385732957</v>
+        <v>-122.529452019186</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>8272.233030203462</v>
+        <v>8312.89877365326</v>
       </c>
     </row>
     <row r="5">
@@ -686,37 +686,37 @@
         <v>43009</v>
       </c>
       <c r="C5" t="n">
-        <v>8433.847388213906</v>
+        <v>8450.837642231898</v>
       </c>
       <c r="D5" t="n">
-        <v>6930.461434496022</v>
+        <v>6906.693196743017</v>
       </c>
       <c r="E5" t="n">
-        <v>10346.91416033531</v>
+        <v>10288.19517844923</v>
       </c>
       <c r="F5" t="n">
-        <v>8433.847388213906</v>
+        <v>8450.837642231898</v>
       </c>
       <c r="G5" t="n">
-        <v>8433.847388213906</v>
+        <v>8450.837642231898</v>
       </c>
       <c r="H5" t="n">
-        <v>174.3907712380275</v>
+        <v>200.9347608548213</v>
       </c>
       <c r="I5" t="n">
-        <v>174.3907712380275</v>
+        <v>200.9347608548213</v>
       </c>
       <c r="J5" t="n">
-        <v>174.3907712380275</v>
+        <v>200.9347608548213</v>
       </c>
       <c r="K5" t="n">
-        <v>174.3907712380275</v>
+        <v>200.9347608548213</v>
       </c>
       <c r="L5" t="n">
-        <v>174.3907712380275</v>
+        <v>200.9347608548213</v>
       </c>
       <c r="M5" t="n">
-        <v>174.3907712380275</v>
+        <v>200.9347608548213</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>8608.238159451934</v>
+        <v>8651.772403086719</v>
       </c>
     </row>
     <row r="6">
@@ -739,37 +739,37 @@
         <v>43040</v>
       </c>
       <c r="C6" t="n">
-        <v>8451.834021632296</v>
+        <v>8466.760706009998</v>
       </c>
       <c r="D6" t="n">
-        <v>7022.801995968233</v>
+        <v>6942.555247379009</v>
       </c>
       <c r="E6" t="n">
-        <v>10394.3563429941</v>
+        <v>10293.43717941237</v>
       </c>
       <c r="F6" t="n">
-        <v>8451.834021632296</v>
+        <v>8466.760706009998</v>
       </c>
       <c r="G6" t="n">
-        <v>8451.834021632296</v>
+        <v>8466.760706009998</v>
       </c>
       <c r="H6" t="n">
-        <v>159.044366067102</v>
+        <v>189.9042730494706</v>
       </c>
       <c r="I6" t="n">
-        <v>159.044366067102</v>
+        <v>189.9042730494706</v>
       </c>
       <c r="J6" t="n">
-        <v>159.044366067102</v>
+        <v>189.9042730494706</v>
       </c>
       <c r="K6" t="n">
-        <v>159.044366067102</v>
+        <v>189.9042730494706</v>
       </c>
       <c r="L6" t="n">
-        <v>159.044366067102</v>
+        <v>189.9042730494706</v>
       </c>
       <c r="M6" t="n">
-        <v>159.044366067102</v>
+        <v>189.9042730494706</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>8610.878387699398</v>
+        <v>8656.664979059469</v>
       </c>
     </row>
     <row r="7">
@@ -792,37 +792,37 @@
         <v>43070</v>
       </c>
       <c r="C7" t="n">
-        <v>8469.240440796346</v>
+        <v>8482.170122033191</v>
       </c>
       <c r="D7" t="n">
-        <v>6636.400507544993</v>
+        <v>6521.617506972238</v>
       </c>
       <c r="E7" t="n">
-        <v>9936.106321381274</v>
+        <v>10077.50208211433</v>
       </c>
       <c r="F7" t="n">
-        <v>8469.240440796346</v>
+        <v>8482.170122033191</v>
       </c>
       <c r="G7" t="n">
-        <v>8469.240440796346</v>
+        <v>8482.170122033191</v>
       </c>
       <c r="H7" t="n">
-        <v>-191.3050966732604</v>
+        <v>-157.6256354283836</v>
       </c>
       <c r="I7" t="n">
-        <v>-191.3050966732604</v>
+        <v>-157.6256354283836</v>
       </c>
       <c r="J7" t="n">
-        <v>-191.3050966732604</v>
+        <v>-157.6256354283836</v>
       </c>
       <c r="K7" t="n">
-        <v>-191.3050966732604</v>
+        <v>-157.6256354283836</v>
       </c>
       <c r="L7" t="n">
-        <v>-191.3050966732604</v>
+        <v>-157.6256354283836</v>
       </c>
       <c r="M7" t="n">
-        <v>-191.3050966732604</v>
+        <v>-157.6256354283836</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>8277.935344123085</v>
+        <v>8324.544486604807</v>
       </c>
     </row>
     <row r="8">
@@ -845,37 +845,37 @@
         <v>43101</v>
       </c>
       <c r="C8" t="n">
-        <v>8487.22707393253</v>
+        <v>8498.093185257154</v>
       </c>
       <c r="D8" t="n">
-        <v>6853.914356875</v>
+        <v>6762.599032699703</v>
       </c>
       <c r="E8" t="n">
-        <v>10133.66599373847</v>
+        <v>10281.33955444554</v>
       </c>
       <c r="F8" t="n">
-        <v>8487.22707393253</v>
+        <v>8498.093185257154</v>
       </c>
       <c r="G8" t="n">
-        <v>8487.22707393253</v>
+        <v>8498.093185257154</v>
       </c>
       <c r="H8" t="n">
-        <v>5.671953108697941</v>
+        <v>40.36384770649003</v>
       </c>
       <c r="I8" t="n">
-        <v>5.671953108697941</v>
+        <v>40.36384770649003</v>
       </c>
       <c r="J8" t="n">
-        <v>5.671953108697941</v>
+        <v>40.36384770649003</v>
       </c>
       <c r="K8" t="n">
-        <v>5.671953108697941</v>
+        <v>40.36384770649003</v>
       </c>
       <c r="L8" t="n">
-        <v>5.671953108697941</v>
+        <v>40.36384770649003</v>
       </c>
       <c r="M8" t="n">
-        <v>5.671953108697941</v>
+        <v>40.36384770649003</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>8492.899027041229</v>
+        <v>8538.457032963644</v>
       </c>
     </row>
     <row r="9">
@@ -898,37 +898,37 @@
         <v>43132</v>
       </c>
       <c r="C9" t="n">
-        <v>8505.213706832204</v>
+        <v>8514.016248173048</v>
       </c>
       <c r="D9" t="n">
-        <v>5701.326365368675</v>
+        <v>5761.215127362068</v>
       </c>
       <c r="E9" t="n">
-        <v>9047.572358125399</v>
+        <v>9161.459193255974</v>
       </c>
       <c r="F9" t="n">
-        <v>8505.213706832204</v>
+        <v>8514.016248173048</v>
       </c>
       <c r="G9" t="n">
-        <v>8505.213706832204</v>
+        <v>8514.016248173048</v>
       </c>
       <c r="H9" t="n">
-        <v>-1160.514105207696</v>
+        <v>-1126.808121848538</v>
       </c>
       <c r="I9" t="n">
-        <v>-1160.514105207696</v>
+        <v>-1126.808121848538</v>
       </c>
       <c r="J9" t="n">
-        <v>-1160.514105207696</v>
+        <v>-1126.808121848538</v>
       </c>
       <c r="K9" t="n">
-        <v>-1160.514105207696</v>
+        <v>-1126.808121848538</v>
       </c>
       <c r="L9" t="n">
-        <v>-1160.514105207696</v>
+        <v>-1126.808121848538</v>
       </c>
       <c r="M9" t="n">
-        <v>-1160.514105207696</v>
+        <v>-1126.808121848538</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>7344.699601624508</v>
+        <v>7387.208126324509</v>
       </c>
     </row>
     <row r="10">
@@ -951,37 +951,37 @@
         <v>43160</v>
       </c>
       <c r="C10" t="n">
-        <v>8521.459697693437</v>
+        <v>8528.398369516435</v>
       </c>
       <c r="D10" t="n">
-        <v>6895.680891053476</v>
+        <v>7008.387488821365</v>
       </c>
       <c r="E10" t="n">
-        <v>10335.06995669558</v>
+        <v>10458.33643572958</v>
       </c>
       <c r="F10" t="n">
-        <v>8521.459697693437</v>
+        <v>8528.398369516435</v>
       </c>
       <c r="G10" t="n">
-        <v>8521.459697693437</v>
+        <v>8528.398369516435</v>
       </c>
       <c r="H10" t="n">
-        <v>164.8648748404917</v>
+        <v>203.3481158734616</v>
       </c>
       <c r="I10" t="n">
-        <v>164.8648748404917</v>
+        <v>203.3481158734616</v>
       </c>
       <c r="J10" t="n">
-        <v>164.8648748404917</v>
+        <v>203.3481158734616</v>
       </c>
       <c r="K10" t="n">
-        <v>164.8648748404917</v>
+        <v>203.3481158734616</v>
       </c>
       <c r="L10" t="n">
-        <v>164.8648748404917</v>
+        <v>203.3481158734616</v>
       </c>
       <c r="M10" t="n">
-        <v>164.8648748404917</v>
+        <v>203.3481158734616</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>8686.324572533929</v>
+        <v>8731.746485389896</v>
       </c>
     </row>
     <row r="11">
@@ -1004,37 +1004,37 @@
         <v>43191</v>
       </c>
       <c r="C11" t="n">
-        <v>8539.44633043266</v>
+        <v>8544.32143207851</v>
       </c>
       <c r="D11" t="n">
-        <v>6891.798760935142</v>
+        <v>6836.340589202088</v>
       </c>
       <c r="E11" t="n">
-        <v>10224.22988079422</v>
+        <v>10255.66512778376</v>
       </c>
       <c r="F11" t="n">
-        <v>8539.44633043266</v>
+        <v>8544.32143207851</v>
       </c>
       <c r="G11" t="n">
-        <v>8539.44633043266</v>
+        <v>8544.32143207851</v>
       </c>
       <c r="H11" t="n">
-        <v>45.43733714082085</v>
+        <v>88.62589406599072</v>
       </c>
       <c r="I11" t="n">
-        <v>45.43733714082085</v>
+        <v>88.62589406599072</v>
       </c>
       <c r="J11" t="n">
-        <v>45.43733714082085</v>
+        <v>88.62589406599072</v>
       </c>
       <c r="K11" t="n">
-        <v>45.43733714082085</v>
+        <v>88.62589406599072</v>
       </c>
       <c r="L11" t="n">
-        <v>45.43733714082085</v>
+        <v>88.62589406599072</v>
       </c>
       <c r="M11" t="n">
-        <v>45.43733714082085</v>
+        <v>88.62589406599072</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>8584.88366757348</v>
+        <v>8632.9473261445</v>
       </c>
     </row>
     <row r="12">
@@ -1057,37 +1057,37 @@
         <v>43221</v>
       </c>
       <c r="C12" t="n">
-        <v>8556.852749123886</v>
+        <v>8559.730847049515</v>
       </c>
       <c r="D12" t="n">
-        <v>6809.146459281262</v>
+        <v>6871.602351929349</v>
       </c>
       <c r="E12" t="n">
-        <v>10131.63444722405</v>
+        <v>10234.99439387988</v>
       </c>
       <c r="F12" t="n">
-        <v>8556.852749123886</v>
+        <v>8559.730847049515</v>
       </c>
       <c r="G12" t="n">
-        <v>8556.852749123886</v>
+        <v>8559.730847049515</v>
       </c>
       <c r="H12" t="n">
-        <v>-39.9977880647721</v>
+        <v>7.291967542156452</v>
       </c>
       <c r="I12" t="n">
-        <v>-39.9977880647721</v>
+        <v>7.291967542156452</v>
       </c>
       <c r="J12" t="n">
-        <v>-39.9977880647721</v>
+        <v>7.291967542156452</v>
       </c>
       <c r="K12" t="n">
-        <v>-39.9977880647721</v>
+        <v>7.291967542156452</v>
       </c>
       <c r="L12" t="n">
-        <v>-39.9977880647721</v>
+        <v>7.291967542156452</v>
       </c>
       <c r="M12" t="n">
-        <v>-39.9977880647721</v>
+        <v>7.291967542156452</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>8516.854961059113</v>
+        <v>8567.022814591672</v>
       </c>
     </row>
     <row r="13">
@@ -1110,37 +1110,37 @@
         <v>43252</v>
       </c>
       <c r="C13" t="n">
-        <v>8574.839381771486</v>
+        <v>8575.65390918622</v>
       </c>
       <c r="D13" t="n">
-        <v>7289.356835374148</v>
+        <v>7108.148690443991</v>
       </c>
       <c r="E13" t="n">
-        <v>10624.16727680094</v>
+        <v>10394.53168423902</v>
       </c>
       <c r="F13" t="n">
-        <v>8574.839381771486</v>
+        <v>8575.65390918622</v>
       </c>
       <c r="G13" t="n">
-        <v>8574.839381771486</v>
+        <v>8575.65390918622</v>
       </c>
       <c r="H13" t="n">
-        <v>396.7017060081192</v>
+        <v>164.6076863571603</v>
       </c>
       <c r="I13" t="n">
-        <v>396.7017060081192</v>
+        <v>164.6076863571603</v>
       </c>
       <c r="J13" t="n">
-        <v>396.7017060081192</v>
+        <v>164.6076863571603</v>
       </c>
       <c r="K13" t="n">
-        <v>396.7017060081192</v>
+        <v>164.6076863571603</v>
       </c>
       <c r="L13" t="n">
-        <v>396.7017060081192</v>
+        <v>164.6076863571603</v>
       </c>
       <c r="M13" t="n">
-        <v>396.7017060081192</v>
+        <v>164.6076863571603</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>8971.541087779606</v>
+        <v>8740.261595543379</v>
       </c>
     </row>
     <row r="14">
@@ -1163,37 +1163,37 @@
         <v>43282</v>
       </c>
       <c r="C14" t="n">
-        <v>8592.218769124533</v>
+        <v>8591.063323809754</v>
       </c>
       <c r="D14" t="n">
-        <v>6296.332347628156</v>
+        <v>6165.585532227279</v>
       </c>
       <c r="E14" t="n">
-        <v>9443.852528137902</v>
+        <v>9612.437226877317</v>
       </c>
       <c r="F14" t="n">
-        <v>8592.218769124533</v>
+        <v>8591.063323809754</v>
       </c>
       <c r="G14" t="n">
-        <v>8592.218769124533</v>
+        <v>8591.063323809754</v>
       </c>
       <c r="H14" t="n">
-        <v>-684.2684379813913</v>
+        <v>-649.7124124659911</v>
       </c>
       <c r="I14" t="n">
-        <v>-684.2684379813913</v>
+        <v>-649.7124124659911</v>
       </c>
       <c r="J14" t="n">
-        <v>-684.2684379813913</v>
+        <v>-649.7124124659911</v>
       </c>
       <c r="K14" t="n">
-        <v>-684.2684379813913</v>
+        <v>-649.7124124659911</v>
       </c>
       <c r="L14" t="n">
-        <v>-684.2684379813913</v>
+        <v>-649.7124124659911</v>
       </c>
       <c r="M14" t="n">
-        <v>-684.2684379813913</v>
+        <v>-649.7124124659911</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>7907.950331143142</v>
+        <v>7941.350911343763</v>
       </c>
     </row>
     <row r="15">
@@ -1216,37 +1216,37 @@
         <v>43313</v>
       </c>
       <c r="C15" t="n">
-        <v>8610.177469389349</v>
+        <v>8606.986385587406</v>
       </c>
       <c r="D15" t="n">
-        <v>7194.394503865273</v>
+        <v>7200.428097496596</v>
       </c>
       <c r="E15" t="n">
-        <v>10482.00672786738</v>
+        <v>10470.9234245904</v>
       </c>
       <c r="F15" t="n">
-        <v>8610.177469389349</v>
+        <v>8606.986385587406</v>
       </c>
       <c r="G15" t="n">
-        <v>8610.177469389349</v>
+        <v>8606.986385587406</v>
       </c>
       <c r="H15" t="n">
-        <v>260.0088849459685</v>
+        <v>292.4364436705218</v>
       </c>
       <c r="I15" t="n">
-        <v>260.0088849459685</v>
+        <v>292.4364436705218</v>
       </c>
       <c r="J15" t="n">
-        <v>260.0088849459685</v>
+        <v>292.4364436705218</v>
       </c>
       <c r="K15" t="n">
-        <v>260.0088849459685</v>
+        <v>292.4364436705218</v>
       </c>
       <c r="L15" t="n">
-        <v>260.0088849459685</v>
+        <v>292.4364436705218</v>
       </c>
       <c r="M15" t="n">
-        <v>260.0088849459685</v>
+        <v>292.4364436705218</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>8870.186354335317</v>
+        <v>8899.422829257928</v>
       </c>
     </row>
     <row r="16">
@@ -1269,37 +1269,37 @@
         <v>43344</v>
       </c>
       <c r="C16" t="n">
-        <v>8628.110674377756</v>
+        <v>8622.904913892451</v>
       </c>
       <c r="D16" t="n">
-        <v>6584.478198730128</v>
+        <v>6577.568540445249</v>
       </c>
       <c r="E16" t="n">
-        <v>9938.623887373857</v>
+        <v>9951.991353047095</v>
       </c>
       <c r="F16" t="n">
-        <v>8628.110674377756</v>
+        <v>8622.904913892451</v>
       </c>
       <c r="G16" t="n">
-        <v>8628.110674377756</v>
+        <v>8622.904913892451</v>
       </c>
       <c r="H16" t="n">
-        <v>-434.4194341044479</v>
+        <v>-404.187762186936</v>
       </c>
       <c r="I16" t="n">
-        <v>-434.4194341044479</v>
+        <v>-404.187762186936</v>
       </c>
       <c r="J16" t="n">
-        <v>-434.4194341044479</v>
+        <v>-404.187762186936</v>
       </c>
       <c r="K16" t="n">
-        <v>-434.4194341044479</v>
+        <v>-404.187762186936</v>
       </c>
       <c r="L16" t="n">
-        <v>-434.4194341044479</v>
+        <v>-404.187762186936</v>
       </c>
       <c r="M16" t="n">
-        <v>-434.4194341044479</v>
+        <v>-404.187762186936</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>8193.691240273309</v>
+        <v>8218.717151705516</v>
       </c>
     </row>
     <row r="17">
@@ -1322,37 +1322,37 @@
         <v>43374</v>
       </c>
       <c r="C17" t="n">
-        <v>8645.465388882667</v>
+        <v>8638.309941284429</v>
       </c>
       <c r="D17" t="n">
-        <v>7288.085375533955</v>
+        <v>7300.859292774622</v>
       </c>
       <c r="E17" t="n">
-        <v>10727.22046147463</v>
+        <v>10589.95630242057</v>
       </c>
       <c r="F17" t="n">
-        <v>8645.465388882667</v>
+        <v>8638.309941284429</v>
       </c>
       <c r="G17" t="n">
-        <v>8645.465388882667</v>
+        <v>8638.309941284429</v>
       </c>
       <c r="H17" t="n">
-        <v>294.1988478652047</v>
+        <v>321.7183033508962</v>
       </c>
       <c r="I17" t="n">
-        <v>294.1988478652047</v>
+        <v>321.7183033508962</v>
       </c>
       <c r="J17" t="n">
-        <v>294.1988478652047</v>
+        <v>321.7183033508962</v>
       </c>
       <c r="K17" t="n">
-        <v>294.1988478652047</v>
+        <v>321.7183033508962</v>
       </c>
       <c r="L17" t="n">
-        <v>294.1988478652047</v>
+        <v>321.7183033508962</v>
       </c>
       <c r="M17" t="n">
-        <v>294.1988478652047</v>
+        <v>321.7183033508962</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>8939.664236747871</v>
+        <v>8960.028244635325</v>
       </c>
     </row>
     <row r="18">
@@ -1375,37 +1375,37 @@
         <v>43405</v>
       </c>
       <c r="C18" t="n">
-        <v>8663.365761857865</v>
+        <v>8654.225569846218</v>
       </c>
       <c r="D18" t="n">
-        <v>7057.084621710676</v>
+        <v>7158.808931241697</v>
       </c>
       <c r="E18" t="n">
-        <v>10649.37558058344</v>
+        <v>10583.34259375959</v>
       </c>
       <c r="F18" t="n">
-        <v>8663.365761857865</v>
+        <v>8654.225569846218</v>
       </c>
       <c r="G18" t="n">
-        <v>8663.365761857865</v>
+        <v>8654.225569846218</v>
       </c>
       <c r="H18" t="n">
-        <v>186.3381742378006</v>
+        <v>211.7379721642446</v>
       </c>
       <c r="I18" t="n">
-        <v>186.3381742378006</v>
+        <v>211.7379721642446</v>
       </c>
       <c r="J18" t="n">
-        <v>186.3381742378006</v>
+        <v>211.7379721642446</v>
       </c>
       <c r="K18" t="n">
-        <v>186.3381742378006</v>
+        <v>211.7379721642446</v>
       </c>
       <c r="L18" t="n">
-        <v>186.3381742378006</v>
+        <v>211.7379721642446</v>
       </c>
       <c r="M18" t="n">
-        <v>186.3381742378006</v>
+        <v>211.7379721642446</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>8849.703936095666</v>
+        <v>8865.963542010462</v>
       </c>
     </row>
     <row r="19">
@@ -1428,37 +1428,37 @@
         <v>43435</v>
       </c>
       <c r="C19" t="n">
-        <v>8680.688703446769</v>
+        <v>8669.627791035045</v>
       </c>
       <c r="D19" t="n">
-        <v>6560.994355466431</v>
+        <v>6343.80428270166</v>
       </c>
       <c r="E19" t="n">
-        <v>9889.978321976016</v>
+        <v>9993.604806697418</v>
       </c>
       <c r="F19" t="n">
-        <v>8680.688703446769</v>
+        <v>8669.627791035045</v>
       </c>
       <c r="G19" t="n">
-        <v>8680.688703446769</v>
+        <v>8669.627791035045</v>
       </c>
       <c r="H19" t="n">
-        <v>-499.6506537691599</v>
+        <v>-474.4226150869165</v>
       </c>
       <c r="I19" t="n">
-        <v>-499.6506537691599</v>
+        <v>-474.4226150869165</v>
       </c>
       <c r="J19" t="n">
-        <v>-499.6506537691599</v>
+        <v>-474.4226150869165</v>
       </c>
       <c r="K19" t="n">
-        <v>-499.6506537691599</v>
+        <v>-474.4226150869165</v>
       </c>
       <c r="L19" t="n">
-        <v>-499.6506537691599</v>
+        <v>-474.4226150869165</v>
       </c>
       <c r="M19" t="n">
-        <v>-499.6506537691599</v>
+        <v>-474.4226150869165</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>8181.038049677609</v>
+        <v>8195.205175948129</v>
       </c>
     </row>
     <row r="20">
@@ -1481,37 +1481,37 @@
         <v>43466</v>
       </c>
       <c r="C20" t="n">
-        <v>8698.49418481047</v>
+        <v>8685.518773412012</v>
       </c>
       <c r="D20" t="n">
-        <v>7357.39728165954</v>
+        <v>7347.154266473058</v>
       </c>
       <c r="E20" t="n">
-        <v>10771.30247287583</v>
+        <v>10806.15698493022</v>
       </c>
       <c r="F20" t="n">
-        <v>8698.49418481047</v>
+        <v>8685.518773412012</v>
       </c>
       <c r="G20" t="n">
-        <v>8698.49418481047</v>
+        <v>8685.518773412012</v>
       </c>
       <c r="H20" t="n">
-        <v>360.2103504816826</v>
+        <v>388.0454453427171</v>
       </c>
       <c r="I20" t="n">
-        <v>360.2103504816826</v>
+        <v>388.0454453427171</v>
       </c>
       <c r="J20" t="n">
-        <v>360.2103504816826</v>
+        <v>388.0454453427171</v>
       </c>
       <c r="K20" t="n">
-        <v>360.2103504816826</v>
+        <v>388.0454453427171</v>
       </c>
       <c r="L20" t="n">
-        <v>360.2103504816826</v>
+        <v>388.0454453427171</v>
       </c>
       <c r="M20" t="n">
-        <v>360.2103504816826</v>
+        <v>388.0454453427171</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9058.704535292152</v>
+        <v>9073.564218754729</v>
       </c>
     </row>
     <row r="21">
@@ -1534,37 +1534,37 @@
         <v>43497</v>
       </c>
       <c r="C21" t="n">
-        <v>8716.140675782235</v>
+        <v>8701.409755788978</v>
       </c>
       <c r="D21" t="n">
-        <v>6017.52915518359</v>
+        <v>6111.849100097315</v>
       </c>
       <c r="E21" t="n">
-        <v>9406.929435382113</v>
+        <v>9388.199758012333</v>
       </c>
       <c r="F21" t="n">
-        <v>8716.140675782235</v>
+        <v>8701.409755788978</v>
       </c>
       <c r="G21" t="n">
-        <v>8716.140675782235</v>
+        <v>8701.409755788978</v>
       </c>
       <c r="H21" t="n">
-        <v>-972.8707923343954</v>
+        <v>-939.455314077623</v>
       </c>
       <c r="I21" t="n">
-        <v>-972.8707923343954</v>
+        <v>-939.455314077623</v>
       </c>
       <c r="J21" t="n">
-        <v>-972.8707923343954</v>
+        <v>-939.455314077623</v>
       </c>
       <c r="K21" t="n">
-        <v>-972.8707923343954</v>
+        <v>-939.455314077623</v>
       </c>
       <c r="L21" t="n">
-        <v>-972.8707923343954</v>
+        <v>-939.455314077623</v>
       </c>
       <c r="M21" t="n">
-        <v>-972.8707923343954</v>
+        <v>-939.455314077623</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>7743.26988344784</v>
+        <v>7761.954441711355</v>
       </c>
     </row>
     <row r="22">
@@ -1587,37 +1587,37 @@
         <v>43525</v>
       </c>
       <c r="C22" t="n">
-        <v>8732.079441821246</v>
+        <v>8715.733523440331</v>
       </c>
       <c r="D22" t="n">
-        <v>6889.868442001784</v>
+        <v>7064.737403820061</v>
       </c>
       <c r="E22" t="n">
-        <v>10446.87912960938</v>
+        <v>10409.12518755133</v>
       </c>
       <c r="F22" t="n">
-        <v>8732.079441821246</v>
+        <v>8715.733523440331</v>
       </c>
       <c r="G22" t="n">
-        <v>8732.079441821246</v>
+        <v>8715.733523440331</v>
       </c>
       <c r="H22" t="n">
-        <v>-5.040127171969237</v>
+        <v>41.58089525776747</v>
       </c>
       <c r="I22" t="n">
-        <v>-5.040127171969237</v>
+        <v>41.58089525776747</v>
       </c>
       <c r="J22" t="n">
-        <v>-5.040127171969237</v>
+        <v>41.58089525776747</v>
       </c>
       <c r="K22" t="n">
-        <v>-5.040127171969237</v>
+        <v>41.58089525776747</v>
       </c>
       <c r="L22" t="n">
-        <v>-5.040127171969237</v>
+        <v>41.58089525776747</v>
       </c>
       <c r="M22" t="n">
-        <v>-5.040127171969237</v>
+        <v>41.58089525776747</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>8727.039314649277</v>
+        <v>8757.314418698099</v>
       </c>
     </row>
     <row r="23">
@@ -1640,37 +1640,37 @@
         <v>43556</v>
       </c>
       <c r="C23" t="n">
-        <v>8749.633341121411</v>
+        <v>8731.591980482899</v>
       </c>
       <c r="D23" t="n">
-        <v>6884.157609498862</v>
+        <v>6868.406122444569</v>
       </c>
       <c r="E23" t="n">
-        <v>10186.86954970762</v>
+        <v>10187.28430561603</v>
       </c>
       <c r="F23" t="n">
-        <v>8749.633341121411</v>
+        <v>8731.591980482899</v>
       </c>
       <c r="G23" t="n">
-        <v>8749.633341121411</v>
+        <v>8731.591980482899</v>
       </c>
       <c r="H23" t="n">
-        <v>-248.6122514230706</v>
+        <v>-190.5996772264958</v>
       </c>
       <c r="I23" t="n">
-        <v>-248.6122514230706</v>
+        <v>-190.5996772264958</v>
       </c>
       <c r="J23" t="n">
-        <v>-248.6122514230706</v>
+        <v>-190.5996772264958</v>
       </c>
       <c r="K23" t="n">
-        <v>-248.6122514230706</v>
+        <v>-190.5996772264958</v>
       </c>
       <c r="L23" t="n">
-        <v>-248.6122514230706</v>
+        <v>-190.5996772264958</v>
       </c>
       <c r="M23" t="n">
-        <v>-248.6122514230706</v>
+        <v>-190.5996772264958</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>8501.021089698341</v>
+        <v>8540.992303256404</v>
       </c>
     </row>
     <row r="24">
@@ -1693,37 +1693,37 @@
         <v>43586</v>
       </c>
       <c r="C24" t="n">
-        <v>8766.620985605437</v>
+        <v>8746.894171167845</v>
       </c>
       <c r="D24" t="n">
-        <v>7130.703047071646</v>
+        <v>7228.478202780977</v>
       </c>
       <c r="E24" t="n">
-        <v>10548.68599295777</v>
+        <v>10596.80420915792</v>
       </c>
       <c r="F24" t="n">
-        <v>8766.620985605437</v>
+        <v>8746.894171167845</v>
       </c>
       <c r="G24" t="n">
-        <v>8766.620985605437</v>
+        <v>8746.894171167845</v>
       </c>
       <c r="H24" t="n">
-        <v>79.9793543369739</v>
+        <v>145.7555068258925</v>
       </c>
       <c r="I24" t="n">
-        <v>79.9793543369739</v>
+        <v>145.7555068258925</v>
       </c>
       <c r="J24" t="n">
-        <v>79.9793543369739</v>
+        <v>145.7555068258925</v>
       </c>
       <c r="K24" t="n">
-        <v>79.9793543369739</v>
+        <v>145.7555068258925</v>
       </c>
       <c r="L24" t="n">
-        <v>79.9793543369739</v>
+        <v>145.7555068258925</v>
       </c>
       <c r="M24" t="n">
-        <v>79.9793543369739</v>
+        <v>145.7555068258925</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -1735,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>8846.600339942412</v>
+        <v>8892.649677993737</v>
       </c>
     </row>
     <row r="25">
@@ -1746,37 +1746,37 @@
         <v>43617</v>
       </c>
       <c r="C25" t="n">
-        <v>8784.082376479102</v>
+        <v>8762.706434875625</v>
       </c>
       <c r="D25" t="n">
-        <v>7432.339165812587</v>
+        <v>6918.683833860614</v>
       </c>
       <c r="E25" t="n">
-        <v>10821.63684502613</v>
+        <v>10398.48993262707</v>
       </c>
       <c r="F25" t="n">
-        <v>8784.082376479102</v>
+        <v>8762.706434875625</v>
       </c>
       <c r="G25" t="n">
-        <v>8784.082376479102</v>
+        <v>8762.706434875625</v>
       </c>
       <c r="H25" t="n">
-        <v>349.9908713797958</v>
+        <v>47.44270249632554</v>
       </c>
       <c r="I25" t="n">
-        <v>349.9908713797958</v>
+        <v>47.44270249632554</v>
       </c>
       <c r="J25" t="n">
-        <v>349.9908713797958</v>
+        <v>47.44270249632554</v>
       </c>
       <c r="K25" t="n">
-        <v>349.9908713797958</v>
+        <v>47.44270249632554</v>
       </c>
       <c r="L25" t="n">
-        <v>349.9908713797958</v>
+        <v>47.44270249632554</v>
       </c>
       <c r="M25" t="n">
-        <v>349.9908713797958</v>
+        <v>47.44270249632554</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>9134.073247858898</v>
+        <v>8810.149137371951</v>
       </c>
     </row>
     <row r="26">
@@ -1799,37 +1799,37 @@
         <v>43647</v>
       </c>
       <c r="C26" t="n">
-        <v>8800.980496679424</v>
+        <v>8777.981829695718</v>
       </c>
       <c r="D26" t="n">
-        <v>6836.853700286879</v>
+        <v>6704.692381627778</v>
       </c>
       <c r="E26" t="n">
-        <v>10095.78185959309</v>
+        <v>10219.86514857534</v>
       </c>
       <c r="F26" t="n">
-        <v>8800.980496679424</v>
+        <v>8777.981829695718</v>
       </c>
       <c r="G26" t="n">
-        <v>8800.980496679424</v>
+        <v>8777.981829695718</v>
       </c>
       <c r="H26" t="n">
-        <v>-295.1782441672411</v>
+        <v>-236.7852059259613</v>
       </c>
       <c r="I26" t="n">
-        <v>-295.1782441672411</v>
+        <v>-236.7852059259613</v>
       </c>
       <c r="J26" t="n">
-        <v>-295.1782441672411</v>
+        <v>-236.7852059259613</v>
       </c>
       <c r="K26" t="n">
-        <v>-295.1782441672411</v>
+        <v>-236.7852059259613</v>
       </c>
       <c r="L26" t="n">
-        <v>-295.1782441672411</v>
+        <v>-236.7852059259613</v>
       </c>
       <c r="M26" t="n">
-        <v>-295.1782441672411</v>
+        <v>-236.7852059259613</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>8505.802252512183</v>
+        <v>8541.196623769756</v>
       </c>
     </row>
     <row r="27">
@@ -1852,37 +1852,37 @@
         <v>43678</v>
       </c>
       <c r="C27" t="n">
-        <v>8818.308867597698</v>
+        <v>8793.673152419995</v>
       </c>
       <c r="D27" t="n">
-        <v>7314.056891185814</v>
+        <v>7139.163632368414</v>
       </c>
       <c r="E27" t="n">
-        <v>10805.42675656504</v>
+        <v>10736.81604488006</v>
       </c>
       <c r="F27" t="n">
-        <v>8818.308867597698</v>
+        <v>8793.673152419995</v>
       </c>
       <c r="G27" t="n">
-        <v>8818.308867597698</v>
+        <v>8793.673152419995</v>
       </c>
       <c r="H27" t="n">
-        <v>177.8432388563267</v>
+        <v>225.8319088529878</v>
       </c>
       <c r="I27" t="n">
-        <v>177.8432388563267</v>
+        <v>225.8319088529878</v>
       </c>
       <c r="J27" t="n">
-        <v>177.8432388563267</v>
+        <v>225.8319088529878</v>
       </c>
       <c r="K27" t="n">
-        <v>177.8432388563267</v>
+        <v>225.8319088529878</v>
       </c>
       <c r="L27" t="n">
-        <v>177.8432388563267</v>
+        <v>225.8319088529878</v>
       </c>
       <c r="M27" t="n">
-        <v>177.8432388563267</v>
+        <v>225.8319088529878</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>8996.152106454025</v>
+        <v>9019.505061272983</v>
       </c>
     </row>
     <row r="28">
@@ -1905,37 +1905,37 @@
         <v>43709</v>
       </c>
       <c r="C28" t="n">
-        <v>8835.637238515974</v>
+        <v>8809.36447514427</v>
       </c>
       <c r="D28" t="n">
-        <v>6355.793193677971</v>
+        <v>6455.93955743631</v>
       </c>
       <c r="E28" t="n">
-        <v>9771.299142203239</v>
+        <v>9878.319903972191</v>
       </c>
       <c r="F28" t="n">
-        <v>8835.637238515974</v>
+        <v>8809.36447514427</v>
       </c>
       <c r="G28" t="n">
-        <v>8835.637238515974</v>
+        <v>8809.36447514427</v>
       </c>
       <c r="H28" t="n">
-        <v>-724.290173627847</v>
+        <v>-685.7431439468323</v>
       </c>
       <c r="I28" t="n">
-        <v>-724.290173627847</v>
+        <v>-685.7431439468323</v>
       </c>
       <c r="J28" t="n">
-        <v>-724.290173627847</v>
+        <v>-685.7431439468323</v>
       </c>
       <c r="K28" t="n">
-        <v>-724.290173627847</v>
+        <v>-685.7431439468323</v>
       </c>
       <c r="L28" t="n">
-        <v>-724.290173627847</v>
+        <v>-685.7431439468323</v>
       </c>
       <c r="M28" t="n">
-        <v>-724.290173627847</v>
+        <v>-685.7431439468323</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>8111.347064888127</v>
+        <v>8123.621331197437</v>
       </c>
     </row>
     <row r="29">
@@ -1958,37 +1958,37 @@
         <v>43739</v>
       </c>
       <c r="C29" t="n">
-        <v>8852.386622186305</v>
+        <v>8824.472976582889</v>
       </c>
       <c r="D29" t="n">
-        <v>7561.8629949411</v>
+        <v>7673.60908843919</v>
       </c>
       <c r="E29" t="n">
-        <v>10964.10594322081</v>
+        <v>11148.10346214793</v>
       </c>
       <c r="F29" t="n">
-        <v>8852.386622186305</v>
+        <v>8824.472976582889</v>
       </c>
       <c r="G29" t="n">
-        <v>8852.386622186305</v>
+        <v>8824.472976582889</v>
       </c>
       <c r="H29" t="n">
-        <v>417.1603377093914</v>
+        <v>445.2940073899552</v>
       </c>
       <c r="I29" t="n">
-        <v>417.1603377093914</v>
+        <v>445.2940073899552</v>
       </c>
       <c r="J29" t="n">
-        <v>417.1603377093914</v>
+        <v>445.2940073899552</v>
       </c>
       <c r="K29" t="n">
-        <v>417.1603377093914</v>
+        <v>445.2940073899552</v>
       </c>
       <c r="L29" t="n">
-        <v>417.1603377093914</v>
+        <v>445.2940073899552</v>
       </c>
       <c r="M29" t="n">
-        <v>417.1603377093914</v>
+        <v>445.2940073899552</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9269.546959895695</v>
+        <v>9269.766983972844</v>
       </c>
     </row>
     <row r="30">
@@ -2011,37 +2011,37 @@
         <v>43770</v>
       </c>
       <c r="C30" t="n">
-        <v>8869.694318645645</v>
+        <v>8840.08509473613</v>
       </c>
       <c r="D30" t="n">
-        <v>7401.713568311327</v>
+        <v>7351.984594280045</v>
       </c>
       <c r="E30" t="n">
-        <v>10967.58655511332</v>
+        <v>10795.49621625823</v>
       </c>
       <c r="F30" t="n">
-        <v>8869.694318645645</v>
+        <v>8840.08509473613</v>
       </c>
       <c r="G30" t="n">
-        <v>8869.694318645645</v>
+        <v>8840.08509473613</v>
       </c>
       <c r="H30" t="n">
-        <v>210.8926345728363</v>
+        <v>230.5670597202322</v>
       </c>
       <c r="I30" t="n">
-        <v>210.8926345728363</v>
+        <v>230.5670597202322</v>
       </c>
       <c r="J30" t="n">
-        <v>210.8926345728363</v>
+        <v>230.5670597202322</v>
       </c>
       <c r="K30" t="n">
-        <v>210.8926345728363</v>
+        <v>230.5670597202322</v>
       </c>
       <c r="L30" t="n">
-        <v>210.8926345728363</v>
+        <v>230.5670597202322</v>
       </c>
       <c r="M30" t="n">
-        <v>210.8926345728363</v>
+        <v>230.5670597202322</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>9080.586953218481</v>
+        <v>9070.652154456362</v>
       </c>
     </row>
     <row r="31">
@@ -2064,37 +2064,37 @@
         <v>43800</v>
       </c>
       <c r="C31" t="n">
-        <v>8886.420711203897</v>
+        <v>8855.085977012712</v>
       </c>
       <c r="D31" t="n">
-        <v>6304.350535504461</v>
+        <v>6411.251267800508</v>
       </c>
       <c r="E31" t="n">
-        <v>9675.836570222027</v>
+        <v>9736.829104292776</v>
       </c>
       <c r="F31" t="n">
-        <v>8886.420711203897</v>
+        <v>8855.085977012712</v>
       </c>
       <c r="G31" t="n">
-        <v>8886.420711203897</v>
+        <v>8855.085977012712</v>
       </c>
       <c r="H31" t="n">
-        <v>-801.993277670207</v>
+        <v>-785.2214462106065</v>
       </c>
       <c r="I31" t="n">
-        <v>-801.993277670207</v>
+        <v>-785.2214462106065</v>
       </c>
       <c r="J31" t="n">
-        <v>-801.993277670207</v>
+        <v>-785.2214462106065</v>
       </c>
       <c r="K31" t="n">
-        <v>-801.993277670207</v>
+        <v>-785.2214462106065</v>
       </c>
       <c r="L31" t="n">
-        <v>-801.993277670207</v>
+        <v>-785.2214462106065</v>
       </c>
       <c r="M31" t="n">
-        <v>-801.993277670207</v>
+        <v>-785.2214462106065</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>8084.42743353369</v>
+        <v>8069.864530802105</v>
       </c>
     </row>
     <row r="32">
@@ -2117,37 +2117,37 @@
         <v>43831</v>
       </c>
       <c r="C32" t="n">
-        <v>8903.570587391496</v>
+        <v>8870.586888698514</v>
       </c>
       <c r="D32" t="n">
-        <v>7961.86067505409</v>
+        <v>7732.086305555878</v>
       </c>
       <c r="E32" t="n">
-        <v>11338.59220896005</v>
+        <v>11201.280878977</v>
       </c>
       <c r="F32" t="n">
-        <v>8903.570587391496</v>
+        <v>8870.586888698514</v>
       </c>
       <c r="G32" t="n">
-        <v>8903.570587391496</v>
+        <v>8870.586888698514</v>
       </c>
       <c r="H32" t="n">
-        <v>720.464555697373</v>
+        <v>741.6783244011218</v>
       </c>
       <c r="I32" t="n">
-        <v>720.464555697373</v>
+        <v>741.6783244011218</v>
       </c>
       <c r="J32" t="n">
-        <v>720.464555697373</v>
+        <v>741.6783244011218</v>
       </c>
       <c r="K32" t="n">
-        <v>720.464555697373</v>
+        <v>741.6783244011218</v>
       </c>
       <c r="L32" t="n">
-        <v>720.464555697373</v>
+        <v>741.6783244011218</v>
       </c>
       <c r="M32" t="n">
-        <v>720.464555697373</v>
+        <v>741.6783244011218</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9624.03514308887</v>
+        <v>9612.265213099636</v>
       </c>
     </row>
     <row r="33">
@@ -2170,37 +2170,37 @@
         <v>43862</v>
       </c>
       <c r="C33" t="n">
-        <v>8920.720463579095</v>
+        <v>8885.980620741357</v>
       </c>
       <c r="D33" t="n">
-        <v>6467.599682835362</v>
+        <v>6261.842460220212</v>
       </c>
       <c r="E33" t="n">
-        <v>9862.320874173851</v>
+        <v>9773.410556924679</v>
       </c>
       <c r="F33" t="n">
-        <v>8920.720463579095</v>
+        <v>8885.980620741357</v>
       </c>
       <c r="G33" t="n">
-        <v>8920.720463579095</v>
+        <v>8885.980620741357</v>
       </c>
       <c r="H33" t="n">
-        <v>-791.0352107505529</v>
+        <v>-757.5673420208684</v>
       </c>
       <c r="I33" t="n">
-        <v>-791.0352107505529</v>
+        <v>-757.5673420208684</v>
       </c>
       <c r="J33" t="n">
-        <v>-791.0352107505529</v>
+        <v>-757.5673420208684</v>
       </c>
       <c r="K33" t="n">
-        <v>-791.0352107505529</v>
+        <v>-757.5673420208684</v>
       </c>
       <c r="L33" t="n">
-        <v>-791.0352107505529</v>
+        <v>-757.5673420208684</v>
       </c>
       <c r="M33" t="n">
-        <v>-791.0352107505529</v>
+        <v>-757.5673420208684</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>8129.685252828542</v>
+        <v>8128.413278720488</v>
       </c>
     </row>
     <row r="34">
@@ -2223,37 +2223,37 @@
         <v>43891</v>
       </c>
       <c r="C34" t="n">
-        <v>8936.698227546822</v>
+        <v>8900.381208781435</v>
       </c>
       <c r="D34" t="n">
-        <v>7728.183502408545</v>
+        <v>7694.542657352124</v>
       </c>
       <c r="E34" t="n">
-        <v>11200.48551980254</v>
+        <v>11238.50115073414</v>
       </c>
       <c r="F34" t="n">
-        <v>8936.698227546822</v>
+        <v>8900.381208781435</v>
       </c>
       <c r="G34" t="n">
-        <v>8936.698227546822</v>
+        <v>8900.381208781435</v>
       </c>
       <c r="H34" t="n">
-        <v>483.6467214967339</v>
+        <v>506.4404573452508</v>
       </c>
       <c r="I34" t="n">
-        <v>483.6467214967339</v>
+        <v>506.4404573452508</v>
       </c>
       <c r="J34" t="n">
-        <v>483.6467214967339</v>
+        <v>506.4404573452508</v>
       </c>
       <c r="K34" t="n">
-        <v>483.6467214967339</v>
+        <v>506.4404573452508</v>
       </c>
       <c r="L34" t="n">
-        <v>483.6467214967339</v>
+        <v>506.4404573452508</v>
       </c>
       <c r="M34" t="n">
-        <v>483.6467214967339</v>
+        <v>506.4404573452508</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>9420.344949043556</v>
+        <v>9406.821666126685</v>
       </c>
     </row>
     <row r="35">
@@ -2276,37 +2276,37 @@
         <v>43922</v>
       </c>
       <c r="C35" t="n">
-        <v>8953.777906270943</v>
+        <v>8915.690636020663</v>
       </c>
       <c r="D35" t="n">
-        <v>8002.976008264217</v>
+        <v>7992.813805375532</v>
       </c>
       <c r="E35" t="n">
-        <v>11363.68978096</v>
+        <v>11333.57674128145</v>
       </c>
       <c r="F35" t="n">
-        <v>8953.777906270943</v>
+        <v>8915.690636020663</v>
       </c>
       <c r="G35" t="n">
-        <v>8953.777906270943</v>
+        <v>8915.690636020663</v>
       </c>
       <c r="H35" t="n">
-        <v>642.0762578904091</v>
+        <v>655.1956598275962</v>
       </c>
       <c r="I35" t="n">
-        <v>642.0762578904091</v>
+        <v>655.1956598275962</v>
       </c>
       <c r="J35" t="n">
-        <v>642.0762578904091</v>
+        <v>655.1956598275962</v>
       </c>
       <c r="K35" t="n">
-        <v>642.0762578904091</v>
+        <v>655.1956598275962</v>
       </c>
       <c r="L35" t="n">
-        <v>642.0762578904091</v>
+        <v>655.1956598275962</v>
       </c>
       <c r="M35" t="n">
-        <v>642.0762578904091</v>
+        <v>655.1956598275962</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9595.854164161352</v>
+        <v>9570.886295848259</v>
       </c>
     </row>
     <row r="36">
@@ -2329,37 +2329,37 @@
         <v>43952</v>
       </c>
       <c r="C36" t="n">
-        <v>8970.25585760694</v>
+        <v>8930.506210768301</v>
       </c>
       <c r="D36" t="n">
-        <v>7129.412939930004</v>
+        <v>7053.964377302411</v>
       </c>
       <c r="E36" t="n">
-        <v>10443.76531087037</v>
+        <v>10356.22214706073</v>
       </c>
       <c r="F36" t="n">
-        <v>8970.25585760694</v>
+        <v>8930.506210768301</v>
       </c>
       <c r="G36" t="n">
-        <v>8970.25585760694</v>
+        <v>8930.506210768301</v>
       </c>
       <c r="H36" t="n">
-        <v>-262.0358003667976</v>
+        <v>-255.3279361577817</v>
       </c>
       <c r="I36" t="n">
-        <v>-262.0358003667976</v>
+        <v>-255.3279361577817</v>
       </c>
       <c r="J36" t="n">
-        <v>-262.0358003667976</v>
+        <v>-255.3279361577817</v>
       </c>
       <c r="K36" t="n">
-        <v>-262.0358003667976</v>
+        <v>-255.3279361577817</v>
       </c>
       <c r="L36" t="n">
-        <v>-262.0358003667976</v>
+        <v>-255.3279361577817</v>
       </c>
       <c r="M36" t="n">
-        <v>-262.0358003667976</v>
+        <v>-255.3279361577817</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>8708.220057240143</v>
+        <v>8675.178274610518</v>
       </c>
     </row>
     <row r="37">
@@ -2382,37 +2382,37 @@
         <v>43983</v>
       </c>
       <c r="C37" t="n">
-        <v>8987.283073987472</v>
+        <v>8945.762606723476</v>
       </c>
       <c r="D37" t="n">
-        <v>7785.819531327162</v>
+        <v>7595.340062980186</v>
       </c>
       <c r="E37" t="n">
-        <v>11234.21603535415</v>
+        <v>10930.01113263785</v>
       </c>
       <c r="F37" t="n">
-        <v>8987.283073987472</v>
+        <v>8945.762606723476</v>
       </c>
       <c r="G37" t="n">
-        <v>8987.283073987472</v>
+        <v>8945.762606723476</v>
       </c>
       <c r="H37" t="n">
-        <v>504.5512024617193</v>
+        <v>413.5926989795486</v>
       </c>
       <c r="I37" t="n">
-        <v>504.5512024617193</v>
+        <v>413.5926989795486</v>
       </c>
       <c r="J37" t="n">
-        <v>504.5512024617193</v>
+        <v>413.5926989795486</v>
       </c>
       <c r="K37" t="n">
-        <v>504.5512024617193</v>
+        <v>413.5926989795486</v>
       </c>
       <c r="L37" t="n">
-        <v>504.5512024617193</v>
+        <v>413.5926989795486</v>
       </c>
       <c r="M37" t="n">
-        <v>504.5512024617193</v>
+        <v>413.5926989795486</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>9491.834276449192</v>
+        <v>9359.355305703024</v>
       </c>
     </row>
     <row r="38">
@@ -2435,37 +2435,37 @@
         <v>44013</v>
       </c>
       <c r="C38" t="n">
-        <v>9003.757245062125</v>
+        <v>8960.526860873644</v>
       </c>
       <c r="D38" t="n">
-        <v>5875.643073914794</v>
+        <v>5837.610715875016</v>
       </c>
       <c r="E38" t="n">
-        <v>9394.577698446115</v>
+        <v>9137.083248093237</v>
       </c>
       <c r="F38" t="n">
-        <v>9003.757245062125</v>
+        <v>8960.526860873644</v>
       </c>
       <c r="G38" t="n">
-        <v>9003.757245062125</v>
+        <v>8960.526860873644</v>
       </c>
       <c r="H38" t="n">
-        <v>-1467.533508133469</v>
+        <v>-1477.265323328863</v>
       </c>
       <c r="I38" t="n">
-        <v>-1467.533508133469</v>
+        <v>-1477.265323328863</v>
       </c>
       <c r="J38" t="n">
-        <v>-1467.533508133469</v>
+        <v>-1477.265323328863</v>
       </c>
       <c r="K38" t="n">
-        <v>-1467.533508133469</v>
+        <v>-1477.265323328863</v>
       </c>
       <c r="L38" t="n">
-        <v>-1467.533508133469</v>
+        <v>-1477.265323328863</v>
       </c>
       <c r="M38" t="n">
-        <v>-1467.533508133469</v>
+        <v>-1477.265323328863</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>7536.223736928656</v>
+        <v>7483.26153754478</v>
       </c>
     </row>
     <row r="39">
@@ -2488,37 +2488,37 @@
         <v>44044</v>
       </c>
       <c r="C39" t="n">
-        <v>9020.7805551726</v>
+        <v>8975.77009439937</v>
       </c>
       <c r="D39" t="n">
-        <v>7621.827334736568</v>
+        <v>7539.465560601279</v>
       </c>
       <c r="E39" t="n">
-        <v>10988.05057262243</v>
+        <v>11140.43163646743</v>
       </c>
       <c r="F39" t="n">
-        <v>9020.7805551726</v>
+        <v>8975.77009439937</v>
       </c>
       <c r="G39" t="n">
-        <v>9020.7805551726</v>
+        <v>8975.77009439937</v>
       </c>
       <c r="H39" t="n">
-        <v>394.7863205676135</v>
+        <v>396.4544670801032</v>
       </c>
       <c r="I39" t="n">
-        <v>394.7863205676135</v>
+        <v>396.4544670801032</v>
       </c>
       <c r="J39" t="n">
-        <v>394.7863205676135</v>
+        <v>396.4544670801032</v>
       </c>
       <c r="K39" t="n">
-        <v>394.7863205676135</v>
+        <v>396.4544670801032</v>
       </c>
       <c r="L39" t="n">
-        <v>394.7863205676135</v>
+        <v>396.4544670801032</v>
       </c>
       <c r="M39" t="n">
-        <v>394.7863205676135</v>
+        <v>396.4544670801032</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>9415.566875740213</v>
+        <v>9372.224561479472</v>
       </c>
     </row>
     <row r="40">
@@ -2541,37 +2541,37 @@
         <v>44075</v>
       </c>
       <c r="C40" t="n">
-        <v>9037.707330783565</v>
+        <v>8991.013327925093</v>
       </c>
       <c r="D40" t="n">
-        <v>7554.321585116357</v>
+        <v>7565.477359484711</v>
       </c>
       <c r="E40" t="n">
-        <v>10918.80254017401</v>
+        <v>10921.97785418812</v>
       </c>
       <c r="F40" t="n">
-        <v>9037.707330783565</v>
+        <v>8991.013327925093</v>
       </c>
       <c r="G40" t="n">
-        <v>9037.707330783565</v>
+        <v>8991.013327925093</v>
       </c>
       <c r="H40" t="n">
-        <v>146.0158060245168</v>
+        <v>158.920300556479</v>
       </c>
       <c r="I40" t="n">
-        <v>146.0158060245168</v>
+        <v>158.920300556479</v>
       </c>
       <c r="J40" t="n">
-        <v>146.0158060245168</v>
+        <v>158.920300556479</v>
       </c>
       <c r="K40" t="n">
-        <v>146.0158060245168</v>
+        <v>158.920300556479</v>
       </c>
       <c r="L40" t="n">
-        <v>146.0158060245168</v>
+        <v>158.920300556479</v>
       </c>
       <c r="M40" t="n">
-        <v>146.0158060245168</v>
+        <v>158.920300556479</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -2583,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>9183.723136808083</v>
+        <v>9149.933628481573</v>
       </c>
     </row>
     <row r="41">
@@ -2594,37 +2594,37 @@
         <v>44105</v>
       </c>
       <c r="C41" t="n">
-        <v>9054.088081374823</v>
+        <v>9005.71093514462</v>
       </c>
       <c r="D41" t="n">
-        <v>7361.732980463872</v>
+        <v>7352.181999046359</v>
       </c>
       <c r="E41" t="n">
-        <v>10743.99137686458</v>
+        <v>10698.31379512888</v>
       </c>
       <c r="F41" t="n">
-        <v>9054.088081374823</v>
+        <v>9005.71093514462</v>
       </c>
       <c r="G41" t="n">
-        <v>9054.088081374823</v>
+        <v>9005.71093514462</v>
       </c>
       <c r="H41" t="n">
-        <v>57.78762809349075</v>
+        <v>82.99722025584887</v>
       </c>
       <c r="I41" t="n">
-        <v>57.78762809349075</v>
+        <v>82.99722025584887</v>
       </c>
       <c r="J41" t="n">
-        <v>57.78762809349075</v>
+        <v>82.99722025584887</v>
       </c>
       <c r="K41" t="n">
-        <v>57.78762809349075</v>
+        <v>82.99722025584887</v>
       </c>
       <c r="L41" t="n">
-        <v>57.78762809349075</v>
+        <v>82.99722025584887</v>
       </c>
       <c r="M41" t="n">
-        <v>57.78762809349075</v>
+        <v>82.99722025584887</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9111.875709468313</v>
+        <v>9088.708155400469</v>
       </c>
     </row>
     <row r="42">
@@ -2647,37 +2647,37 @@
         <v>44136</v>
       </c>
       <c r="C42" t="n">
-        <v>9070.977671520386</v>
+        <v>9020.890886758081</v>
       </c>
       <c r="D42" t="n">
-        <v>7424.924054294929</v>
+        <v>7463.525289319357</v>
       </c>
       <c r="E42" t="n">
-        <v>10792.05477942463</v>
+        <v>10785.37868220425</v>
       </c>
       <c r="F42" t="n">
-        <v>9070.977671520386</v>
+        <v>9020.890886758081</v>
       </c>
       <c r="G42" t="n">
-        <v>9070.977671520386</v>
+        <v>9020.890886758081</v>
       </c>
       <c r="H42" t="n">
-        <v>128.9805515742717</v>
+        <v>165.0264315608192</v>
       </c>
       <c r="I42" t="n">
-        <v>128.9805515742717</v>
+        <v>165.0264315608192</v>
       </c>
       <c r="J42" t="n">
-        <v>128.9805515742717</v>
+        <v>165.0264315608192</v>
       </c>
       <c r="K42" t="n">
-        <v>128.9805515742717</v>
+        <v>165.0264315608192</v>
       </c>
       <c r="L42" t="n">
-        <v>128.9805515742717</v>
+        <v>165.0264315608192</v>
       </c>
       <c r="M42" t="n">
-        <v>128.9805515742717</v>
+        <v>165.0264315608192</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -2689,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>9199.958223094658</v>
+        <v>9185.9173183189</v>
       </c>
     </row>
     <row r="43">
@@ -2700,37 +2700,37 @@
         <v>44166</v>
       </c>
       <c r="C43" t="n">
-        <v>9087.29535063519</v>
+        <v>9035.581162513041</v>
       </c>
       <c r="D43" t="n">
-        <v>7488.453989162716</v>
+        <v>7482.876918573877</v>
       </c>
       <c r="E43" t="n">
-        <v>10905.31992229478</v>
+        <v>10890.66391811075</v>
       </c>
       <c r="F43" t="n">
-        <v>9087.29535063519</v>
+        <v>9035.581162513041</v>
       </c>
       <c r="G43" t="n">
-        <v>9087.29535063519</v>
+        <v>9035.581162513041</v>
       </c>
       <c r="H43" t="n">
-        <v>122.8032288424224</v>
+        <v>164.914484361444</v>
       </c>
       <c r="I43" t="n">
-        <v>122.8032288424224</v>
+        <v>164.914484361444</v>
       </c>
       <c r="J43" t="n">
-        <v>122.8032288424224</v>
+        <v>164.914484361444</v>
       </c>
       <c r="K43" t="n">
-        <v>122.8032288424224</v>
+        <v>164.914484361444</v>
       </c>
       <c r="L43" t="n">
-        <v>122.8032288424224</v>
+        <v>164.914484361444</v>
       </c>
       <c r="M43" t="n">
-        <v>122.8032288424224</v>
+        <v>164.914484361444</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -2742,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>9210.098579477612</v>
+        <v>9200.495646874486</v>
       </c>
     </row>
     <row r="44">
@@ -2753,37 +2753,37 @@
         <v>44197</v>
       </c>
       <c r="C44" t="n">
-        <v>9104.156952387155</v>
+        <v>9050.740145993608</v>
       </c>
       <c r="D44" t="n">
-        <v>6956.143371620337</v>
+        <v>6940.538587433785</v>
       </c>
       <c r="E44" t="n">
-        <v>10525.38581859828</v>
+        <v>10349.51363620104</v>
       </c>
       <c r="F44" t="n">
-        <v>9104.156952387155</v>
+        <v>9050.740145993608</v>
       </c>
       <c r="G44" t="n">
-        <v>9104.156952387155</v>
+        <v>9050.740145993608</v>
       </c>
       <c r="H44" t="n">
-        <v>-342.7620533573859</v>
+        <v>-300.9893143558103</v>
       </c>
       <c r="I44" t="n">
-        <v>-342.7620533573859</v>
+        <v>-300.9893143558103</v>
       </c>
       <c r="J44" t="n">
-        <v>-342.7620533573859</v>
+        <v>-300.9893143558103</v>
       </c>
       <c r="K44" t="n">
-        <v>-342.7620533573859</v>
+        <v>-300.9893143558103</v>
       </c>
       <c r="L44" t="n">
-        <v>-342.7620533573859</v>
+        <v>-300.9893143558103</v>
       </c>
       <c r="M44" t="n">
-        <v>-342.7620533573859</v>
+        <v>-300.9893143558103</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>8761.394899029769</v>
+        <v>8749.750831637797</v>
       </c>
     </row>
     <row r="45">
@@ -2806,37 +2806,37 @@
         <v>44228</v>
       </c>
       <c r="C45" t="n">
-        <v>9121.018552356947</v>
+        <v>9065.899129474175</v>
       </c>
       <c r="D45" t="n">
-        <v>6073.83019808719</v>
+        <v>5884.614675762312</v>
       </c>
       <c r="E45" t="n">
-        <v>9555.597925323515</v>
+        <v>9511.855120050135</v>
       </c>
       <c r="F45" t="n">
-        <v>9121.018552356947</v>
+        <v>9065.899129474175</v>
       </c>
       <c r="G45" t="n">
-        <v>9121.018552356947</v>
+        <v>9065.899129474175</v>
       </c>
       <c r="H45" t="n">
-        <v>-1353.659633871241</v>
+        <v>-1319.321223584504</v>
       </c>
       <c r="I45" t="n">
-        <v>-1353.659633871241</v>
+        <v>-1319.321223584504</v>
       </c>
       <c r="J45" t="n">
-        <v>-1353.659633871241</v>
+        <v>-1319.321223584504</v>
       </c>
       <c r="K45" t="n">
-        <v>-1353.659633871241</v>
+        <v>-1319.321223584504</v>
       </c>
       <c r="L45" t="n">
-        <v>-1353.659633871241</v>
+        <v>-1319.321223584504</v>
       </c>
       <c r="M45" t="n">
-        <v>-1353.659633871241</v>
+        <v>-1319.321223584504</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>7767.358918485706</v>
+        <v>7746.577905889671</v>
       </c>
     </row>
     <row r="46">
@@ -2859,37 +2859,37 @@
         <v>44256</v>
       </c>
       <c r="C46" t="n">
-        <v>9136.248384587729</v>
+        <v>9079.590949865078</v>
       </c>
       <c r="D46" t="n">
-        <v>7766.697934452633</v>
+        <v>7758.594808285399</v>
       </c>
       <c r="E46" t="n">
-        <v>11236.54923631757</v>
+        <v>11110.99188766001</v>
       </c>
       <c r="F46" t="n">
-        <v>9136.248384587729</v>
+        <v>9079.590949865078</v>
       </c>
       <c r="G46" t="n">
-        <v>9136.248384587729</v>
+        <v>9079.590949865078</v>
       </c>
       <c r="H46" t="n">
-        <v>327.8428534547963</v>
+        <v>358.3781977491176</v>
       </c>
       <c r="I46" t="n">
-        <v>327.8428534547963</v>
+        <v>358.3781977491176</v>
       </c>
       <c r="J46" t="n">
-        <v>327.8428534547963</v>
+        <v>358.3781977491176</v>
       </c>
       <c r="K46" t="n">
-        <v>327.8428534547963</v>
+        <v>358.3781977491176</v>
       </c>
       <c r="L46" t="n">
-        <v>327.8428534547963</v>
+        <v>358.3781977491176</v>
       </c>
       <c r="M46" t="n">
-        <v>327.8428534547963</v>
+        <v>358.3781977491176</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -2901,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>9464.091238042525</v>
+        <v>9437.969147614196</v>
       </c>
     </row>
     <row r="47">
@@ -2912,37 +2912,37 @@
         <v>44287</v>
       </c>
       <c r="C47" t="n">
-        <v>9153.10998451165</v>
+        <v>9094.74975101215</v>
       </c>
       <c r="D47" t="n">
-        <v>7810.892705300893</v>
+        <v>7763.456880428123</v>
       </c>
       <c r="E47" t="n">
-        <v>11269.85829521099</v>
+        <v>11144.40710871628</v>
       </c>
       <c r="F47" t="n">
-        <v>9153.10998451165</v>
+        <v>9094.74975101215</v>
       </c>
       <c r="G47" t="n">
-        <v>9153.10998451165</v>
+        <v>9094.74975101215</v>
       </c>
       <c r="H47" t="n">
-        <v>342.4627037429716</v>
+        <v>370.6783959657042</v>
       </c>
       <c r="I47" t="n">
-        <v>342.4627037429716</v>
+        <v>370.6783959657042</v>
       </c>
       <c r="J47" t="n">
-        <v>342.4627037429716</v>
+        <v>370.6783959657042</v>
       </c>
       <c r="K47" t="n">
-        <v>342.4627037429716</v>
+        <v>370.6783959657042</v>
       </c>
       <c r="L47" t="n">
-        <v>342.4627037429716</v>
+        <v>370.6783959657042</v>
       </c>
       <c r="M47" t="n">
-        <v>342.4627037429716</v>
+        <v>370.6783959657042</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>9495.572688254621</v>
+        <v>9465.428146977854</v>
       </c>
     </row>
     <row r="48">
@@ -2965,37 +2965,37 @@
         <v>44317</v>
       </c>
       <c r="C48" t="n">
-        <v>9169.427661857379</v>
+        <v>9109.419558316873</v>
       </c>
       <c r="D48" t="n">
-        <v>7315.516841120186</v>
+        <v>7265.70932805831</v>
       </c>
       <c r="E48" t="n">
-        <v>10600.96331856742</v>
+        <v>10578.7531992473</v>
       </c>
       <c r="F48" t="n">
-        <v>9169.427661857379</v>
+        <v>9109.419558316873</v>
       </c>
       <c r="G48" t="n">
-        <v>9169.427661857379</v>
+        <v>9109.419558316873</v>
       </c>
       <c r="H48" t="n">
-        <v>-154.0178500038669</v>
+        <v>-126.4191044967817</v>
       </c>
       <c r="I48" t="n">
-        <v>-154.0178500038669</v>
+        <v>-126.4191044967817</v>
       </c>
       <c r="J48" t="n">
-        <v>-154.0178500038669</v>
+        <v>-126.4191044967817</v>
       </c>
       <c r="K48" t="n">
-        <v>-154.0178500038669</v>
+        <v>-126.4191044967817</v>
       </c>
       <c r="L48" t="n">
-        <v>-154.0178500038669</v>
+        <v>-126.4191044967817</v>
       </c>
       <c r="M48" t="n">
-        <v>-154.0178500038669</v>
+        <v>-126.4191044967817</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>9015.409811853511</v>
+        <v>8983.000453820092</v>
       </c>
     </row>
     <row r="49">
@@ -3018,37 +3018,37 @@
         <v>44348</v>
       </c>
       <c r="C49" t="n">
-        <v>9186.289261923368</v>
+        <v>9124.578359198418</v>
       </c>
       <c r="D49" t="n">
-        <v>8069.908058134691</v>
+        <v>7781.454955917181</v>
       </c>
       <c r="E49" t="n">
-        <v>11406.78074705568</v>
+        <v>11171.2054106972</v>
       </c>
       <c r="F49" t="n">
-        <v>9186.289261923368</v>
+        <v>9124.578359198418</v>
       </c>
       <c r="G49" t="n">
-        <v>9186.289261923368</v>
+        <v>9124.578359198418</v>
       </c>
       <c r="H49" t="n">
-        <v>448.1969856894389</v>
+        <v>286.6572045162737</v>
       </c>
       <c r="I49" t="n">
-        <v>448.1969856894389</v>
+        <v>286.6572045162737</v>
       </c>
       <c r="J49" t="n">
-        <v>448.1969856894389</v>
+        <v>286.6572045162737</v>
       </c>
       <c r="K49" t="n">
-        <v>448.1969856894389</v>
+        <v>286.6572045162737</v>
       </c>
       <c r="L49" t="n">
-        <v>448.1969856894389</v>
+        <v>286.6572045162737</v>
       </c>
       <c r="M49" t="n">
-        <v>448.1969856894389</v>
+        <v>286.6572045162737</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>9634.486247612807</v>
+        <v>9411.235563714692</v>
       </c>
     </row>
     <row r="50">
@@ -3071,37 +3071,37 @@
         <v>44378</v>
       </c>
       <c r="C50" t="n">
-        <v>9202.606939406582</v>
+        <v>9139.248165766219</v>
       </c>
       <c r="D50" t="n">
-        <v>6449.416066367461</v>
+        <v>6369.096028754816</v>
       </c>
       <c r="E50" t="n">
-        <v>9859.321046095734</v>
+        <v>9734.129000544652</v>
       </c>
       <c r="F50" t="n">
-        <v>9202.606939406582</v>
+        <v>9139.248165766219</v>
       </c>
       <c r="G50" t="n">
-        <v>9202.606939406582</v>
+        <v>9139.248165766219</v>
       </c>
       <c r="H50" t="n">
-        <v>-1075.199123542261</v>
+        <v>-1063.35603339432</v>
       </c>
       <c r="I50" t="n">
-        <v>-1075.199123542261</v>
+        <v>-1063.35603339432</v>
       </c>
       <c r="J50" t="n">
-        <v>-1075.199123542261</v>
+        <v>-1063.35603339432</v>
       </c>
       <c r="K50" t="n">
-        <v>-1075.199123542261</v>
+        <v>-1063.35603339432</v>
       </c>
       <c r="L50" t="n">
-        <v>-1075.199123542261</v>
+        <v>-1063.35603339432</v>
       </c>
       <c r="M50" t="n">
-        <v>-1075.199123542261</v>
+        <v>-1063.35603339432</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>8127.407815864321</v>
+        <v>8075.892132371899</v>
       </c>
     </row>
     <row r="51">
@@ -3124,37 +3124,37 @@
         <v>44409</v>
       </c>
       <c r="C51" t="n">
-        <v>9219.468539472571</v>
+        <v>9154.406965886279</v>
       </c>
       <c r="D51" t="n">
-        <v>7843.619795639922</v>
+        <v>7796.570176872868</v>
       </c>
       <c r="E51" t="n">
-        <v>11290.94117962211</v>
+        <v>11342.37740615667</v>
       </c>
       <c r="F51" t="n">
-        <v>9219.468539472571</v>
+        <v>9154.406965886279</v>
       </c>
       <c r="G51" t="n">
-        <v>9219.468539472571</v>
+        <v>9154.406965886279</v>
       </c>
       <c r="H51" t="n">
-        <v>332.3383920334692</v>
+        <v>349.3169420339931</v>
       </c>
       <c r="I51" t="n">
-        <v>332.3383920334692</v>
+        <v>349.3169420339931</v>
       </c>
       <c r="J51" t="n">
-        <v>332.3383920334692</v>
+        <v>349.3169420339931</v>
       </c>
       <c r="K51" t="n">
-        <v>332.3383920334692</v>
+        <v>349.3169420339931</v>
       </c>
       <c r="L51" t="n">
-        <v>332.3383920334692</v>
+        <v>349.3169420339931</v>
       </c>
       <c r="M51" t="n">
-        <v>332.3383920334692</v>
+        <v>349.3169420339931</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>9551.80693150604</v>
+        <v>9503.723907920272</v>
       </c>
     </row>
     <row r="52">
@@ -3177,37 +3177,37 @@
         <v>44440</v>
       </c>
       <c r="C52" t="n">
-        <v>9236.330139538559</v>
+        <v>9169.565766006339</v>
       </c>
       <c r="D52" t="n">
-        <v>7600.632188171353</v>
+        <v>7304.105634685923</v>
       </c>
       <c r="E52" t="n">
-        <v>10896.0940975654</v>
+        <v>10714.12270367724</v>
       </c>
       <c r="F52" t="n">
-        <v>9236.330139538559</v>
+        <v>9169.565766006339</v>
       </c>
       <c r="G52" t="n">
-        <v>9236.330139538559</v>
+        <v>9169.565766006339</v>
       </c>
       <c r="H52" t="n">
-        <v>-144.2079385763849</v>
+        <v>-122.5294520222834</v>
       </c>
       <c r="I52" t="n">
-        <v>-144.2079385763849</v>
+        <v>-122.5294520222834</v>
       </c>
       <c r="J52" t="n">
-        <v>-144.2079385763849</v>
+        <v>-122.5294520222834</v>
       </c>
       <c r="K52" t="n">
-        <v>-144.2079385763849</v>
+        <v>-122.5294520222834</v>
       </c>
       <c r="L52" t="n">
-        <v>-144.2079385763849</v>
+        <v>-122.5294520222834</v>
       </c>
       <c r="M52" t="n">
-        <v>-144.2079385763849</v>
+        <v>-122.5294520222834</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -3219,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>9092.122200962174</v>
+        <v>9047.036313984056</v>
       </c>
     </row>
     <row r="53">
@@ -3230,37 +3230,37 @@
         <v>44470</v>
       </c>
       <c r="C53" t="n">
-        <v>9252.647817021774</v>
+        <v>9184.23557257414</v>
       </c>
       <c r="D53" t="n">
-        <v>7761.095538231089</v>
+        <v>7710.179609836233</v>
       </c>
       <c r="E53" t="n">
-        <v>11063.06447093432</v>
+        <v>11135.33260336693</v>
       </c>
       <c r="F53" t="n">
-        <v>9252.647817021774</v>
+        <v>9184.23557257414</v>
       </c>
       <c r="G53" t="n">
-        <v>9252.647817021774</v>
+        <v>9184.23557257414</v>
       </c>
       <c r="H53" t="n">
-        <v>174.390771236455</v>
+        <v>200.9347608531467</v>
       </c>
       <c r="I53" t="n">
-        <v>174.390771236455</v>
+        <v>200.9347608531467</v>
       </c>
       <c r="J53" t="n">
-        <v>174.390771236455</v>
+        <v>200.9347608531467</v>
       </c>
       <c r="K53" t="n">
-        <v>174.390771236455</v>
+        <v>200.9347608531467</v>
       </c>
       <c r="L53" t="n">
-        <v>174.390771236455</v>
+        <v>200.9347608531467</v>
       </c>
       <c r="M53" t="n">
-        <v>174.390771236455</v>
+        <v>200.9347608531467</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>9427.038588258229</v>
+        <v>9385.170333427286</v>
       </c>
     </row>
     <row r="54">
@@ -3283,37 +3283,37 @@
         <v>44501</v>
       </c>
       <c r="C54" t="n">
-        <v>9269.509417087764</v>
+        <v>9199.394372694202</v>
       </c>
       <c r="D54" t="n">
-        <v>7726.628984901334</v>
+        <v>7667.028341453548</v>
       </c>
       <c r="E54" t="n">
-        <v>11035.1194937664</v>
+        <v>11122.70240175979</v>
       </c>
       <c r="F54" t="n">
-        <v>9269.509417087764</v>
+        <v>9199.394372694202</v>
       </c>
       <c r="G54" t="n">
-        <v>9269.509417087764</v>
+        <v>9199.394372694202</v>
       </c>
       <c r="H54" t="n">
-        <v>159.0443660674134</v>
+        <v>189.9042730498242</v>
       </c>
       <c r="I54" t="n">
-        <v>159.0443660674134</v>
+        <v>189.9042730498242</v>
       </c>
       <c r="J54" t="n">
-        <v>159.0443660674134</v>
+        <v>189.9042730498242</v>
       </c>
       <c r="K54" t="n">
-        <v>159.0443660674134</v>
+        <v>189.9042730498242</v>
       </c>
       <c r="L54" t="n">
-        <v>159.0443660674134</v>
+        <v>189.9042730498242</v>
       </c>
       <c r="M54" t="n">
-        <v>159.0443660674134</v>
+        <v>189.9042730498242</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>9428.553783155177</v>
+        <v>9389.298645744026</v>
       </c>
     </row>
     <row r="55">
@@ -3336,37 +3336,37 @@
         <v>44531</v>
       </c>
       <c r="C55" t="n">
-        <v>9285.827094570979</v>
+        <v>9214.064179262001</v>
       </c>
       <c r="D55" t="n">
-        <v>7396.84078447336</v>
+        <v>7479.033686431697</v>
       </c>
       <c r="E55" t="n">
-        <v>10873.20623988352</v>
+        <v>10814.23679597339</v>
       </c>
       <c r="F55" t="n">
-        <v>9285.827094570979</v>
+        <v>9214.064179262001</v>
       </c>
       <c r="G55" t="n">
-        <v>9285.827094570979</v>
+        <v>9214.064179262001</v>
       </c>
       <c r="H55" t="n">
-        <v>-191.3050966714673</v>
+        <v>-157.625635426367</v>
       </c>
       <c r="I55" t="n">
-        <v>-191.3050966714673</v>
+        <v>-157.625635426367</v>
       </c>
       <c r="J55" t="n">
-        <v>-191.3050966714673</v>
+        <v>-157.625635426367</v>
       </c>
       <c r="K55" t="n">
-        <v>-191.3050966714673</v>
+        <v>-157.625635426367</v>
       </c>
       <c r="L55" t="n">
-        <v>-191.3050966714673</v>
+        <v>-157.625635426367</v>
       </c>
       <c r="M55" t="n">
-        <v>-191.3050966714673</v>
+        <v>-157.625635426367</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>9094.521997899512</v>
+        <v>9056.438543835633</v>
       </c>
     </row>
     <row r="56">
@@ -3389,37 +3389,37 @@
         <v>44562</v>
       </c>
       <c r="C56" t="n">
-        <v>9302.688694636967</v>
+        <v>9229.222979382062</v>
       </c>
       <c r="D56" t="n">
-        <v>7627.016807555253</v>
+        <v>7613.727612809003</v>
       </c>
       <c r="E56" t="n">
-        <v>11054.41343477973</v>
+        <v>10978.96951163782</v>
       </c>
       <c r="F56" t="n">
-        <v>9302.688694636967</v>
+        <v>9229.222979382062</v>
       </c>
       <c r="G56" t="n">
-        <v>9302.688694636967</v>
+        <v>9229.222979382062</v>
       </c>
       <c r="H56" t="n">
-        <v>5.671953111081635</v>
+        <v>40.3638477086588</v>
       </c>
       <c r="I56" t="n">
-        <v>5.671953111081635</v>
+        <v>40.3638477086588</v>
       </c>
       <c r="J56" t="n">
-        <v>5.671953111081635</v>
+        <v>40.3638477086588</v>
       </c>
       <c r="K56" t="n">
-        <v>5.671953111081635</v>
+        <v>40.3638477086588</v>
       </c>
       <c r="L56" t="n">
-        <v>5.671953111081635</v>
+        <v>40.3638477086588</v>
       </c>
       <c r="M56" t="n">
-        <v>5.671953111081635</v>
+        <v>40.3638477086588</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>9308.360647748048</v>
+        <v>9269.586827090721</v>
       </c>
     </row>
     <row r="57">
@@ -3442,37 +3442,37 @@
         <v>44593</v>
       </c>
       <c r="C57" t="n">
-        <v>9319.550294702956</v>
+        <v>9244.381779502122</v>
       </c>
       <c r="D57" t="n">
-        <v>6538.737166691321</v>
+        <v>6335.911141560425</v>
       </c>
       <c r="E57" t="n">
-        <v>9820.764185406346</v>
+        <v>9791.273204403777</v>
       </c>
       <c r="F57" t="n">
-        <v>9319.550294702956</v>
+        <v>9244.381779502122</v>
       </c>
       <c r="G57" t="n">
-        <v>9319.550294702956</v>
+        <v>9244.381779502122</v>
       </c>
       <c r="H57" t="n">
-        <v>-1160.514105207445</v>
+        <v>-1126.808121848403</v>
       </c>
       <c r="I57" t="n">
-        <v>-1160.514105207445</v>
+        <v>-1126.808121848403</v>
       </c>
       <c r="J57" t="n">
-        <v>-1160.514105207445</v>
+        <v>-1126.808121848403</v>
       </c>
       <c r="K57" t="n">
-        <v>-1160.514105207445</v>
+        <v>-1126.808121848403</v>
       </c>
       <c r="L57" t="n">
-        <v>-1160.514105207445</v>
+        <v>-1126.808121848403</v>
       </c>
       <c r="M57" t="n">
-        <v>-1160.514105207445</v>
+        <v>-1126.808121848403</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>8159.036189495511</v>
+        <v>8117.573657653719</v>
       </c>
     </row>
     <row r="58">
@@ -3495,37 +3495,37 @@
         <v>44621</v>
       </c>
       <c r="C58" t="n">
-        <v>9334.780127020624</v>
+        <v>9258.073598965402</v>
       </c>
       <c r="D58" t="n">
-        <v>7810.665365611151</v>
+        <v>7641.42825726406</v>
       </c>
       <c r="E58" t="n">
-        <v>11165.96280032106</v>
+        <v>11085.87969060834</v>
       </c>
       <c r="F58" t="n">
-        <v>9334.780127020624</v>
+        <v>9258.073598965402</v>
       </c>
       <c r="G58" t="n">
-        <v>9334.780127020624</v>
+        <v>9258.073598965402</v>
       </c>
       <c r="H58" t="n">
-        <v>164.8648748407483</v>
+        <v>203.3481158738763</v>
       </c>
       <c r="I58" t="n">
-        <v>164.8648748407483</v>
+        <v>203.3481158738763</v>
       </c>
       <c r="J58" t="n">
-        <v>164.8648748407483</v>
+        <v>203.3481158738763</v>
       </c>
       <c r="K58" t="n">
-        <v>164.8648748407483</v>
+        <v>203.3481158738763</v>
       </c>
       <c r="L58" t="n">
-        <v>164.8648748407483</v>
+        <v>203.3481158738763</v>
       </c>
       <c r="M58" t="n">
-        <v>164.8648748407483</v>
+        <v>203.3481158738763</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
@@ -3537,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>9499.645001861372</v>
+        <v>9461.421714839278</v>
       </c>
     </row>
     <row r="59">
@@ -3548,37 +3548,37 @@
         <v>44652</v>
       </c>
       <c r="C59" t="n">
-        <v>9351.641727086611</v>
+        <v>9273.232399085464</v>
       </c>
       <c r="D59" t="n">
-        <v>7786.604887699898</v>
+        <v>7600.736122398829</v>
       </c>
       <c r="E59" t="n">
-        <v>11044.55033760646</v>
+        <v>10991.58066064823</v>
       </c>
       <c r="F59" t="n">
-        <v>9351.641727086611</v>
+        <v>9273.232399085464</v>
       </c>
       <c r="G59" t="n">
-        <v>9351.641727086611</v>
+        <v>9273.232399085464</v>
       </c>
       <c r="H59" t="n">
-        <v>45.43733714029733</v>
+        <v>88.62589406544707</v>
       </c>
       <c r="I59" t="n">
-        <v>45.43733714029733</v>
+        <v>88.62589406544707</v>
       </c>
       <c r="J59" t="n">
-        <v>45.43733714029733</v>
+        <v>88.62589406544707</v>
       </c>
       <c r="K59" t="n">
-        <v>45.43733714029733</v>
+        <v>88.62589406544707</v>
       </c>
       <c r="L59" t="n">
-        <v>45.43733714029733</v>
+        <v>88.62589406544707</v>
       </c>
       <c r="M59" t="n">
-        <v>45.43733714029733</v>
+        <v>88.62589406544707</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>9397.079064226909</v>
+        <v>9361.858293150912</v>
       </c>
     </row>
     <row r="60">
@@ -3601,37 +3601,37 @@
         <v>44682</v>
       </c>
       <c r="C60" t="n">
-        <v>9367.959404569827</v>
+        <v>9287.902205653265</v>
       </c>
       <c r="D60" t="n">
-        <v>7634.981531333706</v>
+        <v>7491.026994557086</v>
       </c>
       <c r="E60" t="n">
-        <v>11066.00498674027</v>
+        <v>11055.27898008779</v>
       </c>
       <c r="F60" t="n">
-        <v>9367.959404569827</v>
+        <v>9287.902205653265</v>
       </c>
       <c r="G60" t="n">
-        <v>9367.959404569827</v>
+        <v>9287.902205653265</v>
       </c>
       <c r="H60" t="n">
-        <v>-39.99778806356449</v>
+        <v>7.291967543502086</v>
       </c>
       <c r="I60" t="n">
-        <v>-39.99778806356449</v>
+        <v>7.291967543502086</v>
       </c>
       <c r="J60" t="n">
-        <v>-39.99778806356449</v>
+        <v>7.291967543502086</v>
       </c>
       <c r="K60" t="n">
-        <v>-39.99778806356449</v>
+        <v>7.291967543502086</v>
       </c>
       <c r="L60" t="n">
-        <v>-39.99778806356449</v>
+        <v>7.291967543502086</v>
       </c>
       <c r="M60" t="n">
-        <v>-39.99778806356449</v>
+        <v>7.291967543502086</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>9327.961616506262</v>
+        <v>9295.194173196767</v>
       </c>
     </row>
     <row r="61">
@@ -3654,37 +3654,37 @@
         <v>44713</v>
       </c>
       <c r="C61" t="n">
-        <v>9384.821004635814</v>
+        <v>9303.061005773325</v>
       </c>
       <c r="D61" t="n">
-        <v>7990.817037815144</v>
+        <v>7606.125176053652</v>
       </c>
       <c r="E61" t="n">
-        <v>11378.75869805286</v>
+        <v>11004.71869601675</v>
       </c>
       <c r="F61" t="n">
-        <v>9384.812200245571</v>
+        <v>9303.061005773325</v>
       </c>
       <c r="G61" t="n">
-        <v>9384.837132463077</v>
+        <v>9303.061005773325</v>
       </c>
       <c r="H61" t="n">
-        <v>396.7017060108868</v>
+        <v>164.6076863602411</v>
       </c>
       <c r="I61" t="n">
-        <v>396.7017060108868</v>
+        <v>164.6076863602411</v>
       </c>
       <c r="J61" t="n">
-        <v>396.7017060108868</v>
+        <v>164.6076863602411</v>
       </c>
       <c r="K61" t="n">
-        <v>396.7017060108868</v>
+        <v>164.6076863602411</v>
       </c>
       <c r="L61" t="n">
-        <v>396.7017060108868</v>
+        <v>164.6076863602411</v>
       </c>
       <c r="M61" t="n">
-        <v>396.7017060108868</v>
+        <v>164.6076863602411</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>9781.522710646701</v>
+        <v>9467.668692133566</v>
       </c>
     </row>
     <row r="62">
@@ -3707,37 +3707,37 @@
         <v>44743</v>
       </c>
       <c r="C62" t="n">
-        <v>9401.13868211903</v>
+        <v>9317.730812341124</v>
       </c>
       <c r="D62" t="n">
-        <v>7004.663646334762</v>
+        <v>6838.23791377306</v>
       </c>
       <c r="E62" t="n">
-        <v>10362.45232440395</v>
+        <v>10283.18466184244</v>
       </c>
       <c r="F62" t="n">
-        <v>9401.086277484812</v>
+        <v>9317.72122700518</v>
       </c>
       <c r="G62" t="n">
-        <v>9401.204336015624</v>
+        <v>9317.735431844983</v>
       </c>
       <c r="H62" t="n">
-        <v>-684.2684379824735</v>
+        <v>-649.7124124670569</v>
       </c>
       <c r="I62" t="n">
-        <v>-684.2684379824735</v>
+        <v>-649.7124124670569</v>
       </c>
       <c r="J62" t="n">
-        <v>-684.2684379824735</v>
+        <v>-649.7124124670569</v>
       </c>
       <c r="K62" t="n">
-        <v>-684.2684379824735</v>
+        <v>-649.7124124670569</v>
       </c>
       <c r="L62" t="n">
-        <v>-684.2684379824735</v>
+        <v>-649.7124124670569</v>
       </c>
       <c r="M62" t="n">
-        <v>-684.2684379824735</v>
+        <v>-649.7124124670569</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>8716.870244136557</v>
+        <v>8668.018399874067</v>
       </c>
     </row>
     <row r="63">
@@ -3760,37 +3760,37 @@
         <v>44774</v>
       </c>
       <c r="C63" t="n">
-        <v>9418.000282185018</v>
+        <v>9332.889612461186</v>
       </c>
       <c r="D63" t="n">
-        <v>8055.617683552965</v>
+        <v>7980.65813136263</v>
       </c>
       <c r="E63" t="n">
-        <v>11378.83804810442</v>
+        <v>11366.27973183473</v>
       </c>
       <c r="F63" t="n">
-        <v>9417.895701289921</v>
+        <v>9332.846758094862</v>
       </c>
       <c r="G63" t="n">
-        <v>9418.129000776746</v>
+        <v>9332.920172059088</v>
       </c>
       <c r="H63" t="n">
-        <v>260.0088849460486</v>
+        <v>292.4364436705826</v>
       </c>
       <c r="I63" t="n">
-        <v>260.0088849460486</v>
+        <v>292.4364436705826</v>
       </c>
       <c r="J63" t="n">
-        <v>260.0088849460486</v>
+        <v>292.4364436705826</v>
       </c>
       <c r="K63" t="n">
-        <v>260.0088849460486</v>
+        <v>292.4364436705826</v>
       </c>
       <c r="L63" t="n">
-        <v>260.0088849460486</v>
+        <v>292.4364436705826</v>
       </c>
       <c r="M63" t="n">
-        <v>260.0088849460486</v>
+        <v>292.4364436705826</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>9678.009167131066</v>
+        <v>9625.326056131767</v>
       </c>
     </row>
     <row r="64">
@@ -3813,37 +3813,37 @@
         <v>44805</v>
       </c>
       <c r="C64" t="n">
-        <v>9434.861882251007</v>
+        <v>9348.048412581245</v>
       </c>
       <c r="D64" t="n">
-        <v>7240.19992856499</v>
+        <v>7323.009034126225</v>
       </c>
       <c r="E64" t="n">
-        <v>10700.97206694918</v>
+        <v>10739.91716853904</v>
       </c>
       <c r="F64" t="n">
-        <v>9434.679463709355</v>
+        <v>9347.961132284856</v>
       </c>
       <c r="G64" t="n">
-        <v>9435.081839766272</v>
+        <v>9348.118413947215</v>
       </c>
       <c r="H64" t="n">
-        <v>-434.4194341058148</v>
+        <v>-404.1877621883949</v>
       </c>
       <c r="I64" t="n">
-        <v>-434.4194341058148</v>
+        <v>-404.1877621883949</v>
       </c>
       <c r="J64" t="n">
-        <v>-434.4194341058148</v>
+        <v>-404.1877621883949</v>
       </c>
       <c r="K64" t="n">
-        <v>-434.4194341058148</v>
+        <v>-404.1877621883949</v>
       </c>
       <c r="L64" t="n">
-        <v>-434.4194341058148</v>
+        <v>-404.1877621883949</v>
       </c>
       <c r="M64" t="n">
-        <v>-434.4194341058148</v>
+        <v>-404.1877621883949</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>9000.442448145192</v>
+        <v>8943.860650392851</v>
       </c>
     </row>
     <row r="65">
@@ -3866,37 +3866,37 @@
         <v>44835</v>
       </c>
       <c r="C65" t="n">
-        <v>9451.179559734222</v>
+        <v>9362.718219149046</v>
       </c>
       <c r="D65" t="n">
-        <v>8029.573912061301</v>
+        <v>7996.048630692335</v>
       </c>
       <c r="E65" t="n">
-        <v>11335.0342046855</v>
+        <v>11266.46590558719</v>
       </c>
       <c r="F65" t="n">
-        <v>9450.921232151049</v>
+        <v>9362.572655275702</v>
       </c>
       <c r="G65" t="n">
-        <v>9451.488736846823</v>
+        <v>9362.832266215069</v>
       </c>
       <c r="H65" t="n">
-        <v>294.1988478623574</v>
+        <v>321.7183033480533</v>
       </c>
       <c r="I65" t="n">
-        <v>294.1988478623574</v>
+        <v>321.7183033480533</v>
       </c>
       <c r="J65" t="n">
-        <v>294.1988478623574</v>
+        <v>321.7183033480533</v>
       </c>
       <c r="K65" t="n">
-        <v>294.1988478623574</v>
+        <v>321.7183033480533</v>
       </c>
       <c r="L65" t="n">
-        <v>294.1988478623574</v>
+        <v>321.7183033480533</v>
       </c>
       <c r="M65" t="n">
-        <v>294.1988478623574</v>
+        <v>321.7183033480533</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>9745.37840759658</v>
+        <v>9684.436522497101</v>
       </c>
     </row>
     <row r="66">
@@ -3919,37 +3919,37 @@
         <v>44866</v>
       </c>
       <c r="C66" t="n">
-        <v>9468.04115980021</v>
+        <v>9377.877019269106</v>
       </c>
       <c r="D66" t="n">
-        <v>8010.455121306295</v>
+        <v>7961.459013308795</v>
       </c>
       <c r="E66" t="n">
-        <v>11321.43996592474</v>
+        <v>11391.34826525044</v>
       </c>
       <c r="F66" t="n">
-        <v>9467.687639605074</v>
+        <v>9377.667723181727</v>
       </c>
       <c r="G66" t="n">
-        <v>9468.458608170036</v>
+        <v>9378.036689119153</v>
       </c>
       <c r="H66" t="n">
-        <v>186.3381742383666</v>
+        <v>211.7379721648437</v>
       </c>
       <c r="I66" t="n">
-        <v>186.3381742383666</v>
+        <v>211.7379721648437</v>
       </c>
       <c r="J66" t="n">
-        <v>186.3381742383666</v>
+        <v>211.7379721648437</v>
       </c>
       <c r="K66" t="n">
-        <v>186.3381742383666</v>
+        <v>211.7379721648437</v>
       </c>
       <c r="L66" t="n">
-        <v>186.3381742383666</v>
+        <v>211.7379721648437</v>
       </c>
       <c r="M66" t="n">
-        <v>186.3381742383666</v>
+        <v>211.7379721648437</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>9654.379334038576</v>
+        <v>9589.614991433949</v>
       </c>
     </row>
     <row r="67">
@@ -3972,37 +3972,37 @@
         <v>44896</v>
       </c>
       <c r="C67" t="n">
-        <v>9484.358837283427</v>
+        <v>9392.546825836907</v>
       </c>
       <c r="D67" t="n">
-        <v>7288.759672818698</v>
+        <v>7217.171809038885</v>
       </c>
       <c r="E67" t="n">
-        <v>10847.28241430472</v>
+        <v>10844.44852067995</v>
       </c>
       <c r="F67" t="n">
-        <v>9483.887683797069</v>
+        <v>9392.274369984405</v>
       </c>
       <c r="G67" t="n">
-        <v>9484.89703920701</v>
+        <v>9392.763148484746</v>
       </c>
       <c r="H67" t="n">
-        <v>-499.6506537678776</v>
+        <v>-474.4226150855122</v>
       </c>
       <c r="I67" t="n">
-        <v>-499.6506537678776</v>
+        <v>-474.4226150855122</v>
       </c>
       <c r="J67" t="n">
-        <v>-499.6506537678776</v>
+        <v>-474.4226150855122</v>
       </c>
       <c r="K67" t="n">
-        <v>-499.6506537678776</v>
+        <v>-474.4226150855122</v>
       </c>
       <c r="L67" t="n">
-        <v>-499.6506537678776</v>
+        <v>-474.4226150855122</v>
       </c>
       <c r="M67" t="n">
-        <v>-499.6506537678776</v>
+        <v>-474.4226150855122</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
@@ -4014,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>8984.70818351555</v>
+        <v>8918.124210751395</v>
       </c>
     </row>
     <row r="68">
@@ -4025,37 +4025,37 @@
         <v>44927</v>
       </c>
       <c r="C68" t="n">
-        <v>9501.220437349415</v>
+        <v>9407.705625956969</v>
       </c>
       <c r="D68" t="n">
-        <v>8139.093326944364</v>
+        <v>8129.924072800883</v>
       </c>
       <c r="E68" t="n">
-        <v>11564.71520348865</v>
+        <v>11580.12199425557</v>
       </c>
       <c r="F68" t="n">
-        <v>9500.62035648386</v>
+        <v>9407.359219658701</v>
       </c>
       <c r="G68" t="n">
-        <v>9501.899389923363</v>
+        <v>9407.996562702639</v>
       </c>
       <c r="H68" t="n">
-        <v>360.2103504815036</v>
+        <v>388.0454453427095</v>
       </c>
       <c r="I68" t="n">
-        <v>360.2103504815036</v>
+        <v>388.0454453427095</v>
       </c>
       <c r="J68" t="n">
-        <v>360.2103504815036</v>
+        <v>388.0454453427095</v>
       </c>
       <c r="K68" t="n">
-        <v>360.2103504815036</v>
+        <v>388.0454453427095</v>
       </c>
       <c r="L68" t="n">
-        <v>360.2103504815036</v>
+        <v>388.0454453427095</v>
       </c>
       <c r="M68" t="n">
-        <v>360.2103504815036</v>
+        <v>388.0454453427095</v>
       </c>
       <c r="N68" t="n">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>9861.430787830919</v>
+        <v>9795.751071299679</v>
       </c>
     </row>
     <row r="69">
@@ -4078,37 +4078,37 @@
         <v>44958</v>
       </c>
       <c r="C69" t="n">
-        <v>9518.082037415403</v>
+        <v>9422.864426077029</v>
       </c>
       <c r="D69" t="n">
-        <v>6617.024780268617</v>
+        <v>6886.909124027946</v>
       </c>
       <c r="E69" t="n">
-        <v>10256.66823721615</v>
+        <v>10113.44846939719</v>
       </c>
       <c r="F69" t="n">
-        <v>9517.374061026425</v>
+        <v>9422.452981205048</v>
       </c>
       <c r="G69" t="n">
-        <v>9518.914214311639</v>
+        <v>9423.237029212847</v>
       </c>
       <c r="H69" t="n">
-        <v>-972.8707923318129</v>
+        <v>-939.4553140753216</v>
       </c>
       <c r="I69" t="n">
-        <v>-972.8707923318129</v>
+        <v>-939.4553140753216</v>
       </c>
       <c r="J69" t="n">
-        <v>-972.8707923318129</v>
+        <v>-939.4553140753216</v>
       </c>
       <c r="K69" t="n">
-        <v>-972.8707923318129</v>
+        <v>-939.4553140753216</v>
       </c>
       <c r="L69" t="n">
-        <v>-972.8707923318129</v>
+        <v>-939.4553140753216</v>
       </c>
       <c r="M69" t="n">
-        <v>-972.8707923318129</v>
+        <v>-939.4553140753216</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>8545.21124508359</v>
+        <v>8483.409112001707</v>
       </c>
     </row>
     <row r="70">
@@ -4131,37 +4131,37 @@
         <v>44986</v>
       </c>
       <c r="C70" t="n">
-        <v>9533.31186973307</v>
+        <v>9436.556245540309</v>
       </c>
       <c r="D70" t="n">
-        <v>7822.896520124378</v>
+        <v>7767.40918499442</v>
       </c>
       <c r="E70" t="n">
-        <v>11211.94390436849</v>
+        <v>11157.16736029977</v>
       </c>
       <c r="F70" t="n">
-        <v>9532.503947261501</v>
+        <v>9436.047948732115</v>
       </c>
       <c r="G70" t="n">
-        <v>9534.271444980179</v>
+        <v>9437.013267083395</v>
       </c>
       <c r="H70" t="n">
-        <v>-5.040127171961673</v>
+        <v>41.58089525752733</v>
       </c>
       <c r="I70" t="n">
-        <v>-5.040127171961673</v>
+        <v>41.58089525752733</v>
       </c>
       <c r="J70" t="n">
-        <v>-5.040127171961673</v>
+        <v>41.58089525752733</v>
       </c>
       <c r="K70" t="n">
-        <v>-5.040127171961673</v>
+        <v>41.58089525752733</v>
       </c>
       <c r="L70" t="n">
-        <v>-5.040127171961673</v>
+        <v>41.58089525752733</v>
       </c>
       <c r="M70" t="n">
-        <v>-5.040127171961673</v>
+        <v>41.58089525752733</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -4173,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>9528.271742561108</v>
+        <v>9478.137140797837</v>
       </c>
     </row>
     <row r="71">
@@ -4184,37 +4184,37 @@
         <v>45017</v>
       </c>
       <c r="C71" t="n">
-        <v>9550.17346979906</v>
+        <v>9451.71504566037</v>
       </c>
       <c r="D71" t="n">
-        <v>7530.168981061424</v>
+        <v>7567.805142526357</v>
       </c>
       <c r="E71" t="n">
-        <v>10943.87517525585</v>
+        <v>10970.35079007611</v>
       </c>
       <c r="F71" t="n">
-        <v>9549.257257964302</v>
+        <v>9451.106522454016</v>
       </c>
       <c r="G71" t="n">
-        <v>9551.307835482039</v>
+        <v>9452.262162655803</v>
       </c>
       <c r="H71" t="n">
-        <v>-248.6122514214357</v>
+        <v>-190.5996772248047</v>
       </c>
       <c r="I71" t="n">
-        <v>-248.6122514214357</v>
+        <v>-190.5996772248047</v>
       </c>
       <c r="J71" t="n">
-        <v>-248.6122514214357</v>
+        <v>-190.5996772248047</v>
       </c>
       <c r="K71" t="n">
-        <v>-248.6122514214357</v>
+        <v>-190.5996772248047</v>
       </c>
       <c r="L71" t="n">
-        <v>-248.6122514214357</v>
+        <v>-190.5996772248047</v>
       </c>
       <c r="M71" t="n">
-        <v>-248.6122514214357</v>
+        <v>-190.5996772248047</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>9301.561218377625</v>
+        <v>9261.115368435565</v>
       </c>
     </row>
     <row r="72">
@@ -4237,37 +4237,37 @@
         <v>45047</v>
       </c>
       <c r="C72" t="n">
-        <v>9566.491147282273</v>
+        <v>9466.38485222817</v>
       </c>
       <c r="D72" t="n">
-        <v>8002.315514033338</v>
+        <v>7981.813958445033</v>
       </c>
       <c r="E72" t="n">
-        <v>11354.02737528922</v>
+        <v>11472.6050297215</v>
       </c>
       <c r="F72" t="n">
-        <v>9565.446968183254</v>
+        <v>9465.666362592357</v>
       </c>
       <c r="G72" t="n">
-        <v>9567.780999942108</v>
+        <v>9467.027805942584</v>
       </c>
       <c r="H72" t="n">
-        <v>79.97935433678734</v>
+        <v>145.7555068257255</v>
       </c>
       <c r="I72" t="n">
-        <v>79.97935433678734</v>
+        <v>145.7555068257255</v>
       </c>
       <c r="J72" t="n">
-        <v>79.97935433678734</v>
+        <v>145.7555068257255</v>
       </c>
       <c r="K72" t="n">
-        <v>79.97935433678734</v>
+        <v>145.7555068257255</v>
       </c>
       <c r="L72" t="n">
-        <v>79.97935433678734</v>
+        <v>145.7555068257255</v>
       </c>
       <c r="M72" t="n">
-        <v>79.97935433678734</v>
+        <v>145.7555068257255</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
@@ -4279,7 +4279,7 @@
         <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>9646.47050161906</v>
+        <v>9612.140359053896</v>
       </c>
     </row>
     <row r="73">
@@ -4290,37 +4290,37 @@
         <v>45078</v>
       </c>
       <c r="C73" t="n">
-        <v>9583.352747348263</v>
+        <v>9481.543652348229</v>
       </c>
       <c r="D73" t="n">
-        <v>8211.216915251258</v>
+        <v>7875.391938243322</v>
       </c>
       <c r="E73" t="n">
-        <v>11545.2453599467</v>
+        <v>11208.19733907203</v>
       </c>
       <c r="F73" t="n">
-        <v>9582.176449742981</v>
+        <v>9480.71786724547</v>
       </c>
       <c r="G73" t="n">
-        <v>9584.800041862127</v>
+        <v>9482.264537288227</v>
       </c>
       <c r="H73" t="n">
-        <v>349.9908713827786</v>
+        <v>47.44270249920967</v>
       </c>
       <c r="I73" t="n">
-        <v>349.9908713827786</v>
+        <v>47.44270249920967</v>
       </c>
       <c r="J73" t="n">
-        <v>349.9908713827786</v>
+        <v>47.44270249920967</v>
       </c>
       <c r="K73" t="n">
-        <v>349.9908713827786</v>
+        <v>47.44270249920967</v>
       </c>
       <c r="L73" t="n">
-        <v>349.9908713827786</v>
+        <v>47.44270249920967</v>
       </c>
       <c r="M73" t="n">
-        <v>349.9908713827786</v>
+        <v>47.44270249920967</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
@@ -4332,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>9933.343618731042</v>
+        <v>9528.986354847439</v>
       </c>
     </row>
     <row r="74">
@@ -4343,37 +4343,37 @@
         <v>45108</v>
       </c>
       <c r="C74" t="n">
-        <v>9599.670424831478</v>
+        <v>9496.213458916031</v>
       </c>
       <c r="D74" t="n">
-        <v>7642.6839697742</v>
+        <v>7449.588461468192</v>
       </c>
       <c r="E74" t="n">
-        <v>10926.76160100768</v>
+        <v>10884.41926477032</v>
       </c>
       <c r="F74" t="n">
-        <v>9598.310336468399</v>
+        <v>9495.28306003437</v>
       </c>
       <c r="G74" t="n">
-        <v>9601.286296225982</v>
+        <v>9497.04534004746</v>
       </c>
       <c r="H74" t="n">
-        <v>-295.1782441660039</v>
+        <v>-236.7852059247386</v>
       </c>
       <c r="I74" t="n">
-        <v>-295.1782441660039</v>
+        <v>-236.7852059247386</v>
       </c>
       <c r="J74" t="n">
-        <v>-295.1782441660039</v>
+        <v>-236.7852059247386</v>
       </c>
       <c r="K74" t="n">
-        <v>-295.1782441660039</v>
+        <v>-236.7852059247386</v>
       </c>
       <c r="L74" t="n">
-        <v>-295.1782441660039</v>
+        <v>-236.7852059247386</v>
       </c>
       <c r="M74" t="n">
-        <v>-295.1782441660039</v>
+        <v>-236.7852059247386</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
@@ -4385,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>9304.492180665475</v>
+        <v>9259.428252991293</v>
       </c>
     </row>
     <row r="75">
@@ -4396,37 +4396,37 @@
         <v>45139</v>
       </c>
       <c r="C75" t="n">
-        <v>9616.532024897466</v>
+        <v>9511.372259036092</v>
       </c>
       <c r="D75" t="n">
-        <v>8069.919581313318</v>
+        <v>8043.700118386008</v>
       </c>
       <c r="E75" t="n">
-        <v>11294.36395883021</v>
+        <v>11325.79027522874</v>
       </c>
       <c r="F75" t="n">
-        <v>9614.996356451436</v>
+        <v>9510.340024368368</v>
       </c>
       <c r="G75" t="n">
-        <v>9618.319368669563</v>
+        <v>9512.331149235328</v>
       </c>
       <c r="H75" t="n">
-        <v>177.8432388563929</v>
+        <v>225.8319088530448</v>
       </c>
       <c r="I75" t="n">
-        <v>177.8432388563929</v>
+        <v>225.8319088530448</v>
       </c>
       <c r="J75" t="n">
-        <v>177.8432388563929</v>
+        <v>225.8319088530448</v>
       </c>
       <c r="K75" t="n">
-        <v>177.8432388563929</v>
+        <v>225.8319088530448</v>
       </c>
       <c r="L75" t="n">
-        <v>177.8432388563929</v>
+        <v>225.8319088530448</v>
       </c>
       <c r="M75" t="n">
-        <v>177.8432388563929</v>
+        <v>225.8319088530448</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
@@ -4438,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>9794.375263753858</v>
+        <v>9737.204167889136</v>
       </c>
     </row>
     <row r="76">
@@ -4449,37 +4449,37 @@
         <v>45170</v>
       </c>
       <c r="C76" t="n">
-        <v>9633.393624963455</v>
+        <v>9526.531059156152</v>
       </c>
       <c r="D76" t="n">
-        <v>7238.849809397115</v>
+        <v>7078.090546553424</v>
       </c>
       <c r="E76" t="n">
-        <v>10617.33000581027</v>
+        <v>10539.80497870089</v>
       </c>
       <c r="F76" t="n">
-        <v>9631.662532783268</v>
+        <v>9525.373034097041</v>
       </c>
       <c r="G76" t="n">
-        <v>9635.355092148047</v>
+        <v>9527.649374446299</v>
       </c>
       <c r="H76" t="n">
-        <v>-724.290173627839</v>
+        <v>-685.7431439467983</v>
       </c>
       <c r="I76" t="n">
-        <v>-724.290173627839</v>
+        <v>-685.7431439467983</v>
       </c>
       <c r="J76" t="n">
-        <v>-724.290173627839</v>
+        <v>-685.7431439467983</v>
       </c>
       <c r="K76" t="n">
-        <v>-724.290173627839</v>
+        <v>-685.7431439467983</v>
       </c>
       <c r="L76" t="n">
-        <v>-724.290173627839</v>
+        <v>-685.7431439467983</v>
       </c>
       <c r="M76" t="n">
-        <v>-724.290173627839</v>
+        <v>-685.7431439467983</v>
       </c>
       <c r="N76" t="n">
         <v>0</v>
@@ -4491,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>8909.103451335617</v>
+        <v>8840.787915209354</v>
       </c>
     </row>
     <row r="77">
@@ -4502,37 +4502,37 @@
         <v>45200</v>
       </c>
       <c r="C77" t="n">
-        <v>9649.711302446671</v>
+        <v>9541.200865723953</v>
       </c>
       <c r="D77" t="n">
-        <v>8308.615381556305</v>
+        <v>8281.369740137152</v>
       </c>
       <c r="E77" t="n">
-        <v>11758.96577564721</v>
+        <v>11863.86979841501</v>
       </c>
       <c r="F77" t="n">
-        <v>9647.853092641792</v>
+        <v>9539.927316599691</v>
       </c>
       <c r="G77" t="n">
-        <v>9651.910788859122</v>
+        <v>9542.419761820727</v>
       </c>
       <c r="H77" t="n">
-        <v>417.1603377123764</v>
+        <v>445.2940073925317</v>
       </c>
       <c r="I77" t="n">
-        <v>417.1603377123764</v>
+        <v>445.2940073925317</v>
       </c>
       <c r="J77" t="n">
-        <v>417.1603377123764</v>
+        <v>445.2940073925317</v>
       </c>
       <c r="K77" t="n">
-        <v>417.1603377123764</v>
+        <v>445.2940073925317</v>
       </c>
       <c r="L77" t="n">
-        <v>417.1603377123764</v>
+        <v>445.2940073925317</v>
       </c>
       <c r="M77" t="n">
-        <v>417.1603377123764</v>
+        <v>445.2940073925317</v>
       </c>
       <c r="N77" t="n">
         <v>0</v>
@@ -4544,7 +4544,60 @@
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>10066.87164015905</v>
+        <v>9986.494873116484</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="C78" t="n">
+        <v>9556.359665844013</v>
+      </c>
+      <c r="D78" t="n">
+        <v>8052.23926302373</v>
+      </c>
+      <c r="E78" t="n">
+        <v>11460.57338763781</v>
+      </c>
+      <c r="F78" t="n">
+        <v>9554.966019447331</v>
+      </c>
+      <c r="G78" t="n">
+        <v>9557.710872025618</v>
+      </c>
+      <c r="H78" t="n">
+        <v>230.5670597213141</v>
+      </c>
+      <c r="I78" t="n">
+        <v>230.5670597213141</v>
+      </c>
+      <c r="J78" t="n">
+        <v>230.5670597213141</v>
+      </c>
+      <c r="K78" t="n">
+        <v>230.5670597213141</v>
+      </c>
+      <c r="L78" t="n">
+        <v>230.5670597213141</v>
+      </c>
+      <c r="M78" t="n">
+        <v>230.5670597213141</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>9786.926725565327</v>
       </c>
     </row>
   </sheetData>
